--- a/MarsCompetition/ExcelDataFile/TestCases.xlsx
+++ b/MarsCompetition/ExcelDataFile/TestCases.xlsx
@@ -6,19 +6,20 @@
     <sheet state="visible" name="Mars Test Conditions" sheetId="1" r:id="rId4"/>
     <sheet state="visible" name="Mars Test Case" sheetId="2" r:id="rId5"/>
     <sheet state="visible" name="ShareNewSkill" sheetId="3" r:id="rId6"/>
+    <sheet state="visible" name="EditSkill" sheetId="4" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId7" roundtripDataSignature="AMtx7miM6ikV/XHvS0/aGKp+1Yom8PM5SQ=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId8" roundtripDataSignature="AMtx7mhVKgTUiaiEiO/gQSjXd0730viOig=="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="210">
   <si>
     <t>ID</t>
   </si>
@@ -933,6 +934,18 @@
   </si>
   <si>
     <t>Debug</t>
+  </si>
+  <si>
+    <t>Wendy</t>
+  </si>
+  <si>
+    <t>I like watching TV.</t>
+  </si>
+  <si>
+    <t>Ada</t>
+  </si>
+  <si>
+    <t>I am a writer.</t>
   </si>
 </sst>
 </file>
@@ -992,7 +1005,7 @@
       <name val="Lato"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1017,6 +1030,12 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor theme="0"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border/>
@@ -1024,7 +1043,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1102,6 +1121,9 @@
     <xf borderId="0" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -1119,6 +1141,10 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -9772,7 +9798,7 @@
       <c r="V1" s="20" t="s">
         <v>161</v>
       </c>
-      <c r="W1" s="21" t="s">
+      <c r="W1" s="20" t="s">
         <v>162</v>
       </c>
     </row>
@@ -10097,6 +10123,95 @@
     </row>
     <row r="8">
       <c r="T8" s="25"/>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <cols>
+    <col customWidth="1" min="3" max="3" width="28.63"/>
+    <col customWidth="1" min="7" max="7" width="21.13"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="27"/>
+      <c r="O1" s="27"/>
+      <c r="P1" s="27"/>
+      <c r="Q1" s="27"/>
+      <c r="R1" s="27"/>
+      <c r="S1" s="27"/>
+      <c r="T1" s="27"/>
+      <c r="U1" s="27"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>207</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>172</v>
+      </c>
+      <c r="G2" s="22"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="T2" s="25"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>208</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>209</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>172</v>
+      </c>
+      <c r="G3" s="22"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="24"/>
+      <c r="T3" s="25"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>

--- a/MarsCompetition/ExcelDataFile/TestCases.xlsx
+++ b/MarsCompetition/ExcelDataFile/TestCases.xlsx
@@ -7,19 +7,20 @@
     <sheet state="visible" name="Mars Test Case" sheetId="2" r:id="rId5"/>
     <sheet state="visible" name="ShareNewSkill" sheetId="3" r:id="rId6"/>
     <sheet state="visible" name="EditSkill" sheetId="4" r:id="rId7"/>
+    <sheet state="visible" name="DeleteSkill" sheetId="5" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr/>
   <extLst>
-    <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId8" roundtripDataSignature="AMtx7mhVKgTUiaiEiO/gQSjXd0730viOig=="/>
+    <ext uri="GoogleSheetsCustomDataVersion2">
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataChecksum="6rwJHbn+SHSISLBHCwoqD27toSaJfUvHeIIqGSSzLA4="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="210">
   <si>
     <t>ID</t>
   </si>
@@ -1145,6 +1146,10 @@
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -10216,4 +10221,50 @@
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>208</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>209</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>172</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/MarsCompetition/ExcelDataFile/TestCases.xlsx
+++ b/MarsCompetition/ExcelDataFile/TestCases.xlsx
@@ -1,26 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/27b1bfd14a029c1e/Documents/MarsCompetition/MarsCompetition/ExcelDataFile/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_16ACACC427CAB4E52D0DD3546B13D99D78955A4C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6AA4E8A0-890B-4058-8A2E-BE8B8F41D659}"/>
+  <bookViews>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Mars Test Conditions" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="Mars Test Case" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="ShareNewSkill" sheetId="3" r:id="rId6"/>
-    <sheet state="visible" name="EditSkill" sheetId="4" r:id="rId7"/>
-    <sheet state="visible" name="DeleteSkill" sheetId="5" r:id="rId8"/>
+    <sheet name="Mars Test Conditions" sheetId="1" r:id="rId1"/>
+    <sheet name="Mars Test Case" sheetId="2" r:id="rId2"/>
+    <sheet name="ShareNewSkill" sheetId="3" r:id="rId3"/>
+    <sheet name="EditSkill" sheetId="4" r:id="rId4"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
-  <extLst>
-    <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataChecksum="6rwJHbn+SHSISLBHCwoqD27toSaJfUvHeIIqGSSzLA4="/>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="218">
   <si>
     <t>ID</t>
   </si>
@@ -108,29 +111,29 @@
   <si>
     <r>
       <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri, Arial"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
       </rPr>
       <t>Step 1: Launch the URL: "</t>
     </r>
     <r>
       <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF1155CC"/>
         <rFont val="Calibri, Arial"/>
-        <b/>
-        <color rgb="FF1155CC"/>
-        <sz val="11.0"/>
-        <u/>
       </rPr>
       <t>http://localhost:5000</t>
     </r>
     <r>
       <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri, Arial"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
       </rPr>
       <t>"</t>
     </r>
@@ -156,29 +159,29 @@
   <si>
     <r>
       <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri, Arial"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
       </rPr>
       <t>Step 1: Launch the URL: "</t>
     </r>
     <r>
       <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF1155CC"/>
         <rFont val="Calibri, Arial"/>
-        <b/>
-        <color rgb="FF1155CC"/>
-        <sz val="11.0"/>
-        <u/>
       </rPr>
       <t>http://localhost:5000</t>
     </r>
     <r>
       <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri, Arial"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
       </rPr>
       <t>"</t>
     </r>
@@ -264,29 +267,29 @@
   <si>
     <r>
       <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri, Arial"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
       </rPr>
       <t>Step 1: Launch the URL: "</t>
     </r>
     <r>
       <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF1155CC"/>
         <rFont val="Calibri, Arial"/>
-        <b/>
-        <color rgb="FF1155CC"/>
-        <sz val="11.0"/>
-        <u/>
       </rPr>
       <t>http://localhost:5000</t>
     </r>
     <r>
       <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri, Arial"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
       </rPr>
       <t>"</t>
     </r>
@@ -315,29 +318,29 @@
   <si>
     <r>
       <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri, Arial"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
       </rPr>
       <t>Step 1: Launch the URL: "</t>
     </r>
     <r>
       <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF1155CC"/>
         <rFont val="Calibri, Arial"/>
-        <b/>
-        <color rgb="FF1155CC"/>
-        <sz val="11.0"/>
-        <u/>
       </rPr>
       <t>http://localhost:5000</t>
     </r>
     <r>
       <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri, Arial"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
       </rPr>
       <t>"</t>
     </r>
@@ -378,29 +381,29 @@
   <si>
     <r>
       <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri, Arial"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
       </rPr>
       <t>Step 1: Launch the URL: "</t>
     </r>
     <r>
       <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF1155CC"/>
         <rFont val="Calibri, Arial"/>
-        <b/>
-        <color rgb="FF1155CC"/>
-        <sz val="11.0"/>
-        <u/>
       </rPr>
       <t>http://localhost:5000</t>
     </r>
     <r>
       <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri, Arial"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
       </rPr>
       <t>"</t>
     </r>
@@ -426,29 +429,29 @@
   <si>
     <r>
       <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri, Arial"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
       </rPr>
       <t>Step 1: Launch the URL: "</t>
     </r>
     <r>
       <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF1155CC"/>
         <rFont val="Calibri, Arial"/>
-        <b/>
-        <color rgb="FF1155CC"/>
-        <sz val="11.0"/>
-        <u/>
       </rPr>
       <t>http://localhost:5000</t>
     </r>
     <r>
       <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri, Arial"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
       </rPr>
       <t>"</t>
     </r>
@@ -540,29 +543,29 @@
   <si>
     <r>
       <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri, Arial"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
       </rPr>
       <t>Step 1: Launch the URL: "</t>
     </r>
     <r>
       <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF1155CC"/>
         <rFont val="Calibri, Arial"/>
-        <b/>
-        <color rgb="FF1155CC"/>
-        <sz val="11.0"/>
-        <u/>
       </rPr>
       <t>http://localhost:5000</t>
     </r>
     <r>
       <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri, Arial"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
       </rPr>
       <t>"</t>
     </r>
@@ -585,29 +588,29 @@
   <si>
     <r>
       <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri, Arial"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
       </rPr>
       <t>Step 1: Launch the URL: "</t>
     </r>
     <r>
       <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF1155CC"/>
         <rFont val="Calibri, Arial"/>
-        <b/>
-        <color rgb="FF1155CC"/>
-        <sz val="11.0"/>
-        <u/>
       </rPr>
       <t>http://localhost:5000</t>
     </r>
     <r>
       <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri, Arial"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
       </rPr>
       <t>"</t>
     </r>
@@ -633,29 +636,29 @@
   <si>
     <r>
       <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri, Arial"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
       </rPr>
       <t>Step 1: Launch the URL: "</t>
     </r>
     <r>
       <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF1155CC"/>
         <rFont val="Calibri, Arial"/>
-        <b/>
-        <color rgb="FF1155CC"/>
-        <sz val="11.0"/>
-        <u/>
       </rPr>
       <t>http://localhost:5000</t>
     </r>
     <r>
       <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri, Arial"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
       </rPr>
       <t>"</t>
     </r>
@@ -672,29 +675,29 @@
   <si>
     <r>
       <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri, Arial"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
       </rPr>
       <t>Step 1: Launch the URL: "</t>
     </r>
     <r>
       <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF1155CC"/>
         <rFont val="Calibri, Arial"/>
-        <b/>
-        <color rgb="FF1155CC"/>
-        <sz val="11.0"/>
-        <u/>
       </rPr>
       <t>http://localhost:5000</t>
     </r>
     <r>
       <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri, Arial"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
       </rPr>
       <t>"</t>
     </r>
@@ -708,29 +711,29 @@
   <si>
     <r>
       <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri, Arial"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
       </rPr>
       <t>Step 1: Launch the URL: "</t>
     </r>
     <r>
       <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF1155CC"/>
         <rFont val="Calibri, Arial"/>
-        <b/>
-        <color rgb="FF1155CC"/>
-        <sz val="11.0"/>
-        <u/>
       </rPr>
       <t>http://localhost:5000</t>
     </r>
     <r>
       <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri, Arial"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
       </rPr>
       <t>"</t>
     </r>
@@ -829,6 +832,12 @@
     <t>On-site</t>
   </si>
   <si>
+    <t>01/12/2023</t>
+  </si>
+  <si>
+    <t>31/12/2023</t>
+  </si>
+  <si>
     <t>9:00-17:00</t>
   </si>
   <si>
@@ -859,6 +868,9 @@
     <t>Online</t>
   </si>
   <si>
+    <t>12/12/2023</t>
+  </si>
+  <si>
     <t>10:00-17:00</t>
   </si>
   <si>
@@ -877,6 +889,12 @@
     <t>Basketball,Sport</t>
   </si>
   <si>
+    <t>06/01/2024</t>
+  </si>
+  <si>
+    <t>09/10/2024</t>
+  </si>
+  <si>
     <t>Writing</t>
   </si>
   <si>
@@ -898,6 +916,12 @@
     <t>Consultant,Wriring</t>
   </si>
   <si>
+    <t>01/01/2024</t>
+  </si>
+  <si>
+    <t>06/10/2024</t>
+  </si>
+  <si>
     <t>12:00-14:00</t>
   </si>
   <si>
@@ -907,9 +931,6 @@
     <t>Lydia</t>
   </si>
   <si>
-    <t>I'm a famous singer.</t>
-  </si>
-  <si>
     <t>Music &amp; Audio</t>
   </si>
   <si>
@@ -919,15 +940,15 @@
     <t>Teaching,Singing</t>
   </si>
   <si>
+    <t>06/14/2024</t>
+  </si>
+  <si>
     <t>TC_001_06</t>
   </si>
   <si>
     <t>Hello World</t>
   </si>
   <si>
-    <t>I'm a software tester.</t>
-  </si>
-  <si>
     <t>Programming &amp; Tech</t>
   </si>
   <si>
@@ -947,63 +968,88 @@
   </si>
   <si>
     <t>I am a writer.</t>
+  </si>
+  <si>
+    <t>I am a famous singer.</t>
+  </si>
+  <si>
+    <t>I am a software tester.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="12">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
       <u/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Lato"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri, Arial"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF1155CC"/>
+      <name val="Calibri, Arial"/>
     </font>
   </fonts>
   <fills count="6">
@@ -1011,7 +1057,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1027,134 +1073,123 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor theme="0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor theme="0"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="1">
-    <border/>
+  <borders count="2">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+  <cellXfs count="29">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" readingOrder="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -1344,27 +1379,30 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:X1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="2" width="12.63"/>
-    <col customWidth="1" min="3" max="3" width="65.0"/>
-    <col customWidth="1" min="4" max="4" width="76.88"/>
-    <col customWidth="1" min="5" max="5" width="14.13"/>
-    <col customWidth="1" min="6" max="6" width="12.63"/>
+    <col min="1" max="2" width="12.6328125" customWidth="1"/>
+    <col min="3" max="3" width="65" customWidth="1"/>
+    <col min="4" max="4" width="76.90625" customWidth="1"/>
+    <col min="5" max="5" width="14.08984375" customWidth="1"/>
+    <col min="6" max="6" width="12.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
+    <row r="1" spans="1:24" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1398,7 +1436,7 @@
       <c r="W1" s="1"/>
       <c r="X1" s="1"/>
     </row>
-    <row r="2" ht="15.75" customHeight="1">
+    <row r="2" spans="1:24" ht="15.75" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -1430,7 +1468,7 @@
       <c r="W2" s="3"/>
       <c r="X2" s="3"/>
     </row>
-    <row r="3" ht="15.75" customHeight="1">
+    <row r="3" spans="1:24" ht="15.75" customHeight="1">
       <c r="A3" s="2"/>
       <c r="B3" s="3"/>
       <c r="C3" s="2"/>
@@ -1458,7 +1496,7 @@
       <c r="W3" s="3"/>
       <c r="X3" s="3"/>
     </row>
-    <row r="4" ht="15.75" customHeight="1">
+    <row r="4" spans="1:24" ht="15.75" customHeight="1">
       <c r="A4" s="2"/>
       <c r="B4" s="3"/>
       <c r="C4" s="2"/>
@@ -1486,7 +1524,7 @@
       <c r="W4" s="3"/>
       <c r="X4" s="3"/>
     </row>
-    <row r="5" ht="15.75" customHeight="1">
+    <row r="5" spans="1:24" ht="15.75" customHeight="1">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="2"/>
@@ -1514,7 +1552,7 @@
       <c r="W5" s="3"/>
       <c r="X5" s="3"/>
     </row>
-    <row r="6" ht="15.75" customHeight="1">
+    <row r="6" spans="1:24" ht="15.75" customHeight="1">
       <c r="B6" s="3"/>
       <c r="D6" s="4"/>
       <c r="E6" s="3"/>
@@ -1538,7 +1576,7 @@
       <c r="W6" s="3"/>
       <c r="X6" s="3"/>
     </row>
-    <row r="7" ht="15.75" customHeight="1">
+    <row r="7" spans="1:24" ht="15.75" customHeight="1">
       <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
@@ -1570,7 +1608,7 @@
       <c r="W7" s="3"/>
       <c r="X7" s="3"/>
     </row>
-    <row r="8" ht="15.75" customHeight="1">
+    <row r="8" spans="1:24" ht="15.75" customHeight="1">
       <c r="A8" s="2"/>
       <c r="B8" s="3"/>
       <c r="C8" s="2"/>
@@ -1598,7 +1636,7 @@
       <c r="W8" s="3"/>
       <c r="X8" s="3"/>
     </row>
-    <row r="9" ht="15.75" customHeight="1">
+    <row r="9" spans="1:24" ht="15.75" customHeight="1">
       <c r="A9" s="2"/>
       <c r="B9" s="3"/>
       <c r="C9" s="2"/>
@@ -1626,7 +1664,7 @@
       <c r="W9" s="3"/>
       <c r="X9" s="3"/>
     </row>
-    <row r="10" ht="15.75" customHeight="1">
+    <row r="10" spans="1:24" ht="15.75" customHeight="1">
       <c r="A10" s="2"/>
       <c r="B10" s="3"/>
       <c r="C10" s="2"/>
@@ -1654,7 +1692,7 @@
       <c r="W10" s="3"/>
       <c r="X10" s="3"/>
     </row>
-    <row r="11" ht="15.75" customHeight="1">
+    <row r="11" spans="1:24" ht="15.75" customHeight="1">
       <c r="A11" s="2"/>
       <c r="B11" s="3"/>
       <c r="C11" s="2"/>
@@ -1682,7 +1720,7 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
     </row>
-    <row r="12" ht="15.75" customHeight="1">
+    <row r="12" spans="1:24" ht="15.75" customHeight="1">
       <c r="A12" s="2"/>
       <c r="B12" s="3"/>
       <c r="C12" s="2"/>
@@ -1710,7 +1748,7 @@
       <c r="W12" s="3"/>
       <c r="X12" s="3"/>
     </row>
-    <row r="13" ht="15.75" customHeight="1">
+    <row r="13" spans="1:24" ht="15.75" customHeight="1">
       <c r="A13" s="2"/>
       <c r="B13" s="3"/>
       <c r="C13" s="2"/>
@@ -1738,7 +1776,7 @@
       <c r="W13" s="3"/>
       <c r="X13" s="3"/>
     </row>
-    <row r="14" ht="15.75" customHeight="1">
+    <row r="14" spans="1:24" ht="15.75" customHeight="1">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -1764,7 +1802,7 @@
       <c r="W14" s="3"/>
       <c r="X14" s="3"/>
     </row>
-    <row r="15" ht="15.75" customHeight="1">
+    <row r="15" spans="1:24" ht="15.75" customHeight="1">
       <c r="A15" s="4"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -1790,7 +1828,7 @@
       <c r="W15" s="3"/>
       <c r="X15" s="3"/>
     </row>
-    <row r="16" ht="15.75" customHeight="1">
+    <row r="16" spans="1:24" ht="15.75" customHeight="1">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -1816,11 +1854,11 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
     </row>
-    <row r="17" ht="15.75" customHeight="1">
+    <row r="17" spans="1:24" ht="15.75" customHeight="1">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
-      <c r="D17" s="7"/>
+      <c r="D17" s="4"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
@@ -1842,11 +1880,11 @@
       <c r="W17" s="3"/>
       <c r="X17" s="3"/>
     </row>
-    <row r="18" ht="15.75" customHeight="1">
+    <row r="18" spans="1:24" ht="15.75" customHeight="1">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
-      <c r="D18" s="7"/>
+      <c r="D18" s="4"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
@@ -1868,11 +1906,11 @@
       <c r="W18" s="3"/>
       <c r="X18" s="3"/>
     </row>
-    <row r="19" ht="15.75" customHeight="1">
+    <row r="19" spans="1:24" ht="15.75" customHeight="1">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
-      <c r="D19" s="7"/>
+      <c r="D19" s="4"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
@@ -1894,7 +1932,7 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
     </row>
-    <row r="20" ht="15.75" customHeight="1">
+    <row r="20" spans="1:24" ht="15.75" customHeight="1">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -1920,11 +1958,11 @@
       <c r="W20" s="3"/>
       <c r="X20" s="3"/>
     </row>
-    <row r="21" ht="15.75" customHeight="1">
+    <row r="21" spans="1:24" ht="15.75" customHeight="1">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
-      <c r="D21" s="7"/>
+      <c r="D21" s="4"/>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
@@ -1946,11 +1984,11 @@
       <c r="W21" s="3"/>
       <c r="X21" s="3"/>
     </row>
-    <row r="22" ht="15.75" customHeight="1">
+    <row r="22" spans="1:24" ht="15.75" customHeight="1">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
-      <c r="D22" s="7"/>
+      <c r="D22" s="4"/>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
@@ -1972,11 +2010,11 @@
       <c r="W22" s="3"/>
       <c r="X22" s="3"/>
     </row>
-    <row r="23" ht="15.75" customHeight="1">
+    <row r="23" spans="1:24" ht="15.75" customHeight="1">
       <c r="A23" s="4"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
-      <c r="D23" s="7"/>
+      <c r="D23" s="4"/>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
@@ -1998,11 +2036,11 @@
       <c r="W23" s="3"/>
       <c r="X23" s="3"/>
     </row>
-    <row r="24" ht="15.75" customHeight="1">
+    <row r="24" spans="1:24" ht="15.75" customHeight="1">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
-      <c r="D24" s="7"/>
+      <c r="D24" s="4"/>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
@@ -2024,11 +2062,11 @@
       <c r="W24" s="3"/>
       <c r="X24" s="3"/>
     </row>
-    <row r="25" ht="15.75" customHeight="1">
+    <row r="25" spans="1:24" ht="15.75" customHeight="1">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
-      <c r="D25" s="7"/>
+      <c r="D25" s="4"/>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
@@ -2050,11 +2088,11 @@
       <c r="W25" s="3"/>
       <c r="X25" s="3"/>
     </row>
-    <row r="26" ht="15.75" customHeight="1">
+    <row r="26" spans="1:24" ht="15.75" customHeight="1">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
-      <c r="D26" s="7"/>
+      <c r="D26" s="4"/>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
@@ -2076,11 +2114,11 @@
       <c r="W26" s="3"/>
       <c r="X26" s="3"/>
     </row>
-    <row r="27" ht="15.75" customHeight="1">
+    <row r="27" spans="1:24" ht="15.75" customHeight="1">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
@@ -2102,11 +2140,11 @@
       <c r="W27" s="3"/>
       <c r="X27" s="3"/>
     </row>
-    <row r="28" ht="15.75" customHeight="1">
+    <row r="28" spans="1:24" ht="15.75" customHeight="1">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
@@ -2128,11 +2166,11 @@
       <c r="W28" s="3"/>
       <c r="X28" s="3"/>
     </row>
-    <row r="29" ht="15.75" customHeight="1">
+    <row r="29" spans="1:24" ht="15.75" customHeight="1">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
@@ -2154,11 +2192,11 @@
       <c r="W29" s="3"/>
       <c r="X29" s="3"/>
     </row>
-    <row r="30" ht="15.75" customHeight="1">
+    <row r="30" spans="1:24" ht="15.75" customHeight="1">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
@@ -2180,11 +2218,11 @@
       <c r="W30" s="3"/>
       <c r="X30" s="3"/>
     </row>
-    <row r="31" ht="15.75" customHeight="1">
+    <row r="31" spans="1:24" ht="15.75" customHeight="1">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
@@ -2206,11 +2244,11 @@
       <c r="W31" s="3"/>
       <c r="X31" s="3"/>
     </row>
-    <row r="32" ht="15.75" customHeight="1">
+    <row r="32" spans="1:24" ht="15.75" customHeight="1">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
@@ -2232,11 +2270,11 @@
       <c r="W32" s="3"/>
       <c r="X32" s="3"/>
     </row>
-    <row r="33" ht="15.75" customHeight="1">
+    <row r="33" spans="1:24" ht="15.75" customHeight="1">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
@@ -2258,11 +2296,11 @@
       <c r="W33" s="3"/>
       <c r="X33" s="3"/>
     </row>
-    <row r="34" ht="15.75" customHeight="1">
+    <row r="34" spans="1:24" ht="15.75" customHeight="1">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="7"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
@@ -2284,11 +2322,11 @@
       <c r="W34" s="3"/>
       <c r="X34" s="3"/>
     </row>
-    <row r="35" ht="15.75" customHeight="1">
+    <row r="35" spans="1:24" ht="15.75" customHeight="1">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="7"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
@@ -2310,11 +2348,11 @@
       <c r="W35" s="3"/>
       <c r="X35" s="3"/>
     </row>
-    <row r="36" ht="15.75" customHeight="1">
+    <row r="36" spans="1:24" ht="15.75" customHeight="1">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="7"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
@@ -2336,11 +2374,11 @@
       <c r="W36" s="3"/>
       <c r="X36" s="3"/>
     </row>
-    <row r="37" ht="15.75" customHeight="1">
+    <row r="37" spans="1:24" ht="15.75" customHeight="1">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
-      <c r="C37" s="7"/>
-      <c r="D37" s="7"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
       <c r="G37" s="3"/>
@@ -2362,11 +2400,11 @@
       <c r="W37" s="3"/>
       <c r="X37" s="3"/>
     </row>
-    <row r="38" ht="15.75" customHeight="1">
+    <row r="38" spans="1:24" ht="15.75" customHeight="1">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
-      <c r="C38" s="7"/>
-      <c r="D38" s="7"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
@@ -2388,11 +2426,11 @@
       <c r="W38" s="3"/>
       <c r="X38" s="3"/>
     </row>
-    <row r="39" ht="15.75" customHeight="1">
+    <row r="39" spans="1:24" ht="15.75" customHeight="1">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
-      <c r="C39" s="7"/>
-      <c r="D39" s="7"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
       <c r="G39" s="3"/>
@@ -2414,11 +2452,11 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
     </row>
-    <row r="40" ht="15.75" customHeight="1">
+    <row r="40" spans="1:24" ht="15.75" customHeight="1">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
-      <c r="C40" s="7"/>
-      <c r="D40" s="7"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
       <c r="G40" s="3"/>
@@ -2440,11 +2478,11 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
     </row>
-    <row r="41" ht="15.75" customHeight="1">
+    <row r="41" spans="1:24" ht="15.75" customHeight="1">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
-      <c r="C41" s="7"/>
-      <c r="D41" s="7"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
       <c r="G41" s="3"/>
@@ -2466,11 +2504,11 @@
       <c r="W41" s="3"/>
       <c r="X41" s="3"/>
     </row>
-    <row r="42" ht="15.75" customHeight="1">
+    <row r="42" spans="1:24" ht="15.75" customHeight="1">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
-      <c r="C42" s="7"/>
-      <c r="D42" s="7"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
       <c r="G42" s="3"/>
@@ -2492,11 +2530,11 @@
       <c r="W42" s="3"/>
       <c r="X42" s="3"/>
     </row>
-    <row r="43" ht="15.75" customHeight="1">
+    <row r="43" spans="1:24" ht="15.75" customHeight="1">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
-      <c r="C43" s="7"/>
-      <c r="D43" s="7"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
       <c r="E43" s="3"/>
       <c r="F43" s="3"/>
       <c r="G43" s="3"/>
@@ -2518,11 +2556,11 @@
       <c r="W43" s="3"/>
       <c r="X43" s="3"/>
     </row>
-    <row r="44" ht="15.75" customHeight="1">
+    <row r="44" spans="1:24" ht="15.75" customHeight="1">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
-      <c r="C44" s="7"/>
-      <c r="D44" s="7"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
@@ -2544,11 +2582,11 @@
       <c r="W44" s="3"/>
       <c r="X44" s="3"/>
     </row>
-    <row r="45" ht="15.75" customHeight="1">
+    <row r="45" spans="1:24" ht="15.75" customHeight="1">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
-      <c r="C45" s="7"/>
-      <c r="D45" s="7"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
       <c r="G45" s="3"/>
@@ -2570,11 +2608,11 @@
       <c r="W45" s="3"/>
       <c r="X45" s="3"/>
     </row>
-    <row r="46" ht="15.75" customHeight="1">
+    <row r="46" spans="1:24" ht="15.75" customHeight="1">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
-      <c r="C46" s="7"/>
-      <c r="D46" s="7"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
       <c r="G46" s="3"/>
@@ -2596,11 +2634,11 @@
       <c r="W46" s="3"/>
       <c r="X46" s="3"/>
     </row>
-    <row r="47" ht="15.75" customHeight="1">
+    <row r="47" spans="1:24" ht="15.75" customHeight="1">
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
-      <c r="C47" s="7"/>
-      <c r="D47" s="7"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
       <c r="E47" s="3"/>
       <c r="F47" s="3"/>
       <c r="G47" s="3"/>
@@ -2622,11 +2660,11 @@
       <c r="W47" s="3"/>
       <c r="X47" s="3"/>
     </row>
-    <row r="48" ht="15.75" customHeight="1">
+    <row r="48" spans="1:24" ht="15.75" customHeight="1">
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
-      <c r="C48" s="7"/>
-      <c r="D48" s="7"/>
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
       <c r="E48" s="3"/>
       <c r="F48" s="3"/>
       <c r="G48" s="3"/>
@@ -2648,11 +2686,11 @@
       <c r="W48" s="3"/>
       <c r="X48" s="3"/>
     </row>
-    <row r="49" ht="15.75" customHeight="1">
+    <row r="49" spans="1:24" ht="15.75" customHeight="1">
       <c r="A49" s="3"/>
       <c r="B49" s="3"/>
-      <c r="C49" s="7"/>
-      <c r="D49" s="7"/>
+      <c r="C49" s="4"/>
+      <c r="D49" s="4"/>
       <c r="E49" s="3"/>
       <c r="F49" s="3"/>
       <c r="G49" s="3"/>
@@ -2674,10 +2712,10 @@
       <c r="W49" s="3"/>
       <c r="X49" s="3"/>
     </row>
-    <row r="50" ht="15.75" customHeight="1">
+    <row r="50" spans="1:24" ht="15.75" customHeight="1">
       <c r="A50" s="4"/>
       <c r="B50" s="3"/>
-      <c r="C50" s="7"/>
+      <c r="C50" s="4"/>
       <c r="D50" s="3"/>
       <c r="E50" s="3"/>
       <c r="F50" s="3"/>
@@ -2700,7 +2738,7 @@
       <c r="W50" s="3"/>
       <c r="X50" s="3"/>
     </row>
-    <row r="51" ht="15.75" customHeight="1">
+    <row r="51" spans="1:24" ht="15.75" customHeight="1">
       <c r="A51" s="3"/>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
@@ -2726,7 +2764,7 @@
       <c r="W51" s="3"/>
       <c r="X51" s="3"/>
     </row>
-    <row r="52" ht="15.75" customHeight="1">
+    <row r="52" spans="1:24" ht="15.75" customHeight="1">
       <c r="A52" s="3"/>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
@@ -2752,7 +2790,7 @@
       <c r="W52" s="3"/>
       <c r="X52" s="3"/>
     </row>
-    <row r="53" ht="15.75" customHeight="1">
+    <row r="53" spans="1:24" ht="15.75" customHeight="1">
       <c r="A53" s="4"/>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
@@ -2778,7 +2816,7 @@
       <c r="W53" s="3"/>
       <c r="X53" s="3"/>
     </row>
-    <row r="54" ht="15.75" customHeight="1">
+    <row r="54" spans="1:24" ht="15.75" customHeight="1">
       <c r="A54" s="3"/>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
@@ -2804,7 +2842,7 @@
       <c r="W54" s="3"/>
       <c r="X54" s="3"/>
     </row>
-    <row r="55" ht="15.75" customHeight="1">
+    <row r="55" spans="1:24" ht="15.75" customHeight="1">
       <c r="A55" s="3"/>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
@@ -2830,7 +2868,7 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
     </row>
-    <row r="56" ht="15.75" customHeight="1">
+    <row r="56" spans="1:24" ht="15.75" customHeight="1">
       <c r="A56" s="4"/>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
@@ -2856,7 +2894,7 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
     </row>
-    <row r="57" ht="15.75" customHeight="1">
+    <row r="57" spans="1:24" ht="15.75" customHeight="1">
       <c r="A57" s="3"/>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
@@ -2882,7 +2920,7 @@
       <c r="W57" s="3"/>
       <c r="X57" s="3"/>
     </row>
-    <row r="58" ht="15.75" customHeight="1">
+    <row r="58" spans="1:24" ht="15.75" customHeight="1">
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
@@ -2908,7 +2946,7 @@
       <c r="W58" s="3"/>
       <c r="X58" s="3"/>
     </row>
-    <row r="59" ht="15.75" customHeight="1">
+    <row r="59" spans="1:24" ht="15.75" customHeight="1">
       <c r="A59" s="4"/>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
@@ -2934,7 +2972,7 @@
       <c r="W59" s="3"/>
       <c r="X59" s="3"/>
     </row>
-    <row r="60" ht="15.75" customHeight="1">
+    <row r="60" spans="1:24" ht="15.75" customHeight="1">
       <c r="A60" s="3"/>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
@@ -2960,7 +2998,7 @@
       <c r="W60" s="3"/>
       <c r="X60" s="3"/>
     </row>
-    <row r="61" ht="15.75" customHeight="1">
+    <row r="61" spans="1:24" ht="15.75" customHeight="1">
       <c r="A61" s="3"/>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
@@ -2986,7 +3024,7 @@
       <c r="W61" s="3"/>
       <c r="X61" s="3"/>
     </row>
-    <row r="62" ht="15.75" customHeight="1">
+    <row r="62" spans="1:24" ht="15.75" customHeight="1">
       <c r="A62" s="3"/>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
@@ -3012,7 +3050,7 @@
       <c r="W62" s="3"/>
       <c r="X62" s="3"/>
     </row>
-    <row r="63" ht="15.75" customHeight="1">
+    <row r="63" spans="1:24" ht="15.75" customHeight="1">
       <c r="A63" s="3"/>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
@@ -3038,7 +3076,7 @@
       <c r="W63" s="3"/>
       <c r="X63" s="3"/>
     </row>
-    <row r="64" ht="15.75" customHeight="1">
+    <row r="64" spans="1:24" ht="15.75" customHeight="1">
       <c r="A64" s="3"/>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
@@ -3064,7 +3102,7 @@
       <c r="W64" s="3"/>
       <c r="X64" s="3"/>
     </row>
-    <row r="65" ht="15.75" customHeight="1">
+    <row r="65" spans="1:24" ht="15.75" customHeight="1">
       <c r="A65" s="3"/>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
@@ -3090,7 +3128,7 @@
       <c r="W65" s="3"/>
       <c r="X65" s="3"/>
     </row>
-    <row r="66" ht="15.75" customHeight="1">
+    <row r="66" spans="1:24" ht="15.75" customHeight="1">
       <c r="A66" s="3"/>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
@@ -3116,7 +3154,7 @@
       <c r="W66" s="3"/>
       <c r="X66" s="3"/>
     </row>
-    <row r="67" ht="15.75" customHeight="1">
+    <row r="67" spans="1:24" ht="15.75" customHeight="1">
       <c r="A67" s="3"/>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
@@ -3142,7 +3180,7 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
     </row>
-    <row r="68" ht="15.75" customHeight="1">
+    <row r="68" spans="1:24" ht="15.75" customHeight="1">
       <c r="A68" s="3"/>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
@@ -3168,7 +3206,7 @@
       <c r="W68" s="3"/>
       <c r="X68" s="3"/>
     </row>
-    <row r="69" ht="15.75" customHeight="1">
+    <row r="69" spans="1:24" ht="15.75" customHeight="1">
       <c r="A69" s="3"/>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
@@ -3194,7 +3232,7 @@
       <c r="W69" s="3"/>
       <c r="X69" s="3"/>
     </row>
-    <row r="70" ht="15.75" customHeight="1">
+    <row r="70" spans="1:24" ht="15.75" customHeight="1">
       <c r="A70" s="3"/>
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
@@ -3220,7 +3258,7 @@
       <c r="W70" s="3"/>
       <c r="X70" s="3"/>
     </row>
-    <row r="71" ht="15.75" customHeight="1">
+    <row r="71" spans="1:24" ht="15.75" customHeight="1">
       <c r="A71" s="3"/>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
@@ -3246,7 +3284,7 @@
       <c r="W71" s="3"/>
       <c r="X71" s="3"/>
     </row>
-    <row r="72" ht="15.75" customHeight="1">
+    <row r="72" spans="1:24" ht="15.75" customHeight="1">
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
@@ -3272,7 +3310,7 @@
       <c r="W72" s="3"/>
       <c r="X72" s="3"/>
     </row>
-    <row r="73" ht="15.75" customHeight="1">
+    <row r="73" spans="1:24" ht="15.75" customHeight="1">
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
@@ -3298,7 +3336,7 @@
       <c r="W73" s="3"/>
       <c r="X73" s="3"/>
     </row>
-    <row r="74" ht="15.75" customHeight="1">
+    <row r="74" spans="1:24" ht="15.75" customHeight="1">
       <c r="A74" s="3"/>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
@@ -3324,7 +3362,7 @@
       <c r="W74" s="3"/>
       <c r="X74" s="3"/>
     </row>
-    <row r="75" ht="15.75" customHeight="1">
+    <row r="75" spans="1:24" ht="15.75" customHeight="1">
       <c r="A75" s="3"/>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
@@ -3350,7 +3388,7 @@
       <c r="W75" s="3"/>
       <c r="X75" s="3"/>
     </row>
-    <row r="76" ht="15.75" customHeight="1">
+    <row r="76" spans="1:24" ht="15.75" customHeight="1">
       <c r="A76" s="3"/>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
@@ -3376,7 +3414,7 @@
       <c r="W76" s="3"/>
       <c r="X76" s="3"/>
     </row>
-    <row r="77" ht="15.75" customHeight="1">
+    <row r="77" spans="1:24" ht="15.75" customHeight="1">
       <c r="A77" s="3"/>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
@@ -3402,7 +3440,7 @@
       <c r="W77" s="3"/>
       <c r="X77" s="3"/>
     </row>
-    <row r="78" ht="15.75" customHeight="1">
+    <row r="78" spans="1:24" ht="15.75" customHeight="1">
       <c r="A78" s="3"/>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
@@ -3428,7 +3466,7 @@
       <c r="W78" s="3"/>
       <c r="X78" s="3"/>
     </row>
-    <row r="79" ht="15.75" customHeight="1">
+    <row r="79" spans="1:24" ht="15.75" customHeight="1">
       <c r="A79" s="3"/>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
@@ -3454,7 +3492,7 @@
       <c r="W79" s="3"/>
       <c r="X79" s="3"/>
     </row>
-    <row r="80" ht="15.75" customHeight="1">
+    <row r="80" spans="1:24" ht="15.75" customHeight="1">
       <c r="A80" s="3"/>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
@@ -3480,7 +3518,7 @@
       <c r="W80" s="3"/>
       <c r="X80" s="3"/>
     </row>
-    <row r="81" ht="15.75" customHeight="1">
+    <row r="81" spans="1:24" ht="15.75" customHeight="1">
       <c r="A81" s="3"/>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
@@ -3506,7 +3544,7 @@
       <c r="W81" s="3"/>
       <c r="X81" s="3"/>
     </row>
-    <row r="82" ht="15.75" customHeight="1">
+    <row r="82" spans="1:24" ht="15.75" customHeight="1">
       <c r="A82" s="3"/>
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
@@ -3532,7 +3570,7 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
     </row>
-    <row r="83" ht="15.75" customHeight="1">
+    <row r="83" spans="1:24" ht="15.75" customHeight="1">
       <c r="A83" s="3"/>
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
@@ -3558,7 +3596,7 @@
       <c r="W83" s="3"/>
       <c r="X83" s="3"/>
     </row>
-    <row r="84" ht="15.75" customHeight="1">
+    <row r="84" spans="1:24" ht="15.75" customHeight="1">
       <c r="A84" s="3"/>
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
@@ -3584,7 +3622,7 @@
       <c r="W84" s="3"/>
       <c r="X84" s="3"/>
     </row>
-    <row r="85" ht="15.75" customHeight="1">
+    <row r="85" spans="1:24" ht="15.75" customHeight="1">
       <c r="A85" s="3"/>
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
@@ -3610,7 +3648,7 @@
       <c r="W85" s="3"/>
       <c r="X85" s="3"/>
     </row>
-    <row r="86" ht="15.75" customHeight="1">
+    <row r="86" spans="1:24" ht="15.75" customHeight="1">
       <c r="A86" s="3"/>
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
@@ -3636,7 +3674,7 @@
       <c r="W86" s="3"/>
       <c r="X86" s="3"/>
     </row>
-    <row r="87" ht="15.75" customHeight="1">
+    <row r="87" spans="1:24" ht="15.75" customHeight="1">
       <c r="A87" s="3"/>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
@@ -3662,7 +3700,7 @@
       <c r="W87" s="3"/>
       <c r="X87" s="3"/>
     </row>
-    <row r="88" ht="15.75" customHeight="1">
+    <row r="88" spans="1:24" ht="15.75" customHeight="1">
       <c r="A88" s="3"/>
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
@@ -3688,7 +3726,7 @@
       <c r="W88" s="3"/>
       <c r="X88" s="3"/>
     </row>
-    <row r="89" ht="15.75" customHeight="1">
+    <row r="89" spans="1:24" ht="15.75" customHeight="1">
       <c r="A89" s="3"/>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
@@ -3714,7 +3752,7 @@
       <c r="W89" s="3"/>
       <c r="X89" s="3"/>
     </row>
-    <row r="90" ht="15.75" customHeight="1">
+    <row r="90" spans="1:24" ht="15.75" customHeight="1">
       <c r="A90" s="3"/>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
@@ -3740,7 +3778,7 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
     </row>
-    <row r="91" ht="15.75" customHeight="1">
+    <row r="91" spans="1:24" ht="15.75" customHeight="1">
       <c r="A91" s="3"/>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
@@ -3766,7 +3804,7 @@
       <c r="W91" s="3"/>
       <c r="X91" s="3"/>
     </row>
-    <row r="92" ht="15.75" customHeight="1">
+    <row r="92" spans="1:24" ht="15.75" customHeight="1">
       <c r="A92" s="3"/>
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
@@ -3792,7 +3830,7 @@
       <c r="W92" s="3"/>
       <c r="X92" s="3"/>
     </row>
-    <row r="93" ht="15.75" customHeight="1">
+    <row r="93" spans="1:24" ht="15.75" customHeight="1">
       <c r="A93" s="3"/>
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
@@ -3818,7 +3856,7 @@
       <c r="W93" s="3"/>
       <c r="X93" s="3"/>
     </row>
-    <row r="94" ht="15.75" customHeight="1">
+    <row r="94" spans="1:24" ht="15.75" customHeight="1">
       <c r="A94" s="3"/>
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
@@ -3844,7 +3882,7 @@
       <c r="W94" s="3"/>
       <c r="X94" s="3"/>
     </row>
-    <row r="95" ht="15.75" customHeight="1">
+    <row r="95" spans="1:24" ht="15.75" customHeight="1">
       <c r="A95" s="3"/>
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
@@ -3870,7 +3908,7 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
     </row>
-    <row r="96" ht="15.75" customHeight="1">
+    <row r="96" spans="1:24" ht="15.75" customHeight="1">
       <c r="A96" s="3"/>
       <c r="B96" s="3"/>
       <c r="C96" s="3"/>
@@ -3896,7 +3934,7 @@
       <c r="W96" s="3"/>
       <c r="X96" s="3"/>
     </row>
-    <row r="97" ht="15.75" customHeight="1">
+    <row r="97" spans="1:24" ht="15.75" customHeight="1">
       <c r="A97" s="3"/>
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
@@ -3922,7 +3960,7 @@
       <c r="W97" s="3"/>
       <c r="X97" s="3"/>
     </row>
-    <row r="98" ht="15.75" customHeight="1">
+    <row r="98" spans="1:24" ht="15.75" customHeight="1">
       <c r="A98" s="3"/>
       <c r="B98" s="3"/>
       <c r="C98" s="3"/>
@@ -3948,7 +3986,7 @@
       <c r="W98" s="3"/>
       <c r="X98" s="3"/>
     </row>
-    <row r="99" ht="15.75" customHeight="1">
+    <row r="99" spans="1:24" ht="15.75" customHeight="1">
       <c r="A99" s="3"/>
       <c r="B99" s="3"/>
       <c r="C99" s="3"/>
@@ -3974,7 +4012,7 @@
       <c r="W99" s="3"/>
       <c r="X99" s="3"/>
     </row>
-    <row r="100" ht="15.75" customHeight="1">
+    <row r="100" spans="1:24" ht="15.75" customHeight="1">
       <c r="A100" s="3"/>
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
@@ -4000,7 +4038,7 @@
       <c r="W100" s="3"/>
       <c r="X100" s="3"/>
     </row>
-    <row r="101" ht="15.75" customHeight="1">
+    <row r="101" spans="1:24" ht="15.75" customHeight="1">
       <c r="A101" s="3"/>
       <c r="B101" s="3"/>
       <c r="C101" s="3"/>
@@ -4026,7 +4064,7 @@
       <c r="W101" s="3"/>
       <c r="X101" s="3"/>
     </row>
-    <row r="102" ht="15.75" customHeight="1">
+    <row r="102" spans="1:24" ht="15.75" customHeight="1">
       <c r="A102" s="3"/>
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
@@ -4052,7 +4090,7 @@
       <c r="W102" s="3"/>
       <c r="X102" s="3"/>
     </row>
-    <row r="103" ht="15.75" customHeight="1">
+    <row r="103" spans="1:24" ht="15.75" customHeight="1">
       <c r="A103" s="3"/>
       <c r="B103" s="3"/>
       <c r="C103" s="3"/>
@@ -4078,7 +4116,7 @@
       <c r="W103" s="3"/>
       <c r="X103" s="3"/>
     </row>
-    <row r="104" ht="15.75" customHeight="1">
+    <row r="104" spans="1:24" ht="15.75" customHeight="1">
       <c r="A104" s="3"/>
       <c r="B104" s="3"/>
       <c r="C104" s="3"/>
@@ -4104,7 +4142,7 @@
       <c r="W104" s="3"/>
       <c r="X104" s="3"/>
     </row>
-    <row r="105" ht="15.75" customHeight="1">
+    <row r="105" spans="1:24" ht="15.75" customHeight="1">
       <c r="A105" s="3"/>
       <c r="B105" s="3"/>
       <c r="C105" s="3"/>
@@ -4130,7 +4168,7 @@
       <c r="W105" s="3"/>
       <c r="X105" s="3"/>
     </row>
-    <row r="106" ht="15.75" customHeight="1">
+    <row r="106" spans="1:24" ht="15.75" customHeight="1">
       <c r="A106" s="3"/>
       <c r="B106" s="3"/>
       <c r="C106" s="3"/>
@@ -4156,7 +4194,7 @@
       <c r="W106" s="3"/>
       <c r="X106" s="3"/>
     </row>
-    <row r="107" ht="15.75" customHeight="1">
+    <row r="107" spans="1:24" ht="15.75" customHeight="1">
       <c r="A107" s="3"/>
       <c r="B107" s="3"/>
       <c r="C107" s="3"/>
@@ -4182,7 +4220,7 @@
       <c r="W107" s="3"/>
       <c r="X107" s="3"/>
     </row>
-    <row r="108" ht="15.75" customHeight="1">
+    <row r="108" spans="1:24" ht="15.75" customHeight="1">
       <c r="A108" s="3"/>
       <c r="B108" s="3"/>
       <c r="C108" s="3"/>
@@ -4208,7 +4246,7 @@
       <c r="W108" s="3"/>
       <c r="X108" s="3"/>
     </row>
-    <row r="109" ht="15.75" customHeight="1">
+    <row r="109" spans="1:24" ht="15.75" customHeight="1">
       <c r="A109" s="3"/>
       <c r="B109" s="3"/>
       <c r="C109" s="3"/>
@@ -4234,7 +4272,7 @@
       <c r="W109" s="3"/>
       <c r="X109" s="3"/>
     </row>
-    <row r="110" ht="15.75" customHeight="1">
+    <row r="110" spans="1:24" ht="15.75" customHeight="1">
       <c r="A110" s="3"/>
       <c r="B110" s="3"/>
       <c r="C110" s="3"/>
@@ -4260,7 +4298,7 @@
       <c r="W110" s="3"/>
       <c r="X110" s="3"/>
     </row>
-    <row r="111" ht="15.75" customHeight="1">
+    <row r="111" spans="1:24" ht="15.75" customHeight="1">
       <c r="A111" s="3"/>
       <c r="B111" s="3"/>
       <c r="C111" s="3"/>
@@ -4286,7 +4324,7 @@
       <c r="W111" s="3"/>
       <c r="X111" s="3"/>
     </row>
-    <row r="112" ht="15.75" customHeight="1">
+    <row r="112" spans="1:24" ht="15.75" customHeight="1">
       <c r="A112" s="3"/>
       <c r="B112" s="3"/>
       <c r="C112" s="3"/>
@@ -4312,7 +4350,7 @@
       <c r="W112" s="3"/>
       <c r="X112" s="3"/>
     </row>
-    <row r="113" ht="15.75" customHeight="1">
+    <row r="113" spans="1:24" ht="15.75" customHeight="1">
       <c r="A113" s="3"/>
       <c r="B113" s="3"/>
       <c r="C113" s="3"/>
@@ -4338,7 +4376,7 @@
       <c r="W113" s="3"/>
       <c r="X113" s="3"/>
     </row>
-    <row r="114" ht="15.75" customHeight="1">
+    <row r="114" spans="1:24" ht="15.75" customHeight="1">
       <c r="A114" s="3"/>
       <c r="B114" s="3"/>
       <c r="C114" s="3"/>
@@ -4364,7 +4402,7 @@
       <c r="W114" s="3"/>
       <c r="X114" s="3"/>
     </row>
-    <row r="115" ht="15.75" customHeight="1">
+    <row r="115" spans="1:24" ht="15.75" customHeight="1">
       <c r="A115" s="3"/>
       <c r="B115" s="3"/>
       <c r="C115" s="3"/>
@@ -4390,7 +4428,7 @@
       <c r="W115" s="3"/>
       <c r="X115" s="3"/>
     </row>
-    <row r="116" ht="15.75" customHeight="1">
+    <row r="116" spans="1:24" ht="15.75" customHeight="1">
       <c r="A116" s="3"/>
       <c r="B116" s="3"/>
       <c r="C116" s="3"/>
@@ -4416,7 +4454,7 @@
       <c r="W116" s="3"/>
       <c r="X116" s="3"/>
     </row>
-    <row r="117" ht="15.75" customHeight="1">
+    <row r="117" spans="1:24" ht="15.75" customHeight="1">
       <c r="A117" s="3"/>
       <c r="B117" s="3"/>
       <c r="C117" s="3"/>
@@ -4442,7 +4480,7 @@
       <c r="W117" s="3"/>
       <c r="X117" s="3"/>
     </row>
-    <row r="118" ht="15.75" customHeight="1">
+    <row r="118" spans="1:24" ht="15.75" customHeight="1">
       <c r="A118" s="3"/>
       <c r="B118" s="3"/>
       <c r="C118" s="3"/>
@@ -4468,7 +4506,7 @@
       <c r="W118" s="3"/>
       <c r="X118" s="3"/>
     </row>
-    <row r="119" ht="15.75" customHeight="1">
+    <row r="119" spans="1:24" ht="15.75" customHeight="1">
       <c r="A119" s="3"/>
       <c r="B119" s="3"/>
       <c r="C119" s="3"/>
@@ -4494,7 +4532,7 @@
       <c r="W119" s="3"/>
       <c r="X119" s="3"/>
     </row>
-    <row r="120" ht="15.75" customHeight="1">
+    <row r="120" spans="1:24" ht="15.75" customHeight="1">
       <c r="A120" s="3"/>
       <c r="B120" s="3"/>
       <c r="C120" s="3"/>
@@ -4520,7 +4558,7 @@
       <c r="W120" s="3"/>
       <c r="X120" s="3"/>
     </row>
-    <row r="121" ht="15.75" customHeight="1">
+    <row r="121" spans="1:24" ht="15.75" customHeight="1">
       <c r="A121" s="3"/>
       <c r="B121" s="3"/>
       <c r="C121" s="3"/>
@@ -4546,7 +4584,7 @@
       <c r="W121" s="3"/>
       <c r="X121" s="3"/>
     </row>
-    <row r="122" ht="15.75" customHeight="1">
+    <row r="122" spans="1:24" ht="15.75" customHeight="1">
       <c r="A122" s="3"/>
       <c r="B122" s="3"/>
       <c r="C122" s="3"/>
@@ -4572,7 +4610,7 @@
       <c r="W122" s="3"/>
       <c r="X122" s="3"/>
     </row>
-    <row r="123" ht="15.75" customHeight="1">
+    <row r="123" spans="1:24" ht="15.75" customHeight="1">
       <c r="A123" s="3"/>
       <c r="B123" s="3"/>
       <c r="C123" s="3"/>
@@ -4598,7 +4636,7 @@
       <c r="W123" s="3"/>
       <c r="X123" s="3"/>
     </row>
-    <row r="124" ht="15.75" customHeight="1">
+    <row r="124" spans="1:24" ht="15.75" customHeight="1">
       <c r="A124" s="3"/>
       <c r="B124" s="3"/>
       <c r="C124" s="3"/>
@@ -4624,7 +4662,7 @@
       <c r="W124" s="3"/>
       <c r="X124" s="3"/>
     </row>
-    <row r="125" ht="15.75" customHeight="1">
+    <row r="125" spans="1:24" ht="15.75" customHeight="1">
       <c r="A125" s="3"/>
       <c r="B125" s="3"/>
       <c r="C125" s="3"/>
@@ -4650,7 +4688,7 @@
       <c r="W125" s="3"/>
       <c r="X125" s="3"/>
     </row>
-    <row r="126" ht="15.75" customHeight="1">
+    <row r="126" spans="1:24" ht="15.75" customHeight="1">
       <c r="A126" s="3"/>
       <c r="B126" s="3"/>
       <c r="C126" s="3"/>
@@ -4676,7 +4714,7 @@
       <c r="W126" s="3"/>
       <c r="X126" s="3"/>
     </row>
-    <row r="127" ht="15.75" customHeight="1">
+    <row r="127" spans="1:24" ht="15.75" customHeight="1">
       <c r="A127" s="3"/>
       <c r="B127" s="3"/>
       <c r="C127" s="3"/>
@@ -4702,7 +4740,7 @@
       <c r="W127" s="3"/>
       <c r="X127" s="3"/>
     </row>
-    <row r="128" ht="15.75" customHeight="1">
+    <row r="128" spans="1:24" ht="15.75" customHeight="1">
       <c r="A128" s="3"/>
       <c r="B128" s="3"/>
       <c r="C128" s="3"/>
@@ -4728,7 +4766,7 @@
       <c r="W128" s="3"/>
       <c r="X128" s="3"/>
     </row>
-    <row r="129" ht="15.75" customHeight="1">
+    <row r="129" spans="1:24" ht="15.75" customHeight="1">
       <c r="A129" s="3"/>
       <c r="B129" s="3"/>
       <c r="C129" s="3"/>
@@ -4754,7 +4792,7 @@
       <c r="W129" s="3"/>
       <c r="X129" s="3"/>
     </row>
-    <row r="130" ht="15.75" customHeight="1">
+    <row r="130" spans="1:24" ht="15.75" customHeight="1">
       <c r="A130" s="3"/>
       <c r="B130" s="3"/>
       <c r="C130" s="3"/>
@@ -4780,7 +4818,7 @@
       <c r="W130" s="3"/>
       <c r="X130" s="3"/>
     </row>
-    <row r="131" ht="15.75" customHeight="1">
+    <row r="131" spans="1:24" ht="15.75" customHeight="1">
       <c r="A131" s="3"/>
       <c r="B131" s="3"/>
       <c r="C131" s="3"/>
@@ -4806,7 +4844,7 @@
       <c r="W131" s="3"/>
       <c r="X131" s="3"/>
     </row>
-    <row r="132" ht="15.75" customHeight="1">
+    <row r="132" spans="1:24" ht="15.75" customHeight="1">
       <c r="A132" s="3"/>
       <c r="B132" s="3"/>
       <c r="C132" s="3"/>
@@ -4832,7 +4870,7 @@
       <c r="W132" s="3"/>
       <c r="X132" s="3"/>
     </row>
-    <row r="133" ht="15.75" customHeight="1">
+    <row r="133" spans="1:24" ht="15.75" customHeight="1">
       <c r="A133" s="3"/>
       <c r="B133" s="3"/>
       <c r="C133" s="3"/>
@@ -4858,7 +4896,7 @@
       <c r="W133" s="3"/>
       <c r="X133" s="3"/>
     </row>
-    <row r="134" ht="15.75" customHeight="1">
+    <row r="134" spans="1:24" ht="15.75" customHeight="1">
       <c r="A134" s="3"/>
       <c r="B134" s="3"/>
       <c r="C134" s="3"/>
@@ -4884,7 +4922,7 @@
       <c r="W134" s="3"/>
       <c r="X134" s="3"/>
     </row>
-    <row r="135" ht="15.75" customHeight="1">
+    <row r="135" spans="1:24" ht="15.75" customHeight="1">
       <c r="A135" s="3"/>
       <c r="B135" s="3"/>
       <c r="C135" s="3"/>
@@ -4910,7 +4948,7 @@
       <c r="W135" s="3"/>
       <c r="X135" s="3"/>
     </row>
-    <row r="136" ht="15.75" customHeight="1">
+    <row r="136" spans="1:24" ht="15.75" customHeight="1">
       <c r="A136" s="3"/>
       <c r="B136" s="3"/>
       <c r="C136" s="3"/>
@@ -4936,7 +4974,7 @@
       <c r="W136" s="3"/>
       <c r="X136" s="3"/>
     </row>
-    <row r="137" ht="15.75" customHeight="1">
+    <row r="137" spans="1:24" ht="15.75" customHeight="1">
       <c r="A137" s="3"/>
       <c r="B137" s="3"/>
       <c r="C137" s="3"/>
@@ -4962,7 +5000,7 @@
       <c r="W137" s="3"/>
       <c r="X137" s="3"/>
     </row>
-    <row r="138" ht="15.75" customHeight="1">
+    <row r="138" spans="1:24" ht="15.75" customHeight="1">
       <c r="A138" s="3"/>
       <c r="B138" s="3"/>
       <c r="C138" s="3"/>
@@ -4988,7 +5026,7 @@
       <c r="W138" s="3"/>
       <c r="X138" s="3"/>
     </row>
-    <row r="139" ht="15.75" customHeight="1">
+    <row r="139" spans="1:24" ht="15.75" customHeight="1">
       <c r="A139" s="3"/>
       <c r="B139" s="3"/>
       <c r="C139" s="3"/>
@@ -5014,7 +5052,7 @@
       <c r="W139" s="3"/>
       <c r="X139" s="3"/>
     </row>
-    <row r="140" ht="15.75" customHeight="1">
+    <row r="140" spans="1:24" ht="15.75" customHeight="1">
       <c r="A140" s="3"/>
       <c r="B140" s="3"/>
       <c r="C140" s="3"/>
@@ -5040,7 +5078,7 @@
       <c r="W140" s="3"/>
       <c r="X140" s="3"/>
     </row>
-    <row r="141" ht="15.75" customHeight="1">
+    <row r="141" spans="1:24" ht="15.75" customHeight="1">
       <c r="A141" s="3"/>
       <c r="B141" s="3"/>
       <c r="C141" s="3"/>
@@ -5066,7 +5104,7 @@
       <c r="W141" s="3"/>
       <c r="X141" s="3"/>
     </row>
-    <row r="142" ht="15.75" customHeight="1">
+    <row r="142" spans="1:24" ht="15.75" customHeight="1">
       <c r="A142" s="3"/>
       <c r="B142" s="3"/>
       <c r="C142" s="3"/>
@@ -5092,7 +5130,7 @@
       <c r="W142" s="3"/>
       <c r="X142" s="3"/>
     </row>
-    <row r="143" ht="15.75" customHeight="1">
+    <row r="143" spans="1:24" ht="15.75" customHeight="1">
       <c r="A143" s="3"/>
       <c r="B143" s="3"/>
       <c r="C143" s="3"/>
@@ -5118,7 +5156,7 @@
       <c r="W143" s="3"/>
       <c r="X143" s="3"/>
     </row>
-    <row r="144" ht="15.75" customHeight="1">
+    <row r="144" spans="1:24" ht="15.75" customHeight="1">
       <c r="A144" s="3"/>
       <c r="B144" s="3"/>
       <c r="C144" s="3"/>
@@ -5144,7 +5182,7 @@
       <c r="W144" s="3"/>
       <c r="X144" s="3"/>
     </row>
-    <row r="145" ht="15.75" customHeight="1">
+    <row r="145" spans="1:24" ht="15.75" customHeight="1">
       <c r="A145" s="3"/>
       <c r="B145" s="3"/>
       <c r="C145" s="3"/>
@@ -5170,7 +5208,7 @@
       <c r="W145" s="3"/>
       <c r="X145" s="3"/>
     </row>
-    <row r="146" ht="15.75" customHeight="1">
+    <row r="146" spans="1:24" ht="15.75" customHeight="1">
       <c r="A146" s="3"/>
       <c r="B146" s="3"/>
       <c r="C146" s="3"/>
@@ -5196,7 +5234,7 @@
       <c r="W146" s="3"/>
       <c r="X146" s="3"/>
     </row>
-    <row r="147" ht="15.75" customHeight="1">
+    <row r="147" spans="1:24" ht="15.75" customHeight="1">
       <c r="A147" s="3"/>
       <c r="B147" s="3"/>
       <c r="C147" s="3"/>
@@ -5222,7 +5260,7 @@
       <c r="W147" s="3"/>
       <c r="X147" s="3"/>
     </row>
-    <row r="148" ht="15.75" customHeight="1">
+    <row r="148" spans="1:24" ht="15.75" customHeight="1">
       <c r="A148" s="3"/>
       <c r="B148" s="3"/>
       <c r="C148" s="3"/>
@@ -5248,7 +5286,7 @@
       <c r="W148" s="3"/>
       <c r="X148" s="3"/>
     </row>
-    <row r="149" ht="15.75" customHeight="1">
+    <row r="149" spans="1:24" ht="15.75" customHeight="1">
       <c r="A149" s="3"/>
       <c r="B149" s="3"/>
       <c r="C149" s="3"/>
@@ -5274,7 +5312,7 @@
       <c r="W149" s="3"/>
       <c r="X149" s="3"/>
     </row>
-    <row r="150" ht="15.75" customHeight="1">
+    <row r="150" spans="1:24" ht="15.75" customHeight="1">
       <c r="A150" s="3"/>
       <c r="B150" s="3"/>
       <c r="C150" s="3"/>
@@ -5300,7 +5338,7 @@
       <c r="W150" s="3"/>
       <c r="X150" s="3"/>
     </row>
-    <row r="151" ht="15.75" customHeight="1">
+    <row r="151" spans="1:24" ht="15.75" customHeight="1">
       <c r="A151" s="3"/>
       <c r="B151" s="3"/>
       <c r="C151" s="3"/>
@@ -5326,7 +5364,7 @@
       <c r="W151" s="3"/>
       <c r="X151" s="3"/>
     </row>
-    <row r="152" ht="15.75" customHeight="1">
+    <row r="152" spans="1:24" ht="15.75" customHeight="1">
       <c r="A152" s="3"/>
       <c r="B152" s="3"/>
       <c r="C152" s="3"/>
@@ -5352,7 +5390,7 @@
       <c r="W152" s="3"/>
       <c r="X152" s="3"/>
     </row>
-    <row r="153" ht="15.75" customHeight="1">
+    <row r="153" spans="1:24" ht="15.75" customHeight="1">
       <c r="A153" s="3"/>
       <c r="B153" s="3"/>
       <c r="C153" s="3"/>
@@ -5378,7 +5416,7 @@
       <c r="W153" s="3"/>
       <c r="X153" s="3"/>
     </row>
-    <row r="154" ht="15.75" customHeight="1">
+    <row r="154" spans="1:24" ht="15.75" customHeight="1">
       <c r="A154" s="3"/>
       <c r="B154" s="3"/>
       <c r="C154" s="3"/>
@@ -5404,7 +5442,7 @@
       <c r="W154" s="3"/>
       <c r="X154" s="3"/>
     </row>
-    <row r="155" ht="15.75" customHeight="1">
+    <row r="155" spans="1:24" ht="15.75" customHeight="1">
       <c r="A155" s="3"/>
       <c r="B155" s="3"/>
       <c r="C155" s="3"/>
@@ -5430,7 +5468,7 @@
       <c r="W155" s="3"/>
       <c r="X155" s="3"/>
     </row>
-    <row r="156" ht="15.75" customHeight="1">
+    <row r="156" spans="1:24" ht="15.75" customHeight="1">
       <c r="A156" s="3"/>
       <c r="B156" s="3"/>
       <c r="C156" s="3"/>
@@ -5456,7 +5494,7 @@
       <c r="W156" s="3"/>
       <c r="X156" s="3"/>
     </row>
-    <row r="157" ht="15.75" customHeight="1">
+    <row r="157" spans="1:24" ht="15.75" customHeight="1">
       <c r="A157" s="3"/>
       <c r="B157" s="3"/>
       <c r="C157" s="3"/>
@@ -5482,7 +5520,7 @@
       <c r="W157" s="3"/>
       <c r="X157" s="3"/>
     </row>
-    <row r="158" ht="15.75" customHeight="1">
+    <row r="158" spans="1:24" ht="15.75" customHeight="1">
       <c r="A158" s="3"/>
       <c r="B158" s="3"/>
       <c r="C158" s="3"/>
@@ -5508,7 +5546,7 @@
       <c r="W158" s="3"/>
       <c r="X158" s="3"/>
     </row>
-    <row r="159" ht="15.75" customHeight="1">
+    <row r="159" spans="1:24" ht="15.75" customHeight="1">
       <c r="A159" s="3"/>
       <c r="B159" s="3"/>
       <c r="C159" s="3"/>
@@ -5534,7 +5572,7 @@
       <c r="W159" s="3"/>
       <c r="X159" s="3"/>
     </row>
-    <row r="160" ht="15.75" customHeight="1">
+    <row r="160" spans="1:24" ht="15.75" customHeight="1">
       <c r="A160" s="3"/>
       <c r="B160" s="3"/>
       <c r="C160" s="3"/>
@@ -5560,7 +5598,7 @@
       <c r="W160" s="3"/>
       <c r="X160" s="3"/>
     </row>
-    <row r="161" ht="15.75" customHeight="1">
+    <row r="161" spans="1:24" ht="15.75" customHeight="1">
       <c r="A161" s="3"/>
       <c r="B161" s="3"/>
       <c r="C161" s="3"/>
@@ -5586,7 +5624,7 @@
       <c r="W161" s="3"/>
       <c r="X161" s="3"/>
     </row>
-    <row r="162" ht="15.75" customHeight="1">
+    <row r="162" spans="1:24" ht="15.75" customHeight="1">
       <c r="A162" s="3"/>
       <c r="B162" s="3"/>
       <c r="C162" s="3"/>
@@ -5612,7 +5650,7 @@
       <c r="W162" s="3"/>
       <c r="X162" s="3"/>
     </row>
-    <row r="163" ht="15.75" customHeight="1">
+    <row r="163" spans="1:24" ht="15.75" customHeight="1">
       <c r="A163" s="3"/>
       <c r="B163" s="3"/>
       <c r="C163" s="3"/>
@@ -5638,7 +5676,7 @@
       <c r="W163" s="3"/>
       <c r="X163" s="3"/>
     </row>
-    <row r="164" ht="15.75" customHeight="1">
+    <row r="164" spans="1:24" ht="15.75" customHeight="1">
       <c r="A164" s="3"/>
       <c r="B164" s="3"/>
       <c r="C164" s="3"/>
@@ -5664,7 +5702,7 @@
       <c r="W164" s="3"/>
       <c r="X164" s="3"/>
     </row>
-    <row r="165" ht="15.75" customHeight="1">
+    <row r="165" spans="1:24" ht="15.75" customHeight="1">
       <c r="A165" s="3"/>
       <c r="B165" s="3"/>
       <c r="C165" s="3"/>
@@ -5690,7 +5728,7 @@
       <c r="W165" s="3"/>
       <c r="X165" s="3"/>
     </row>
-    <row r="166" ht="15.75" customHeight="1">
+    <row r="166" spans="1:24" ht="15.75" customHeight="1">
       <c r="A166" s="3"/>
       <c r="B166" s="3"/>
       <c r="C166" s="3"/>
@@ -5716,7 +5754,7 @@
       <c r="W166" s="3"/>
       <c r="X166" s="3"/>
     </row>
-    <row r="167" ht="15.75" customHeight="1">
+    <row r="167" spans="1:24" ht="15.75" customHeight="1">
       <c r="A167" s="3"/>
       <c r="B167" s="3"/>
       <c r="C167" s="3"/>
@@ -5742,7 +5780,7 @@
       <c r="W167" s="3"/>
       <c r="X167" s="3"/>
     </row>
-    <row r="168" ht="15.75" customHeight="1">
+    <row r="168" spans="1:24" ht="15.75" customHeight="1">
       <c r="A168" s="3"/>
       <c r="B168" s="3"/>
       <c r="C168" s="3"/>
@@ -5768,7 +5806,7 @@
       <c r="W168" s="3"/>
       <c r="X168" s="3"/>
     </row>
-    <row r="169" ht="15.75" customHeight="1">
+    <row r="169" spans="1:24" ht="15.75" customHeight="1">
       <c r="A169" s="3"/>
       <c r="B169" s="3"/>
       <c r="C169" s="3"/>
@@ -5794,7 +5832,7 @@
       <c r="W169" s="3"/>
       <c r="X169" s="3"/>
     </row>
-    <row r="170" ht="15.75" customHeight="1">
+    <row r="170" spans="1:24" ht="15.75" customHeight="1">
       <c r="A170" s="3"/>
       <c r="B170" s="3"/>
       <c r="C170" s="3"/>
@@ -5820,7 +5858,7 @@
       <c r="W170" s="3"/>
       <c r="X170" s="3"/>
     </row>
-    <row r="171" ht="15.75" customHeight="1">
+    <row r="171" spans="1:24" ht="15.75" customHeight="1">
       <c r="A171" s="3"/>
       <c r="B171" s="3"/>
       <c r="C171" s="3"/>
@@ -5846,7 +5884,7 @@
       <c r="W171" s="3"/>
       <c r="X171" s="3"/>
     </row>
-    <row r="172" ht="15.75" customHeight="1">
+    <row r="172" spans="1:24" ht="15.75" customHeight="1">
       <c r="A172" s="3"/>
       <c r="B172" s="3"/>
       <c r="C172" s="3"/>
@@ -5872,7 +5910,7 @@
       <c r="W172" s="3"/>
       <c r="X172" s="3"/>
     </row>
-    <row r="173" ht="15.75" customHeight="1">
+    <row r="173" spans="1:24" ht="15.75" customHeight="1">
       <c r="A173" s="3"/>
       <c r="B173" s="3"/>
       <c r="C173" s="3"/>
@@ -5898,7 +5936,7 @@
       <c r="W173" s="3"/>
       <c r="X173" s="3"/>
     </row>
-    <row r="174" ht="15.75" customHeight="1">
+    <row r="174" spans="1:24" ht="15.75" customHeight="1">
       <c r="A174" s="3"/>
       <c r="B174" s="3"/>
       <c r="C174" s="3"/>
@@ -5924,7 +5962,7 @@
       <c r="W174" s="3"/>
       <c r="X174" s="3"/>
     </row>
-    <row r="175" ht="15.75" customHeight="1">
+    <row r="175" spans="1:24" ht="15.75" customHeight="1">
       <c r="A175" s="3"/>
       <c r="B175" s="3"/>
       <c r="C175" s="3"/>
@@ -5950,7 +5988,7 @@
       <c r="W175" s="3"/>
       <c r="X175" s="3"/>
     </row>
-    <row r="176" ht="15.75" customHeight="1">
+    <row r="176" spans="1:24" ht="15.75" customHeight="1">
       <c r="A176" s="3"/>
       <c r="B176" s="3"/>
       <c r="C176" s="3"/>
@@ -5976,7 +6014,7 @@
       <c r="W176" s="3"/>
       <c r="X176" s="3"/>
     </row>
-    <row r="177" ht="15.75" customHeight="1">
+    <row r="177" spans="1:24" ht="15.75" customHeight="1">
       <c r="A177" s="3"/>
       <c r="B177" s="3"/>
       <c r="C177" s="3"/>
@@ -6002,7 +6040,7 @@
       <c r="W177" s="3"/>
       <c r="X177" s="3"/>
     </row>
-    <row r="178" ht="15.75" customHeight="1">
+    <row r="178" spans="1:24" ht="15.75" customHeight="1">
       <c r="A178" s="3"/>
       <c r="B178" s="3"/>
       <c r="C178" s="3"/>
@@ -6028,7 +6066,7 @@
       <c r="W178" s="3"/>
       <c r="X178" s="3"/>
     </row>
-    <row r="179" ht="15.75" customHeight="1">
+    <row r="179" spans="1:24" ht="15.75" customHeight="1">
       <c r="A179" s="3"/>
       <c r="B179" s="3"/>
       <c r="C179" s="3"/>
@@ -6054,7 +6092,7 @@
       <c r="W179" s="3"/>
       <c r="X179" s="3"/>
     </row>
-    <row r="180" ht="15.75" customHeight="1">
+    <row r="180" spans="1:24" ht="15.75" customHeight="1">
       <c r="A180" s="3"/>
       <c r="B180" s="3"/>
       <c r="C180" s="3"/>
@@ -6080,7 +6118,7 @@
       <c r="W180" s="3"/>
       <c r="X180" s="3"/>
     </row>
-    <row r="181" ht="15.75" customHeight="1">
+    <row r="181" spans="1:24" ht="15.75" customHeight="1">
       <c r="A181" s="3"/>
       <c r="B181" s="3"/>
       <c r="C181" s="3"/>
@@ -6106,7 +6144,7 @@
       <c r="W181" s="3"/>
       <c r="X181" s="3"/>
     </row>
-    <row r="182" ht="15.75" customHeight="1">
+    <row r="182" spans="1:24" ht="15.75" customHeight="1">
       <c r="A182" s="3"/>
       <c r="B182" s="3"/>
       <c r="C182" s="3"/>
@@ -6132,7 +6170,7 @@
       <c r="W182" s="3"/>
       <c r="X182" s="3"/>
     </row>
-    <row r="183" ht="15.75" customHeight="1">
+    <row r="183" spans="1:24" ht="15.75" customHeight="1">
       <c r="A183" s="3"/>
       <c r="B183" s="3"/>
       <c r="C183" s="3"/>
@@ -6158,7 +6196,7 @@
       <c r="W183" s="3"/>
       <c r="X183" s="3"/>
     </row>
-    <row r="184" ht="15.75" customHeight="1">
+    <row r="184" spans="1:24" ht="15.75" customHeight="1">
       <c r="A184" s="3"/>
       <c r="B184" s="3"/>
       <c r="C184" s="3"/>
@@ -6184,7 +6222,7 @@
       <c r="W184" s="3"/>
       <c r="X184" s="3"/>
     </row>
-    <row r="185" ht="15.75" customHeight="1">
+    <row r="185" spans="1:24" ht="15.75" customHeight="1">
       <c r="A185" s="3"/>
       <c r="B185" s="3"/>
       <c r="C185" s="3"/>
@@ -6210,7 +6248,7 @@
       <c r="W185" s="3"/>
       <c r="X185" s="3"/>
     </row>
-    <row r="186" ht="15.75" customHeight="1">
+    <row r="186" spans="1:24" ht="15.75" customHeight="1">
       <c r="A186" s="3"/>
       <c r="B186" s="3"/>
       <c r="C186" s="3"/>
@@ -6236,7 +6274,7 @@
       <c r="W186" s="3"/>
       <c r="X186" s="3"/>
     </row>
-    <row r="187" ht="15.75" customHeight="1">
+    <row r="187" spans="1:24" ht="15.75" customHeight="1">
       <c r="A187" s="3"/>
       <c r="B187" s="3"/>
       <c r="C187" s="3"/>
@@ -6262,7 +6300,7 @@
       <c r="W187" s="3"/>
       <c r="X187" s="3"/>
     </row>
-    <row r="188" ht="15.75" customHeight="1">
+    <row r="188" spans="1:24" ht="15.75" customHeight="1">
       <c r="A188" s="3"/>
       <c r="B188" s="3"/>
       <c r="C188" s="3"/>
@@ -6288,7 +6326,7 @@
       <c r="W188" s="3"/>
       <c r="X188" s="3"/>
     </row>
-    <row r="189" ht="15.75" customHeight="1">
+    <row r="189" spans="1:24" ht="15.75" customHeight="1">
       <c r="A189" s="3"/>
       <c r="B189" s="3"/>
       <c r="C189" s="3"/>
@@ -6314,7 +6352,7 @@
       <c r="W189" s="3"/>
       <c r="X189" s="3"/>
     </row>
-    <row r="190" ht="15.75" customHeight="1">
+    <row r="190" spans="1:24" ht="15.75" customHeight="1">
       <c r="A190" s="3"/>
       <c r="B190" s="3"/>
       <c r="C190" s="3"/>
@@ -6340,7 +6378,7 @@
       <c r="W190" s="3"/>
       <c r="X190" s="3"/>
     </row>
-    <row r="191" ht="15.75" customHeight="1">
+    <row r="191" spans="1:24" ht="15.75" customHeight="1">
       <c r="A191" s="3"/>
       <c r="B191" s="3"/>
       <c r="C191" s="3"/>
@@ -6366,7 +6404,7 @@
       <c r="W191" s="3"/>
       <c r="X191" s="3"/>
     </row>
-    <row r="192" ht="15.75" customHeight="1">
+    <row r="192" spans="1:24" ht="15.75" customHeight="1">
       <c r="A192" s="3"/>
       <c r="B192" s="3"/>
       <c r="C192" s="3"/>
@@ -6392,7 +6430,7 @@
       <c r="W192" s="3"/>
       <c r="X192" s="3"/>
     </row>
-    <row r="193" ht="15.75" customHeight="1">
+    <row r="193" spans="1:24" ht="15.75" customHeight="1">
       <c r="A193" s="3"/>
       <c r="B193" s="3"/>
       <c r="C193" s="3"/>
@@ -6418,7 +6456,7 @@
       <c r="W193" s="3"/>
       <c r="X193" s="3"/>
     </row>
-    <row r="194" ht="15.75" customHeight="1">
+    <row r="194" spans="1:24" ht="15.75" customHeight="1">
       <c r="A194" s="3"/>
       <c r="B194" s="3"/>
       <c r="C194" s="3"/>
@@ -6444,7 +6482,7 @@
       <c r="W194" s="3"/>
       <c r="X194" s="3"/>
     </row>
-    <row r="195" ht="15.75" customHeight="1">
+    <row r="195" spans="1:24" ht="15.75" customHeight="1">
       <c r="A195" s="3"/>
       <c r="B195" s="3"/>
       <c r="C195" s="3"/>
@@ -6470,7 +6508,7 @@
       <c r="W195" s="3"/>
       <c r="X195" s="3"/>
     </row>
-    <row r="196" ht="15.75" customHeight="1">
+    <row r="196" spans="1:24" ht="15.75" customHeight="1">
       <c r="A196" s="3"/>
       <c r="B196" s="3"/>
       <c r="C196" s="3"/>
@@ -6496,7 +6534,7 @@
       <c r="W196" s="3"/>
       <c r="X196" s="3"/>
     </row>
-    <row r="197" ht="15.75" customHeight="1">
+    <row r="197" spans="1:24" ht="15.75" customHeight="1">
       <c r="A197" s="3"/>
       <c r="B197" s="3"/>
       <c r="C197" s="3"/>
@@ -6522,7 +6560,7 @@
       <c r="W197" s="3"/>
       <c r="X197" s="3"/>
     </row>
-    <row r="198" ht="15.75" customHeight="1">
+    <row r="198" spans="1:24" ht="15.75" customHeight="1">
       <c r="A198" s="3"/>
       <c r="B198" s="3"/>
       <c r="C198" s="3"/>
@@ -6548,7 +6586,7 @@
       <c r="W198" s="3"/>
       <c r="X198" s="3"/>
     </row>
-    <row r="199" ht="15.75" customHeight="1">
+    <row r="199" spans="1:24" ht="15.75" customHeight="1">
       <c r="A199" s="3"/>
       <c r="B199" s="3"/>
       <c r="C199" s="3"/>
@@ -6574,7 +6612,7 @@
       <c r="W199" s="3"/>
       <c r="X199" s="3"/>
     </row>
-    <row r="200" ht="15.75" customHeight="1">
+    <row r="200" spans="1:24" ht="15.75" customHeight="1">
       <c r="A200" s="3"/>
       <c r="B200" s="3"/>
       <c r="C200" s="3"/>
@@ -6600,7 +6638,7 @@
       <c r="W200" s="3"/>
       <c r="X200" s="3"/>
     </row>
-    <row r="201" ht="15.75" customHeight="1">
+    <row r="201" spans="1:24" ht="15.75" customHeight="1">
       <c r="A201" s="3"/>
       <c r="B201" s="3"/>
       <c r="C201" s="3"/>
@@ -6626,7 +6664,7 @@
       <c r="W201" s="3"/>
       <c r="X201" s="3"/>
     </row>
-    <row r="202" ht="15.75" customHeight="1">
+    <row r="202" spans="1:24" ht="15.75" customHeight="1">
       <c r="A202" s="3"/>
       <c r="B202" s="3"/>
       <c r="C202" s="3"/>
@@ -6652,7 +6690,7 @@
       <c r="W202" s="3"/>
       <c r="X202" s="3"/>
     </row>
-    <row r="203" ht="15.75" customHeight="1">
+    <row r="203" spans="1:24" ht="15.75" customHeight="1">
       <c r="A203" s="3"/>
       <c r="B203" s="3"/>
       <c r="C203" s="3"/>
@@ -6678,7 +6716,7 @@
       <c r="W203" s="3"/>
       <c r="X203" s="3"/>
     </row>
-    <row r="204" ht="15.75" customHeight="1">
+    <row r="204" spans="1:24" ht="15.75" customHeight="1">
       <c r="A204" s="3"/>
       <c r="B204" s="3"/>
       <c r="C204" s="3"/>
@@ -6704,7 +6742,7 @@
       <c r="W204" s="3"/>
       <c r="X204" s="3"/>
     </row>
-    <row r="205" ht="15.75" customHeight="1">
+    <row r="205" spans="1:24" ht="15.75" customHeight="1">
       <c r="A205" s="3"/>
       <c r="B205" s="3"/>
       <c r="C205" s="3"/>
@@ -6730,7 +6768,7 @@
       <c r="W205" s="3"/>
       <c r="X205" s="3"/>
     </row>
-    <row r="206" ht="15.75" customHeight="1">
+    <row r="206" spans="1:24" ht="15.75" customHeight="1">
       <c r="A206" s="3"/>
       <c r="B206" s="3"/>
       <c r="C206" s="3"/>
@@ -6756,7 +6794,7 @@
       <c r="W206" s="3"/>
       <c r="X206" s="3"/>
     </row>
-    <row r="207" ht="15.75" customHeight="1">
+    <row r="207" spans="1:24" ht="15.75" customHeight="1">
       <c r="A207" s="3"/>
       <c r="B207" s="3"/>
       <c r="C207" s="3"/>
@@ -6782,7 +6820,7 @@
       <c r="W207" s="3"/>
       <c r="X207" s="3"/>
     </row>
-    <row r="208" ht="15.75" customHeight="1">
+    <row r="208" spans="1:24" ht="15.75" customHeight="1">
       <c r="A208" s="3"/>
       <c r="B208" s="3"/>
       <c r="C208" s="3"/>
@@ -6808,7 +6846,7 @@
       <c r="W208" s="3"/>
       <c r="X208" s="3"/>
     </row>
-    <row r="209" ht="15.75" customHeight="1">
+    <row r="209" spans="1:24" ht="15.75" customHeight="1">
       <c r="A209" s="3"/>
       <c r="B209" s="3"/>
       <c r="C209" s="3"/>
@@ -6834,7 +6872,7 @@
       <c r="W209" s="3"/>
       <c r="X209" s="3"/>
     </row>
-    <row r="210" ht="15.75" customHeight="1">
+    <row r="210" spans="1:24" ht="15.75" customHeight="1">
       <c r="A210" s="3"/>
       <c r="B210" s="3"/>
       <c r="C210" s="3"/>
@@ -6860,7 +6898,7 @@
       <c r="W210" s="3"/>
       <c r="X210" s="3"/>
     </row>
-    <row r="211" ht="15.75" customHeight="1">
+    <row r="211" spans="1:24" ht="15.75" customHeight="1">
       <c r="A211" s="3"/>
       <c r="B211" s="3"/>
       <c r="C211" s="3"/>
@@ -6886,7 +6924,7 @@
       <c r="W211" s="3"/>
       <c r="X211" s="3"/>
     </row>
-    <row r="212" ht="15.75" customHeight="1">
+    <row r="212" spans="1:24" ht="15.75" customHeight="1">
       <c r="A212" s="3"/>
       <c r="B212" s="3"/>
       <c r="C212" s="3"/>
@@ -6912,7 +6950,7 @@
       <c r="W212" s="3"/>
       <c r="X212" s="3"/>
     </row>
-    <row r="213" ht="15.75" customHeight="1">
+    <row r="213" spans="1:24" ht="15.75" customHeight="1">
       <c r="A213" s="3"/>
       <c r="B213" s="3"/>
       <c r="C213" s="3"/>
@@ -6938,7 +6976,7 @@
       <c r="W213" s="3"/>
       <c r="X213" s="3"/>
     </row>
-    <row r="214" ht="15.75" customHeight="1">
+    <row r="214" spans="1:24" ht="15.75" customHeight="1">
       <c r="A214" s="3"/>
       <c r="B214" s="3"/>
       <c r="C214" s="3"/>
@@ -6964,7 +7002,7 @@
       <c r="W214" s="3"/>
       <c r="X214" s="3"/>
     </row>
-    <row r="215" ht="15.75" customHeight="1">
+    <row r="215" spans="1:24" ht="15.75" customHeight="1">
       <c r="A215" s="3"/>
       <c r="B215" s="3"/>
       <c r="C215" s="3"/>
@@ -6990,7 +7028,7 @@
       <c r="W215" s="3"/>
       <c r="X215" s="3"/>
     </row>
-    <row r="216" ht="15.75" customHeight="1">
+    <row r="216" spans="1:24" ht="15.75" customHeight="1">
       <c r="A216" s="3"/>
       <c r="B216" s="3"/>
       <c r="C216" s="3"/>
@@ -7016,7 +7054,7 @@
       <c r="W216" s="3"/>
       <c r="X216" s="3"/>
     </row>
-    <row r="217" ht="15.75" customHeight="1">
+    <row r="217" spans="1:24" ht="15.75" customHeight="1">
       <c r="A217" s="3"/>
       <c r="B217" s="3"/>
       <c r="C217" s="3"/>
@@ -7042,7 +7080,7 @@
       <c r="W217" s="3"/>
       <c r="X217" s="3"/>
     </row>
-    <row r="218" ht="15.75" customHeight="1">
+    <row r="218" spans="1:24" ht="15.75" customHeight="1">
       <c r="A218" s="3"/>
       <c r="B218" s="3"/>
       <c r="C218" s="3"/>
@@ -7068,7 +7106,7 @@
       <c r="W218" s="3"/>
       <c r="X218" s="3"/>
     </row>
-    <row r="219" ht="15.75" customHeight="1">
+    <row r="219" spans="1:24" ht="15.75" customHeight="1">
       <c r="A219" s="3"/>
       <c r="B219" s="3"/>
       <c r="C219" s="3"/>
@@ -7094,7 +7132,7 @@
       <c r="W219" s="3"/>
       <c r="X219" s="3"/>
     </row>
-    <row r="220" ht="15.75" customHeight="1">
+    <row r="220" spans="1:24" ht="15.75" customHeight="1">
       <c r="A220" s="3"/>
       <c r="B220" s="3"/>
       <c r="C220" s="3"/>
@@ -7120,6 +7158,1943 @@
       <c r="W220" s="3"/>
       <c r="X220" s="3"/>
     </row>
+    <row r="221" spans="1:24" ht="15.75" customHeight="1"/>
+    <row r="222" spans="1:24" ht="15.75" customHeight="1"/>
+    <row r="223" spans="1:24" ht="15.75" customHeight="1"/>
+    <row r="224" spans="1:24" ht="15.75" customHeight="1"/>
+    <row r="225" ht="15.75" customHeight="1"/>
+    <row r="226" ht="15.75" customHeight="1"/>
+    <row r="227" ht="15.75" customHeight="1"/>
+    <row r="228" ht="15.75" customHeight="1"/>
+    <row r="229" ht="15.75" customHeight="1"/>
+    <row r="230" ht="15.75" customHeight="1"/>
+    <row r="231" ht="15.75" customHeight="1"/>
+    <row r="232" ht="15.75" customHeight="1"/>
+    <row r="233" ht="15.75" customHeight="1"/>
+    <row r="234" ht="15.75" customHeight="1"/>
+    <row r="235" ht="15.75" customHeight="1"/>
+    <row r="236" ht="15.75" customHeight="1"/>
+    <row r="237" ht="15.75" customHeight="1"/>
+    <row r="238" ht="15.75" customHeight="1"/>
+    <row r="239" ht="15.75" customHeight="1"/>
+    <row r="240" ht="15.75" customHeight="1"/>
+    <row r="241" ht="15.75" customHeight="1"/>
+    <row r="242" ht="15.75" customHeight="1"/>
+    <row r="243" ht="15.75" customHeight="1"/>
+    <row r="244" ht="15.75" customHeight="1"/>
+    <row r="245" ht="15.75" customHeight="1"/>
+    <row r="246" ht="15.75" customHeight="1"/>
+    <row r="247" ht="15.75" customHeight="1"/>
+    <row r="248" ht="15.75" customHeight="1"/>
+    <row r="249" ht="15.75" customHeight="1"/>
+    <row r="250" ht="15.75" customHeight="1"/>
+    <row r="251" ht="15.75" customHeight="1"/>
+    <row r="252" ht="15.75" customHeight="1"/>
+    <row r="253" ht="15.75" customHeight="1"/>
+    <row r="254" ht="15.75" customHeight="1"/>
+    <row r="255" ht="15.75" customHeight="1"/>
+    <row r="256" ht="15.75" customHeight="1"/>
+    <row r="257" ht="15.75" customHeight="1"/>
+    <row r="258" ht="15.75" customHeight="1"/>
+    <row r="259" ht="15.75" customHeight="1"/>
+    <row r="260" ht="15.75" customHeight="1"/>
+    <row r="261" ht="15.75" customHeight="1"/>
+    <row r="262" ht="15.75" customHeight="1"/>
+    <row r="263" ht="15.75" customHeight="1"/>
+    <row r="264" ht="15.75" customHeight="1"/>
+    <row r="265" ht="15.75" customHeight="1"/>
+    <row r="266" ht="15.75" customHeight="1"/>
+    <row r="267" ht="15.75" customHeight="1"/>
+    <row r="268" ht="15.75" customHeight="1"/>
+    <row r="269" ht="15.75" customHeight="1"/>
+    <row r="270" ht="15.75" customHeight="1"/>
+    <row r="271" ht="15.75" customHeight="1"/>
+    <row r="272" ht="15.75" customHeight="1"/>
+    <row r="273" ht="15.75" customHeight="1"/>
+    <row r="274" ht="15.75" customHeight="1"/>
+    <row r="275" ht="15.75" customHeight="1"/>
+    <row r="276" ht="15.75" customHeight="1"/>
+    <row r="277" ht="15.75" customHeight="1"/>
+    <row r="278" ht="15.75" customHeight="1"/>
+    <row r="279" ht="15.75" customHeight="1"/>
+    <row r="280" ht="15.75" customHeight="1"/>
+    <row r="281" ht="15.75" customHeight="1"/>
+    <row r="282" ht="15.75" customHeight="1"/>
+    <row r="283" ht="15.75" customHeight="1"/>
+    <row r="284" ht="15.75" customHeight="1"/>
+    <row r="285" ht="15.75" customHeight="1"/>
+    <row r="286" ht="15.75" customHeight="1"/>
+    <row r="287" ht="15.75" customHeight="1"/>
+    <row r="288" ht="15.75" customHeight="1"/>
+    <row r="289" ht="15.75" customHeight="1"/>
+    <row r="290" ht="15.75" customHeight="1"/>
+    <row r="291" ht="15.75" customHeight="1"/>
+    <row r="292" ht="15.75" customHeight="1"/>
+    <row r="293" ht="15.75" customHeight="1"/>
+    <row r="294" ht="15.75" customHeight="1"/>
+    <row r="295" ht="15.75" customHeight="1"/>
+    <row r="296" ht="15.75" customHeight="1"/>
+    <row r="297" ht="15.75" customHeight="1"/>
+    <row r="298" ht="15.75" customHeight="1"/>
+    <row r="299" ht="15.75" customHeight="1"/>
+    <row r="300" ht="15.75" customHeight="1"/>
+    <row r="301" ht="15.75" customHeight="1"/>
+    <row r="302" ht="15.75" customHeight="1"/>
+    <row r="303" ht="15.75" customHeight="1"/>
+    <row r="304" ht="15.75" customHeight="1"/>
+    <row r="305" ht="15.75" customHeight="1"/>
+    <row r="306" ht="15.75" customHeight="1"/>
+    <row r="307" ht="15.75" customHeight="1"/>
+    <row r="308" ht="15.75" customHeight="1"/>
+    <row r="309" ht="15.75" customHeight="1"/>
+    <row r="310" ht="15.75" customHeight="1"/>
+    <row r="311" ht="15.75" customHeight="1"/>
+    <row r="312" ht="15.75" customHeight="1"/>
+    <row r="313" ht="15.75" customHeight="1"/>
+    <row r="314" ht="15.75" customHeight="1"/>
+    <row r="315" ht="15.75" customHeight="1"/>
+    <row r="316" ht="15.75" customHeight="1"/>
+    <row r="317" ht="15.75" customHeight="1"/>
+    <row r="318" ht="15.75" customHeight="1"/>
+    <row r="319" ht="15.75" customHeight="1"/>
+    <row r="320" ht="15.75" customHeight="1"/>
+    <row r="321" ht="15.75" customHeight="1"/>
+    <row r="322" ht="15.75" customHeight="1"/>
+    <row r="323" ht="15.75" customHeight="1"/>
+    <row r="324" ht="15.75" customHeight="1"/>
+    <row r="325" ht="15.75" customHeight="1"/>
+    <row r="326" ht="15.75" customHeight="1"/>
+    <row r="327" ht="15.75" customHeight="1"/>
+    <row r="328" ht="15.75" customHeight="1"/>
+    <row r="329" ht="15.75" customHeight="1"/>
+    <row r="330" ht="15.75" customHeight="1"/>
+    <row r="331" ht="15.75" customHeight="1"/>
+    <row r="332" ht="15.75" customHeight="1"/>
+    <row r="333" ht="15.75" customHeight="1"/>
+    <row r="334" ht="15.75" customHeight="1"/>
+    <row r="335" ht="15.75" customHeight="1"/>
+    <row r="336" ht="15.75" customHeight="1"/>
+    <row r="337" ht="15.75" customHeight="1"/>
+    <row r="338" ht="15.75" customHeight="1"/>
+    <row r="339" ht="15.75" customHeight="1"/>
+    <row r="340" ht="15.75" customHeight="1"/>
+    <row r="341" ht="15.75" customHeight="1"/>
+    <row r="342" ht="15.75" customHeight="1"/>
+    <row r="343" ht="15.75" customHeight="1"/>
+    <row r="344" ht="15.75" customHeight="1"/>
+    <row r="345" ht="15.75" customHeight="1"/>
+    <row r="346" ht="15.75" customHeight="1"/>
+    <row r="347" ht="15.75" customHeight="1"/>
+    <row r="348" ht="15.75" customHeight="1"/>
+    <row r="349" ht="15.75" customHeight="1"/>
+    <row r="350" ht="15.75" customHeight="1"/>
+    <row r="351" ht="15.75" customHeight="1"/>
+    <row r="352" ht="15.75" customHeight="1"/>
+    <row r="353" ht="15.75" customHeight="1"/>
+    <row r="354" ht="15.75" customHeight="1"/>
+    <row r="355" ht="15.75" customHeight="1"/>
+    <row r="356" ht="15.75" customHeight="1"/>
+    <row r="357" ht="15.75" customHeight="1"/>
+    <row r="358" ht="15.75" customHeight="1"/>
+    <row r="359" ht="15.75" customHeight="1"/>
+    <row r="360" ht="15.75" customHeight="1"/>
+    <row r="361" ht="15.75" customHeight="1"/>
+    <row r="362" ht="15.75" customHeight="1"/>
+    <row r="363" ht="15.75" customHeight="1"/>
+    <row r="364" ht="15.75" customHeight="1"/>
+    <row r="365" ht="15.75" customHeight="1"/>
+    <row r="366" ht="15.75" customHeight="1"/>
+    <row r="367" ht="15.75" customHeight="1"/>
+    <row r="368" ht="15.75" customHeight="1"/>
+    <row r="369" ht="15.75" customHeight="1"/>
+    <row r="370" ht="15.75" customHeight="1"/>
+    <row r="371" ht="15.75" customHeight="1"/>
+    <row r="372" ht="15.75" customHeight="1"/>
+    <row r="373" ht="15.75" customHeight="1"/>
+    <row r="374" ht="15.75" customHeight="1"/>
+    <row r="375" ht="15.75" customHeight="1"/>
+    <row r="376" ht="15.75" customHeight="1"/>
+    <row r="377" ht="15.75" customHeight="1"/>
+    <row r="378" ht="15.75" customHeight="1"/>
+    <row r="379" ht="15.75" customHeight="1"/>
+    <row r="380" ht="15.75" customHeight="1"/>
+    <row r="381" ht="15.75" customHeight="1"/>
+    <row r="382" ht="15.75" customHeight="1"/>
+    <row r="383" ht="15.75" customHeight="1"/>
+    <row r="384" ht="15.75" customHeight="1"/>
+    <row r="385" ht="15.75" customHeight="1"/>
+    <row r="386" ht="15.75" customHeight="1"/>
+    <row r="387" ht="15.75" customHeight="1"/>
+    <row r="388" ht="15.75" customHeight="1"/>
+    <row r="389" ht="15.75" customHeight="1"/>
+    <row r="390" ht="15.75" customHeight="1"/>
+    <row r="391" ht="15.75" customHeight="1"/>
+    <row r="392" ht="15.75" customHeight="1"/>
+    <row r="393" ht="15.75" customHeight="1"/>
+    <row r="394" ht="15.75" customHeight="1"/>
+    <row r="395" ht="15.75" customHeight="1"/>
+    <row r="396" ht="15.75" customHeight="1"/>
+    <row r="397" ht="15.75" customHeight="1"/>
+    <row r="398" ht="15.75" customHeight="1"/>
+    <row r="399" ht="15.75" customHeight="1"/>
+    <row r="400" ht="15.75" customHeight="1"/>
+    <row r="401" ht="15.75" customHeight="1"/>
+    <row r="402" ht="15.75" customHeight="1"/>
+    <row r="403" ht="15.75" customHeight="1"/>
+    <row r="404" ht="15.75" customHeight="1"/>
+    <row r="405" ht="15.75" customHeight="1"/>
+    <row r="406" ht="15.75" customHeight="1"/>
+    <row r="407" ht="15.75" customHeight="1"/>
+    <row r="408" ht="15.75" customHeight="1"/>
+    <row r="409" ht="15.75" customHeight="1"/>
+    <row r="410" ht="15.75" customHeight="1"/>
+    <row r="411" ht="15.75" customHeight="1"/>
+    <row r="412" ht="15.75" customHeight="1"/>
+    <row r="413" ht="15.75" customHeight="1"/>
+    <row r="414" ht="15.75" customHeight="1"/>
+    <row r="415" ht="15.75" customHeight="1"/>
+    <row r="416" ht="15.75" customHeight="1"/>
+    <row r="417" ht="15.75" customHeight="1"/>
+    <row r="418" ht="15.75" customHeight="1"/>
+    <row r="419" ht="15.75" customHeight="1"/>
+    <row r="420" ht="15.75" customHeight="1"/>
+    <row r="421" ht="15.75" customHeight="1"/>
+    <row r="422" ht="15.75" customHeight="1"/>
+    <row r="423" ht="15.75" customHeight="1"/>
+    <row r="424" ht="15.75" customHeight="1"/>
+    <row r="425" ht="15.75" customHeight="1"/>
+    <row r="426" ht="15.75" customHeight="1"/>
+    <row r="427" ht="15.75" customHeight="1"/>
+    <row r="428" ht="15.75" customHeight="1"/>
+    <row r="429" ht="15.75" customHeight="1"/>
+    <row r="430" ht="15.75" customHeight="1"/>
+    <row r="431" ht="15.75" customHeight="1"/>
+    <row r="432" ht="15.75" customHeight="1"/>
+    <row r="433" ht="15.75" customHeight="1"/>
+    <row r="434" ht="15.75" customHeight="1"/>
+    <row r="435" ht="15.75" customHeight="1"/>
+    <row r="436" ht="15.75" customHeight="1"/>
+    <row r="437" ht="15.75" customHeight="1"/>
+    <row r="438" ht="15.75" customHeight="1"/>
+    <row r="439" ht="15.75" customHeight="1"/>
+    <row r="440" ht="15.75" customHeight="1"/>
+    <row r="441" ht="15.75" customHeight="1"/>
+    <row r="442" ht="15.75" customHeight="1"/>
+    <row r="443" ht="15.75" customHeight="1"/>
+    <row r="444" ht="15.75" customHeight="1"/>
+    <row r="445" ht="15.75" customHeight="1"/>
+    <row r="446" ht="15.75" customHeight="1"/>
+    <row r="447" ht="15.75" customHeight="1"/>
+    <row r="448" ht="15.75" customHeight="1"/>
+    <row r="449" ht="15.75" customHeight="1"/>
+    <row r="450" ht="15.75" customHeight="1"/>
+    <row r="451" ht="15.75" customHeight="1"/>
+    <row r="452" ht="15.75" customHeight="1"/>
+    <row r="453" ht="15.75" customHeight="1"/>
+    <row r="454" ht="15.75" customHeight="1"/>
+    <row r="455" ht="15.75" customHeight="1"/>
+    <row r="456" ht="15.75" customHeight="1"/>
+    <row r="457" ht="15.75" customHeight="1"/>
+    <row r="458" ht="15.75" customHeight="1"/>
+    <row r="459" ht="15.75" customHeight="1"/>
+    <row r="460" ht="15.75" customHeight="1"/>
+    <row r="461" ht="15.75" customHeight="1"/>
+    <row r="462" ht="15.75" customHeight="1"/>
+    <row r="463" ht="15.75" customHeight="1"/>
+    <row r="464" ht="15.75" customHeight="1"/>
+    <row r="465" ht="15.75" customHeight="1"/>
+    <row r="466" ht="15.75" customHeight="1"/>
+    <row r="467" ht="15.75" customHeight="1"/>
+    <row r="468" ht="15.75" customHeight="1"/>
+    <row r="469" ht="15.75" customHeight="1"/>
+    <row r="470" ht="15.75" customHeight="1"/>
+    <row r="471" ht="15.75" customHeight="1"/>
+    <row r="472" ht="15.75" customHeight="1"/>
+    <row r="473" ht="15.75" customHeight="1"/>
+    <row r="474" ht="15.75" customHeight="1"/>
+    <row r="475" ht="15.75" customHeight="1"/>
+    <row r="476" ht="15.75" customHeight="1"/>
+    <row r="477" ht="15.75" customHeight="1"/>
+    <row r="478" ht="15.75" customHeight="1"/>
+    <row r="479" ht="15.75" customHeight="1"/>
+    <row r="480" ht="15.75" customHeight="1"/>
+    <row r="481" ht="15.75" customHeight="1"/>
+    <row r="482" ht="15.75" customHeight="1"/>
+    <row r="483" ht="15.75" customHeight="1"/>
+    <row r="484" ht="15.75" customHeight="1"/>
+    <row r="485" ht="15.75" customHeight="1"/>
+    <row r="486" ht="15.75" customHeight="1"/>
+    <row r="487" ht="15.75" customHeight="1"/>
+    <row r="488" ht="15.75" customHeight="1"/>
+    <row r="489" ht="15.75" customHeight="1"/>
+    <row r="490" ht="15.75" customHeight="1"/>
+    <row r="491" ht="15.75" customHeight="1"/>
+    <row r="492" ht="15.75" customHeight="1"/>
+    <row r="493" ht="15.75" customHeight="1"/>
+    <row r="494" ht="15.75" customHeight="1"/>
+    <row r="495" ht="15.75" customHeight="1"/>
+    <row r="496" ht="15.75" customHeight="1"/>
+    <row r="497" ht="15.75" customHeight="1"/>
+    <row r="498" ht="15.75" customHeight="1"/>
+    <row r="499" ht="15.75" customHeight="1"/>
+    <row r="500" ht="15.75" customHeight="1"/>
+    <row r="501" ht="15.75" customHeight="1"/>
+    <row r="502" ht="15.75" customHeight="1"/>
+    <row r="503" ht="15.75" customHeight="1"/>
+    <row r="504" ht="15.75" customHeight="1"/>
+    <row r="505" ht="15.75" customHeight="1"/>
+    <row r="506" ht="15.75" customHeight="1"/>
+    <row r="507" ht="15.75" customHeight="1"/>
+    <row r="508" ht="15.75" customHeight="1"/>
+    <row r="509" ht="15.75" customHeight="1"/>
+    <row r="510" ht="15.75" customHeight="1"/>
+    <row r="511" ht="15.75" customHeight="1"/>
+    <row r="512" ht="15.75" customHeight="1"/>
+    <row r="513" ht="15.75" customHeight="1"/>
+    <row r="514" ht="15.75" customHeight="1"/>
+    <row r="515" ht="15.75" customHeight="1"/>
+    <row r="516" ht="15.75" customHeight="1"/>
+    <row r="517" ht="15.75" customHeight="1"/>
+    <row r="518" ht="15.75" customHeight="1"/>
+    <row r="519" ht="15.75" customHeight="1"/>
+    <row r="520" ht="15.75" customHeight="1"/>
+    <row r="521" ht="15.75" customHeight="1"/>
+    <row r="522" ht="15.75" customHeight="1"/>
+    <row r="523" ht="15.75" customHeight="1"/>
+    <row r="524" ht="15.75" customHeight="1"/>
+    <row r="525" ht="15.75" customHeight="1"/>
+    <row r="526" ht="15.75" customHeight="1"/>
+    <row r="527" ht="15.75" customHeight="1"/>
+    <row r="528" ht="15.75" customHeight="1"/>
+    <row r="529" ht="15.75" customHeight="1"/>
+    <row r="530" ht="15.75" customHeight="1"/>
+    <row r="531" ht="15.75" customHeight="1"/>
+    <row r="532" ht="15.75" customHeight="1"/>
+    <row r="533" ht="15.75" customHeight="1"/>
+    <row r="534" ht="15.75" customHeight="1"/>
+    <row r="535" ht="15.75" customHeight="1"/>
+    <row r="536" ht="15.75" customHeight="1"/>
+    <row r="537" ht="15.75" customHeight="1"/>
+    <row r="538" ht="15.75" customHeight="1"/>
+    <row r="539" ht="15.75" customHeight="1"/>
+    <row r="540" ht="15.75" customHeight="1"/>
+    <row r="541" ht="15.75" customHeight="1"/>
+    <row r="542" ht="15.75" customHeight="1"/>
+    <row r="543" ht="15.75" customHeight="1"/>
+    <row r="544" ht="15.75" customHeight="1"/>
+    <row r="545" ht="15.75" customHeight="1"/>
+    <row r="546" ht="15.75" customHeight="1"/>
+    <row r="547" ht="15.75" customHeight="1"/>
+    <row r="548" ht="15.75" customHeight="1"/>
+    <row r="549" ht="15.75" customHeight="1"/>
+    <row r="550" ht="15.75" customHeight="1"/>
+    <row r="551" ht="15.75" customHeight="1"/>
+    <row r="552" ht="15.75" customHeight="1"/>
+    <row r="553" ht="15.75" customHeight="1"/>
+    <row r="554" ht="15.75" customHeight="1"/>
+    <row r="555" ht="15.75" customHeight="1"/>
+    <row r="556" ht="15.75" customHeight="1"/>
+    <row r="557" ht="15.75" customHeight="1"/>
+    <row r="558" ht="15.75" customHeight="1"/>
+    <row r="559" ht="15.75" customHeight="1"/>
+    <row r="560" ht="15.75" customHeight="1"/>
+    <row r="561" ht="15.75" customHeight="1"/>
+    <row r="562" ht="15.75" customHeight="1"/>
+    <row r="563" ht="15.75" customHeight="1"/>
+    <row r="564" ht="15.75" customHeight="1"/>
+    <row r="565" ht="15.75" customHeight="1"/>
+    <row r="566" ht="15.75" customHeight="1"/>
+    <row r="567" ht="15.75" customHeight="1"/>
+    <row r="568" ht="15.75" customHeight="1"/>
+    <row r="569" ht="15.75" customHeight="1"/>
+    <row r="570" ht="15.75" customHeight="1"/>
+    <row r="571" ht="15.75" customHeight="1"/>
+    <row r="572" ht="15.75" customHeight="1"/>
+    <row r="573" ht="15.75" customHeight="1"/>
+    <row r="574" ht="15.75" customHeight="1"/>
+    <row r="575" ht="15.75" customHeight="1"/>
+    <row r="576" ht="15.75" customHeight="1"/>
+    <row r="577" ht="15.75" customHeight="1"/>
+    <row r="578" ht="15.75" customHeight="1"/>
+    <row r="579" ht="15.75" customHeight="1"/>
+    <row r="580" ht="15.75" customHeight="1"/>
+    <row r="581" ht="15.75" customHeight="1"/>
+    <row r="582" ht="15.75" customHeight="1"/>
+    <row r="583" ht="15.75" customHeight="1"/>
+    <row r="584" ht="15.75" customHeight="1"/>
+    <row r="585" ht="15.75" customHeight="1"/>
+    <row r="586" ht="15.75" customHeight="1"/>
+    <row r="587" ht="15.75" customHeight="1"/>
+    <row r="588" ht="15.75" customHeight="1"/>
+    <row r="589" ht="15.75" customHeight="1"/>
+    <row r="590" ht="15.75" customHeight="1"/>
+    <row r="591" ht="15.75" customHeight="1"/>
+    <row r="592" ht="15.75" customHeight="1"/>
+    <row r="593" ht="15.75" customHeight="1"/>
+    <row r="594" ht="15.75" customHeight="1"/>
+    <row r="595" ht="15.75" customHeight="1"/>
+    <row r="596" ht="15.75" customHeight="1"/>
+    <row r="597" ht="15.75" customHeight="1"/>
+    <row r="598" ht="15.75" customHeight="1"/>
+    <row r="599" ht="15.75" customHeight="1"/>
+    <row r="600" ht="15.75" customHeight="1"/>
+    <row r="601" ht="15.75" customHeight="1"/>
+    <row r="602" ht="15.75" customHeight="1"/>
+    <row r="603" ht="15.75" customHeight="1"/>
+    <row r="604" ht="15.75" customHeight="1"/>
+    <row r="605" ht="15.75" customHeight="1"/>
+    <row r="606" ht="15.75" customHeight="1"/>
+    <row r="607" ht="15.75" customHeight="1"/>
+    <row r="608" ht="15.75" customHeight="1"/>
+    <row r="609" ht="15.75" customHeight="1"/>
+    <row r="610" ht="15.75" customHeight="1"/>
+    <row r="611" ht="15.75" customHeight="1"/>
+    <row r="612" ht="15.75" customHeight="1"/>
+    <row r="613" ht="15.75" customHeight="1"/>
+    <row r="614" ht="15.75" customHeight="1"/>
+    <row r="615" ht="15.75" customHeight="1"/>
+    <row r="616" ht="15.75" customHeight="1"/>
+    <row r="617" ht="15.75" customHeight="1"/>
+    <row r="618" ht="15.75" customHeight="1"/>
+    <row r="619" ht="15.75" customHeight="1"/>
+    <row r="620" ht="15.75" customHeight="1"/>
+    <row r="621" ht="15.75" customHeight="1"/>
+    <row r="622" ht="15.75" customHeight="1"/>
+    <row r="623" ht="15.75" customHeight="1"/>
+    <row r="624" ht="15.75" customHeight="1"/>
+    <row r="625" ht="15.75" customHeight="1"/>
+    <row r="626" ht="15.75" customHeight="1"/>
+    <row r="627" ht="15.75" customHeight="1"/>
+    <row r="628" ht="15.75" customHeight="1"/>
+    <row r="629" ht="15.75" customHeight="1"/>
+    <row r="630" ht="15.75" customHeight="1"/>
+    <row r="631" ht="15.75" customHeight="1"/>
+    <row r="632" ht="15.75" customHeight="1"/>
+    <row r="633" ht="15.75" customHeight="1"/>
+    <row r="634" ht="15.75" customHeight="1"/>
+    <row r="635" ht="15.75" customHeight="1"/>
+    <row r="636" ht="15.75" customHeight="1"/>
+    <row r="637" ht="15.75" customHeight="1"/>
+    <row r="638" ht="15.75" customHeight="1"/>
+    <row r="639" ht="15.75" customHeight="1"/>
+    <row r="640" ht="15.75" customHeight="1"/>
+    <row r="641" ht="15.75" customHeight="1"/>
+    <row r="642" ht="15.75" customHeight="1"/>
+    <row r="643" ht="15.75" customHeight="1"/>
+    <row r="644" ht="15.75" customHeight="1"/>
+    <row r="645" ht="15.75" customHeight="1"/>
+    <row r="646" ht="15.75" customHeight="1"/>
+    <row r="647" ht="15.75" customHeight="1"/>
+    <row r="648" ht="15.75" customHeight="1"/>
+    <row r="649" ht="15.75" customHeight="1"/>
+    <row r="650" ht="15.75" customHeight="1"/>
+    <row r="651" ht="15.75" customHeight="1"/>
+    <row r="652" ht="15.75" customHeight="1"/>
+    <row r="653" ht="15.75" customHeight="1"/>
+    <row r="654" ht="15.75" customHeight="1"/>
+    <row r="655" ht="15.75" customHeight="1"/>
+    <row r="656" ht="15.75" customHeight="1"/>
+    <row r="657" ht="15.75" customHeight="1"/>
+    <row r="658" ht="15.75" customHeight="1"/>
+    <row r="659" ht="15.75" customHeight="1"/>
+    <row r="660" ht="15.75" customHeight="1"/>
+    <row r="661" ht="15.75" customHeight="1"/>
+    <row r="662" ht="15.75" customHeight="1"/>
+    <row r="663" ht="15.75" customHeight="1"/>
+    <row r="664" ht="15.75" customHeight="1"/>
+    <row r="665" ht="15.75" customHeight="1"/>
+    <row r="666" ht="15.75" customHeight="1"/>
+    <row r="667" ht="15.75" customHeight="1"/>
+    <row r="668" ht="15.75" customHeight="1"/>
+    <row r="669" ht="15.75" customHeight="1"/>
+    <row r="670" ht="15.75" customHeight="1"/>
+    <row r="671" ht="15.75" customHeight="1"/>
+    <row r="672" ht="15.75" customHeight="1"/>
+    <row r="673" ht="15.75" customHeight="1"/>
+    <row r="674" ht="15.75" customHeight="1"/>
+    <row r="675" ht="15.75" customHeight="1"/>
+    <row r="676" ht="15.75" customHeight="1"/>
+    <row r="677" ht="15.75" customHeight="1"/>
+    <row r="678" ht="15.75" customHeight="1"/>
+    <row r="679" ht="15.75" customHeight="1"/>
+    <row r="680" ht="15.75" customHeight="1"/>
+    <row r="681" ht="15.75" customHeight="1"/>
+    <row r="682" ht="15.75" customHeight="1"/>
+    <row r="683" ht="15.75" customHeight="1"/>
+    <row r="684" ht="15.75" customHeight="1"/>
+    <row r="685" ht="15.75" customHeight="1"/>
+    <row r="686" ht="15.75" customHeight="1"/>
+    <row r="687" ht="15.75" customHeight="1"/>
+    <row r="688" ht="15.75" customHeight="1"/>
+    <row r="689" ht="15.75" customHeight="1"/>
+    <row r="690" ht="15.75" customHeight="1"/>
+    <row r="691" ht="15.75" customHeight="1"/>
+    <row r="692" ht="15.75" customHeight="1"/>
+    <row r="693" ht="15.75" customHeight="1"/>
+    <row r="694" ht="15.75" customHeight="1"/>
+    <row r="695" ht="15.75" customHeight="1"/>
+    <row r="696" ht="15.75" customHeight="1"/>
+    <row r="697" ht="15.75" customHeight="1"/>
+    <row r="698" ht="15.75" customHeight="1"/>
+    <row r="699" ht="15.75" customHeight="1"/>
+    <row r="700" ht="15.75" customHeight="1"/>
+    <row r="701" ht="15.75" customHeight="1"/>
+    <row r="702" ht="15.75" customHeight="1"/>
+    <row r="703" ht="15.75" customHeight="1"/>
+    <row r="704" ht="15.75" customHeight="1"/>
+    <row r="705" ht="15.75" customHeight="1"/>
+    <row r="706" ht="15.75" customHeight="1"/>
+    <row r="707" ht="15.75" customHeight="1"/>
+    <row r="708" ht="15.75" customHeight="1"/>
+    <row r="709" ht="15.75" customHeight="1"/>
+    <row r="710" ht="15.75" customHeight="1"/>
+    <row r="711" ht="15.75" customHeight="1"/>
+    <row r="712" ht="15.75" customHeight="1"/>
+    <row r="713" ht="15.75" customHeight="1"/>
+    <row r="714" ht="15.75" customHeight="1"/>
+    <row r="715" ht="15.75" customHeight="1"/>
+    <row r="716" ht="15.75" customHeight="1"/>
+    <row r="717" ht="15.75" customHeight="1"/>
+    <row r="718" ht="15.75" customHeight="1"/>
+    <row r="719" ht="15.75" customHeight="1"/>
+    <row r="720" ht="15.75" customHeight="1"/>
+    <row r="721" ht="15.75" customHeight="1"/>
+    <row r="722" ht="15.75" customHeight="1"/>
+    <row r="723" ht="15.75" customHeight="1"/>
+    <row r="724" ht="15.75" customHeight="1"/>
+    <row r="725" ht="15.75" customHeight="1"/>
+    <row r="726" ht="15.75" customHeight="1"/>
+    <row r="727" ht="15.75" customHeight="1"/>
+    <row r="728" ht="15.75" customHeight="1"/>
+    <row r="729" ht="15.75" customHeight="1"/>
+    <row r="730" ht="15.75" customHeight="1"/>
+    <row r="731" ht="15.75" customHeight="1"/>
+    <row r="732" ht="15.75" customHeight="1"/>
+    <row r="733" ht="15.75" customHeight="1"/>
+    <row r="734" ht="15.75" customHeight="1"/>
+    <row r="735" ht="15.75" customHeight="1"/>
+    <row r="736" ht="15.75" customHeight="1"/>
+    <row r="737" ht="15.75" customHeight="1"/>
+    <row r="738" ht="15.75" customHeight="1"/>
+    <row r="739" ht="15.75" customHeight="1"/>
+    <row r="740" ht="15.75" customHeight="1"/>
+    <row r="741" ht="15.75" customHeight="1"/>
+    <row r="742" ht="15.75" customHeight="1"/>
+    <row r="743" ht="15.75" customHeight="1"/>
+    <row r="744" ht="15.75" customHeight="1"/>
+    <row r="745" ht="15.75" customHeight="1"/>
+    <row r="746" ht="15.75" customHeight="1"/>
+    <row r="747" ht="15.75" customHeight="1"/>
+    <row r="748" ht="15.75" customHeight="1"/>
+    <row r="749" ht="15.75" customHeight="1"/>
+    <row r="750" ht="15.75" customHeight="1"/>
+    <row r="751" ht="15.75" customHeight="1"/>
+    <row r="752" ht="15.75" customHeight="1"/>
+    <row r="753" ht="15.75" customHeight="1"/>
+    <row r="754" ht="15.75" customHeight="1"/>
+    <row r="755" ht="15.75" customHeight="1"/>
+    <row r="756" ht="15.75" customHeight="1"/>
+    <row r="757" ht="15.75" customHeight="1"/>
+    <row r="758" ht="15.75" customHeight="1"/>
+    <row r="759" ht="15.75" customHeight="1"/>
+    <row r="760" ht="15.75" customHeight="1"/>
+    <row r="761" ht="15.75" customHeight="1"/>
+    <row r="762" ht="15.75" customHeight="1"/>
+    <row r="763" ht="15.75" customHeight="1"/>
+    <row r="764" ht="15.75" customHeight="1"/>
+    <row r="765" ht="15.75" customHeight="1"/>
+    <row r="766" ht="15.75" customHeight="1"/>
+    <row r="767" ht="15.75" customHeight="1"/>
+    <row r="768" ht="15.75" customHeight="1"/>
+    <row r="769" ht="15.75" customHeight="1"/>
+    <row r="770" ht="15.75" customHeight="1"/>
+    <row r="771" ht="15.75" customHeight="1"/>
+    <row r="772" ht="15.75" customHeight="1"/>
+    <row r="773" ht="15.75" customHeight="1"/>
+    <row r="774" ht="15.75" customHeight="1"/>
+    <row r="775" ht="15.75" customHeight="1"/>
+    <row r="776" ht="15.75" customHeight="1"/>
+    <row r="777" ht="15.75" customHeight="1"/>
+    <row r="778" ht="15.75" customHeight="1"/>
+    <row r="779" ht="15.75" customHeight="1"/>
+    <row r="780" ht="15.75" customHeight="1"/>
+    <row r="781" ht="15.75" customHeight="1"/>
+    <row r="782" ht="15.75" customHeight="1"/>
+    <row r="783" ht="15.75" customHeight="1"/>
+    <row r="784" ht="15.75" customHeight="1"/>
+    <row r="785" ht="15.75" customHeight="1"/>
+    <row r="786" ht="15.75" customHeight="1"/>
+    <row r="787" ht="15.75" customHeight="1"/>
+    <row r="788" ht="15.75" customHeight="1"/>
+    <row r="789" ht="15.75" customHeight="1"/>
+    <row r="790" ht="15.75" customHeight="1"/>
+    <row r="791" ht="15.75" customHeight="1"/>
+    <row r="792" ht="15.75" customHeight="1"/>
+    <row r="793" ht="15.75" customHeight="1"/>
+    <row r="794" ht="15.75" customHeight="1"/>
+    <row r="795" ht="15.75" customHeight="1"/>
+    <row r="796" ht="15.75" customHeight="1"/>
+    <row r="797" ht="15.75" customHeight="1"/>
+    <row r="798" ht="15.75" customHeight="1"/>
+    <row r="799" ht="15.75" customHeight="1"/>
+    <row r="800" ht="15.75" customHeight="1"/>
+    <row r="801" ht="15.75" customHeight="1"/>
+    <row r="802" ht="15.75" customHeight="1"/>
+    <row r="803" ht="15.75" customHeight="1"/>
+    <row r="804" ht="15.75" customHeight="1"/>
+    <row r="805" ht="15.75" customHeight="1"/>
+    <row r="806" ht="15.75" customHeight="1"/>
+    <row r="807" ht="15.75" customHeight="1"/>
+    <row r="808" ht="15.75" customHeight="1"/>
+    <row r="809" ht="15.75" customHeight="1"/>
+    <row r="810" ht="15.75" customHeight="1"/>
+    <row r="811" ht="15.75" customHeight="1"/>
+    <row r="812" ht="15.75" customHeight="1"/>
+    <row r="813" ht="15.75" customHeight="1"/>
+    <row r="814" ht="15.75" customHeight="1"/>
+    <row r="815" ht="15.75" customHeight="1"/>
+    <row r="816" ht="15.75" customHeight="1"/>
+    <row r="817" ht="15.75" customHeight="1"/>
+    <row r="818" ht="15.75" customHeight="1"/>
+    <row r="819" ht="15.75" customHeight="1"/>
+    <row r="820" ht="15.75" customHeight="1"/>
+    <row r="821" ht="15.75" customHeight="1"/>
+    <row r="822" ht="15.75" customHeight="1"/>
+    <row r="823" ht="15.75" customHeight="1"/>
+    <row r="824" ht="15.75" customHeight="1"/>
+    <row r="825" ht="15.75" customHeight="1"/>
+    <row r="826" ht="15.75" customHeight="1"/>
+    <row r="827" ht="15.75" customHeight="1"/>
+    <row r="828" ht="15.75" customHeight="1"/>
+    <row r="829" ht="15.75" customHeight="1"/>
+    <row r="830" ht="15.75" customHeight="1"/>
+    <row r="831" ht="15.75" customHeight="1"/>
+    <row r="832" ht="15.75" customHeight="1"/>
+    <row r="833" ht="15.75" customHeight="1"/>
+    <row r="834" ht="15.75" customHeight="1"/>
+    <row r="835" ht="15.75" customHeight="1"/>
+    <row r="836" ht="15.75" customHeight="1"/>
+    <row r="837" ht="15.75" customHeight="1"/>
+    <row r="838" ht="15.75" customHeight="1"/>
+    <row r="839" ht="15.75" customHeight="1"/>
+    <row r="840" ht="15.75" customHeight="1"/>
+    <row r="841" ht="15.75" customHeight="1"/>
+    <row r="842" ht="15.75" customHeight="1"/>
+    <row r="843" ht="15.75" customHeight="1"/>
+    <row r="844" ht="15.75" customHeight="1"/>
+    <row r="845" ht="15.75" customHeight="1"/>
+    <row r="846" ht="15.75" customHeight="1"/>
+    <row r="847" ht="15.75" customHeight="1"/>
+    <row r="848" ht="15.75" customHeight="1"/>
+    <row r="849" ht="15.75" customHeight="1"/>
+    <row r="850" ht="15.75" customHeight="1"/>
+    <row r="851" ht="15.75" customHeight="1"/>
+    <row r="852" ht="15.75" customHeight="1"/>
+    <row r="853" ht="15.75" customHeight="1"/>
+    <row r="854" ht="15.75" customHeight="1"/>
+    <row r="855" ht="15.75" customHeight="1"/>
+    <row r="856" ht="15.75" customHeight="1"/>
+    <row r="857" ht="15.75" customHeight="1"/>
+    <row r="858" ht="15.75" customHeight="1"/>
+    <row r="859" ht="15.75" customHeight="1"/>
+    <row r="860" ht="15.75" customHeight="1"/>
+    <row r="861" ht="15.75" customHeight="1"/>
+    <row r="862" ht="15.75" customHeight="1"/>
+    <row r="863" ht="15.75" customHeight="1"/>
+    <row r="864" ht="15.75" customHeight="1"/>
+    <row r="865" ht="15.75" customHeight="1"/>
+    <row r="866" ht="15.75" customHeight="1"/>
+    <row r="867" ht="15.75" customHeight="1"/>
+    <row r="868" ht="15.75" customHeight="1"/>
+    <row r="869" ht="15.75" customHeight="1"/>
+    <row r="870" ht="15.75" customHeight="1"/>
+    <row r="871" ht="15.75" customHeight="1"/>
+    <row r="872" ht="15.75" customHeight="1"/>
+    <row r="873" ht="15.75" customHeight="1"/>
+    <row r="874" ht="15.75" customHeight="1"/>
+    <row r="875" ht="15.75" customHeight="1"/>
+    <row r="876" ht="15.75" customHeight="1"/>
+    <row r="877" ht="15.75" customHeight="1"/>
+    <row r="878" ht="15.75" customHeight="1"/>
+    <row r="879" ht="15.75" customHeight="1"/>
+    <row r="880" ht="15.75" customHeight="1"/>
+    <row r="881" ht="15.75" customHeight="1"/>
+    <row r="882" ht="15.75" customHeight="1"/>
+    <row r="883" ht="15.75" customHeight="1"/>
+    <row r="884" ht="15.75" customHeight="1"/>
+    <row r="885" ht="15.75" customHeight="1"/>
+    <row r="886" ht="15.75" customHeight="1"/>
+    <row r="887" ht="15.75" customHeight="1"/>
+    <row r="888" ht="15.75" customHeight="1"/>
+    <row r="889" ht="15.75" customHeight="1"/>
+    <row r="890" ht="15.75" customHeight="1"/>
+    <row r="891" ht="15.75" customHeight="1"/>
+    <row r="892" ht="15.75" customHeight="1"/>
+    <row r="893" ht="15.75" customHeight="1"/>
+    <row r="894" ht="15.75" customHeight="1"/>
+    <row r="895" ht="15.75" customHeight="1"/>
+    <row r="896" ht="15.75" customHeight="1"/>
+    <row r="897" ht="15.75" customHeight="1"/>
+    <row r="898" ht="15.75" customHeight="1"/>
+    <row r="899" ht="15.75" customHeight="1"/>
+    <row r="900" ht="15.75" customHeight="1"/>
+    <row r="901" ht="15.75" customHeight="1"/>
+    <row r="902" ht="15.75" customHeight="1"/>
+    <row r="903" ht="15.75" customHeight="1"/>
+    <row r="904" ht="15.75" customHeight="1"/>
+    <row r="905" ht="15.75" customHeight="1"/>
+    <row r="906" ht="15.75" customHeight="1"/>
+    <row r="907" ht="15.75" customHeight="1"/>
+    <row r="908" ht="15.75" customHeight="1"/>
+    <row r="909" ht="15.75" customHeight="1"/>
+    <row r="910" ht="15.75" customHeight="1"/>
+    <row r="911" ht="15.75" customHeight="1"/>
+    <row r="912" ht="15.75" customHeight="1"/>
+    <row r="913" ht="15.75" customHeight="1"/>
+    <row r="914" ht="15.75" customHeight="1"/>
+    <row r="915" ht="15.75" customHeight="1"/>
+    <row r="916" ht="15.75" customHeight="1"/>
+    <row r="917" ht="15.75" customHeight="1"/>
+    <row r="918" ht="15.75" customHeight="1"/>
+    <row r="919" ht="15.75" customHeight="1"/>
+    <row r="920" ht="15.75" customHeight="1"/>
+    <row r="921" ht="15.75" customHeight="1"/>
+    <row r="922" ht="15.75" customHeight="1"/>
+    <row r="923" ht="15.75" customHeight="1"/>
+    <row r="924" ht="15.75" customHeight="1"/>
+    <row r="925" ht="15.75" customHeight="1"/>
+    <row r="926" ht="15.75" customHeight="1"/>
+    <row r="927" ht="15.75" customHeight="1"/>
+    <row r="928" ht="15.75" customHeight="1"/>
+    <row r="929" ht="15.75" customHeight="1"/>
+    <row r="930" ht="15.75" customHeight="1"/>
+    <row r="931" ht="15.75" customHeight="1"/>
+    <row r="932" ht="15.75" customHeight="1"/>
+    <row r="933" ht="15.75" customHeight="1"/>
+    <row r="934" ht="15.75" customHeight="1"/>
+    <row r="935" ht="15.75" customHeight="1"/>
+    <row r="936" ht="15.75" customHeight="1"/>
+    <row r="937" ht="15.75" customHeight="1"/>
+    <row r="938" ht="15.75" customHeight="1"/>
+    <row r="939" ht="15.75" customHeight="1"/>
+    <row r="940" ht="15.75" customHeight="1"/>
+    <row r="941" ht="15.75" customHeight="1"/>
+    <row r="942" ht="15.75" customHeight="1"/>
+    <row r="943" ht="15.75" customHeight="1"/>
+    <row r="944" ht="15.75" customHeight="1"/>
+    <row r="945" ht="15.75" customHeight="1"/>
+    <row r="946" ht="15.75" customHeight="1"/>
+    <row r="947" ht="15.75" customHeight="1"/>
+    <row r="948" ht="15.75" customHeight="1"/>
+    <row r="949" ht="15.75" customHeight="1"/>
+    <row r="950" ht="15.75" customHeight="1"/>
+    <row r="951" ht="15.75" customHeight="1"/>
+    <row r="952" ht="15.75" customHeight="1"/>
+    <row r="953" ht="15.75" customHeight="1"/>
+    <row r="954" ht="15.75" customHeight="1"/>
+    <row r="955" ht="15.75" customHeight="1"/>
+    <row r="956" ht="15.75" customHeight="1"/>
+    <row r="957" ht="15.75" customHeight="1"/>
+    <row r="958" ht="15.75" customHeight="1"/>
+    <row r="959" ht="15.75" customHeight="1"/>
+    <row r="960" ht="15.75" customHeight="1"/>
+    <row r="961" ht="15.75" customHeight="1"/>
+    <row r="962" ht="15.75" customHeight="1"/>
+    <row r="963" ht="15.75" customHeight="1"/>
+    <row r="964" ht="15.75" customHeight="1"/>
+    <row r="965" ht="15.75" customHeight="1"/>
+    <row r="966" ht="15.75" customHeight="1"/>
+    <row r="967" ht="15.75" customHeight="1"/>
+    <row r="968" ht="15.75" customHeight="1"/>
+    <row r="969" ht="15.75" customHeight="1"/>
+    <row r="970" ht="15.75" customHeight="1"/>
+    <row r="971" ht="15.75" customHeight="1"/>
+    <row r="972" ht="15.75" customHeight="1"/>
+    <row r="973" ht="15.75" customHeight="1"/>
+    <row r="974" ht="15.75" customHeight="1"/>
+    <row r="975" ht="15.75" customHeight="1"/>
+    <row r="976" ht="15.75" customHeight="1"/>
+    <row r="977" ht="15.75" customHeight="1"/>
+    <row r="978" ht="15.75" customHeight="1"/>
+    <row r="979" ht="15.75" customHeight="1"/>
+    <row r="980" ht="15.75" customHeight="1"/>
+    <row r="981" ht="15.75" customHeight="1"/>
+    <row r="982" ht="15.75" customHeight="1"/>
+    <row r="983" ht="15.75" customHeight="1"/>
+    <row r="984" ht="15.75" customHeight="1"/>
+    <row r="985" ht="15.75" customHeight="1"/>
+    <row r="986" ht="15.75" customHeight="1"/>
+    <row r="987" ht="15.75" customHeight="1"/>
+    <row r="988" ht="15.75" customHeight="1"/>
+    <row r="989" ht="15.75" customHeight="1"/>
+    <row r="990" ht="15.75" customHeight="1"/>
+    <row r="991" ht="15.75" customHeight="1"/>
+    <row r="992" ht="15.75" customHeight="1"/>
+    <row r="993" ht="15.75" customHeight="1"/>
+    <row r="994" ht="15.75" customHeight="1"/>
+    <row r="995" ht="15.75" customHeight="1"/>
+    <row r="996" ht="15.75" customHeight="1"/>
+    <row r="997" ht="15.75" customHeight="1"/>
+    <row r="998" ht="15.75" customHeight="1"/>
+    <row r="999" ht="15.75" customHeight="1"/>
+    <row r="1000" ht="15.75" customHeight="1"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup orientation="landscape"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:H1000"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="20" customWidth="1"/>
+    <col min="2" max="2" width="24" customWidth="1"/>
+    <col min="3" max="3" width="37.08984375" customWidth="1"/>
+    <col min="4" max="4" width="46.90625" customWidth="1"/>
+    <col min="5" max="6" width="12.6328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A1" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A2" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+    </row>
+    <row r="3" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A3" s="27"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+    </row>
+    <row r="4" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A4" s="27"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+    </row>
+    <row r="5" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A5" s="9"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+    </row>
+    <row r="6" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A6" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+    </row>
+    <row r="7" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A7" s="27"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+    </row>
+    <row r="8" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A8" s="27"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A9" s="27"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A10" s="27"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A11" s="27"/>
+      <c r="B11" s="27"/>
+      <c r="C11" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A12" s="27"/>
+      <c r="B12" s="27"/>
+      <c r="C12" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A13" s="27"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A14" s="27"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A15" s="27"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A16" s="27"/>
+      <c r="B16" s="27"/>
+      <c r="C16" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A17" s="27"/>
+      <c r="B17" s="27"/>
+      <c r="C17" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A18" s="27"/>
+      <c r="B18" s="27"/>
+      <c r="C18" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A19" s="27"/>
+      <c r="B19" s="27"/>
+      <c r="C19" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A20" s="27"/>
+      <c r="B20" s="27"/>
+      <c r="C20" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15.75" customHeight="1"/>
+    <row r="22" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A22" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="B22" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A23" s="27"/>
+      <c r="B23" s="27"/>
+      <c r="C23" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A24" s="27"/>
+      <c r="B24" s="27"/>
+      <c r="C24" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A25" s="27"/>
+      <c r="B25" s="27"/>
+      <c r="C25" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D25" s="15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A26" s="27"/>
+      <c r="B26" s="27"/>
+      <c r="C26" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A27" s="27"/>
+      <c r="B27" s="27"/>
+      <c r="C27" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A28" s="27"/>
+      <c r="B28" s="27"/>
+      <c r="C28" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A29" s="27"/>
+      <c r="B29" s="27"/>
+      <c r="C29" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A30" s="27"/>
+      <c r="B30" s="27"/>
+      <c r="C30" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A31" s="27"/>
+      <c r="B31" s="27"/>
+      <c r="C31" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="D31" s="12" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A32" s="27"/>
+      <c r="B32" s="27"/>
+      <c r="C32" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="D32" s="12" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A33" s="27"/>
+      <c r="B33" s="27"/>
+      <c r="C33" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="D33" s="12" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A34" s="27"/>
+      <c r="B34" s="27"/>
+      <c r="C34" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="D34" s="12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A35" s="27"/>
+      <c r="B35" s="27"/>
+      <c r="C35" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="D35" s="12" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A36" s="27"/>
+      <c r="B36" s="27"/>
+      <c r="C36" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="D36" s="12" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="15.75" customHeight="1"/>
+    <row r="38" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A38" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="B38" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D38" s="12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A39" s="27"/>
+      <c r="B39" s="27"/>
+      <c r="C39" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D39" s="12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A40" s="27"/>
+      <c r="B40" s="27"/>
+      <c r="C40" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D40" s="12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A41" s="27"/>
+      <c r="B41" s="27"/>
+      <c r="C41" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D41" s="15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A42" s="27"/>
+      <c r="B42" s="27"/>
+      <c r="C42" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="D42" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A43" s="27"/>
+      <c r="B43" s="27"/>
+      <c r="C43" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="D43" s="12" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A44" s="27"/>
+      <c r="B44" s="27"/>
+      <c r="C44" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="D44" s="12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A45" s="27"/>
+      <c r="B45" s="27"/>
+      <c r="C45" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="D45" s="12" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A46" s="27"/>
+      <c r="B46" s="27"/>
+      <c r="C46" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="D46" s="12" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A47" s="27"/>
+      <c r="B47" s="27"/>
+      <c r="C47" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="D47" s="12" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A48" s="27"/>
+      <c r="B48" s="27"/>
+      <c r="C48" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="D48" s="12" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A49" s="27"/>
+      <c r="B49" s="27"/>
+      <c r="C49" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="D49" s="12" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A50" s="27"/>
+      <c r="B50" s="27"/>
+      <c r="C50" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="D50" s="12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A51" s="27"/>
+      <c r="B51" s="27"/>
+      <c r="C51" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="D51" s="12" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A52" s="27"/>
+      <c r="B52" s="27"/>
+      <c r="C52" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="D52" s="12" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="15.75" customHeight="1"/>
+    <row r="54" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A54" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="B54" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="C54" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="D54" s="12" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A55" s="27"/>
+      <c r="B55" s="27"/>
+      <c r="C55" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D55" s="12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A56" s="27"/>
+      <c r="B56" s="27"/>
+      <c r="C56" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="D56" s="12" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A57" s="27"/>
+      <c r="B57" s="27"/>
+      <c r="C57" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="D57" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="E57" s="16"/>
+      <c r="F57" s="16"/>
+    </row>
+    <row r="58" spans="1:6" ht="15.75" customHeight="1">
+      <c r="C58" s="14"/>
+      <c r="D58" s="12"/>
+    </row>
+    <row r="59" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A59" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="B59" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="C59" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="D59" s="12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A60" s="27"/>
+      <c r="B60" s="27"/>
+      <c r="C60" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D60" s="12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A61" s="27"/>
+      <c r="B61" s="27"/>
+      <c r="C61" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="D61" s="12" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A62" s="27"/>
+      <c r="B62" s="27"/>
+      <c r="C62" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="D62" s="16" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A63" s="27"/>
+      <c r="B63" s="27"/>
+      <c r="C63" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="D63" s="15" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A64" s="27"/>
+      <c r="B64" s="27"/>
+      <c r="C64" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="D64" s="12" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A65" s="27"/>
+      <c r="B65" s="27"/>
+      <c r="C65" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="D65" s="12" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A66" s="27"/>
+      <c r="B66" s="27"/>
+      <c r="C66" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="D66" s="12" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A67" s="27"/>
+      <c r="B67" s="27"/>
+      <c r="C67" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="D67" s="12" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A68" s="27"/>
+      <c r="B68" s="27"/>
+      <c r="C68" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="D68" s="12" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A69" s="27"/>
+      <c r="B69" s="27"/>
+      <c r="C69" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="D69" s="12" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A70" s="27"/>
+      <c r="B70" s="27"/>
+      <c r="C70" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="D70" s="12" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A71" s="27"/>
+      <c r="B71" s="27"/>
+      <c r="C71" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="D71" s="12" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A72" s="27"/>
+      <c r="B72" s="27"/>
+      <c r="C72" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="D72" s="12" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A73" s="27"/>
+      <c r="B73" s="27"/>
+      <c r="C73" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="D73" s="12" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A74" s="27"/>
+      <c r="B74" s="27"/>
+      <c r="C74" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="D74" s="12" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="15.75" customHeight="1"/>
+    <row r="76" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A76" s="26" t="s">
+        <v>116</v>
+      </c>
+      <c r="B76" s="26" t="s">
+        <v>117</v>
+      </c>
+      <c r="C76" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="D76" s="12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A77" s="27"/>
+      <c r="B77" s="27"/>
+      <c r="C77" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D77" s="12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A78" s="27"/>
+      <c r="B78" s="27"/>
+      <c r="C78" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="D78" s="12" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A79" s="27"/>
+      <c r="B79" s="27"/>
+      <c r="C79" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="D79" s="16" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A80" s="27"/>
+      <c r="B80" s="27"/>
+      <c r="C80" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="D80" s="16" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" ht="15.75" customHeight="1"/>
+    <row r="82" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A82" s="26" t="s">
+        <v>123</v>
+      </c>
+      <c r="B82" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="C82" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="D82" s="12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A83" s="27"/>
+      <c r="B83" s="27"/>
+      <c r="C83" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D83" s="12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A84" s="27"/>
+      <c r="B84" s="27"/>
+      <c r="C84" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="D84" s="12" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A85" s="27"/>
+      <c r="B85" s="27"/>
+      <c r="C85" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="D85" s="16" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A86" s="27"/>
+      <c r="B86" s="27"/>
+      <c r="C86" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="D86" s="16" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" ht="15.75" customHeight="1"/>
+    <row r="88" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A88" s="26" t="s">
+        <v>129</v>
+      </c>
+      <c r="B88" s="26" t="s">
+        <v>130</v>
+      </c>
+      <c r="C88" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="D88" s="12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A89" s="27"/>
+      <c r="B89" s="27"/>
+      <c r="C89" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D89" s="12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A90" s="27"/>
+      <c r="B90" s="27"/>
+      <c r="C90" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="D90" s="12" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A91" s="27"/>
+      <c r="B91" s="27"/>
+      <c r="C91" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="D91" s="16" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" ht="15.75" customHeight="1"/>
+    <row r="93" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A93" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="B93" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="C93" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="D93" s="12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A94" s="27"/>
+      <c r="B94" s="27"/>
+      <c r="C94" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D94" s="12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A95" s="27"/>
+      <c r="B95" s="27"/>
+      <c r="C95" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="D95" s="12" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A96" s="27"/>
+      <c r="B96" s="27"/>
+      <c r="C96" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="D96" s="16" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" ht="15.75" customHeight="1"/>
+    <row r="98" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A98" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="B98" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="C98" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="D98" s="12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A99" s="27"/>
+      <c r="B99" s="27"/>
+      <c r="C99" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D99" s="12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A100" s="27"/>
+      <c r="B100" s="27"/>
+      <c r="C100" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="D100" s="12" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A101" s="27"/>
+      <c r="B101" s="27"/>
+      <c r="C101" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="D101" s="15" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" ht="15.75" customHeight="1"/>
+    <row r="103" spans="1:4" ht="15.75" customHeight="1"/>
+    <row r="104" spans="1:4" ht="15.75" customHeight="1"/>
+    <row r="105" spans="1:4" ht="15.75" customHeight="1"/>
+    <row r="106" spans="1:4" ht="15.75" customHeight="1"/>
+    <row r="107" spans="1:4" ht="15.75" customHeight="1"/>
+    <row r="108" spans="1:4" ht="15.75" customHeight="1"/>
+    <row r="109" spans="1:4" ht="15.75" customHeight="1"/>
+    <row r="110" spans="1:4" ht="15.75" customHeight="1"/>
+    <row r="111" spans="1:4" ht="15.75" customHeight="1"/>
+    <row r="112" spans="1:4" ht="15.75" customHeight="1"/>
+    <row r="113" ht="15.75" customHeight="1"/>
+    <row r="114" ht="15.75" customHeight="1"/>
+    <row r="115" ht="15.75" customHeight="1"/>
+    <row r="116" ht="15.75" customHeight="1"/>
+    <row r="117" ht="15.75" customHeight="1"/>
+    <row r="118" ht="15.75" customHeight="1"/>
+    <row r="119" ht="15.75" customHeight="1"/>
+    <row r="120" ht="15.75" customHeight="1"/>
+    <row r="121" ht="15.75" customHeight="1"/>
+    <row r="122" ht="15.75" customHeight="1"/>
+    <row r="123" ht="15.75" customHeight="1"/>
+    <row r="124" ht="15.75" customHeight="1"/>
+    <row r="125" ht="15.75" customHeight="1"/>
+    <row r="126" ht="15.75" customHeight="1"/>
+    <row r="127" ht="15.75" customHeight="1"/>
+    <row r="128" ht="15.75" customHeight="1"/>
+    <row r="129" ht="15.75" customHeight="1"/>
+    <row r="130" ht="15.75" customHeight="1"/>
+    <row r="131" ht="15.75" customHeight="1"/>
+    <row r="132" ht="15.75" customHeight="1"/>
+    <row r="133" ht="15.75" customHeight="1"/>
+    <row r="134" ht="15.75" customHeight="1"/>
+    <row r="135" ht="15.75" customHeight="1"/>
+    <row r="136" ht="15.75" customHeight="1"/>
+    <row r="137" ht="15.75" customHeight="1"/>
+    <row r="138" ht="15.75" customHeight="1"/>
+    <row r="139" ht="15.75" customHeight="1"/>
+    <row r="140" ht="15.75" customHeight="1"/>
+    <row r="141" ht="15.75" customHeight="1"/>
+    <row r="142" ht="15.75" customHeight="1"/>
+    <row r="143" ht="15.75" customHeight="1"/>
+    <row r="144" ht="15.75" customHeight="1"/>
+    <row r="145" ht="15.75" customHeight="1"/>
+    <row r="146" ht="15.75" customHeight="1"/>
+    <row r="147" ht="15.75" customHeight="1"/>
+    <row r="148" ht="15.75" customHeight="1"/>
+    <row r="149" ht="15.75" customHeight="1"/>
+    <row r="150" ht="15.75" customHeight="1"/>
+    <row r="151" ht="15.75" customHeight="1"/>
+    <row r="152" ht="15.75" customHeight="1"/>
+    <row r="153" ht="15.75" customHeight="1"/>
+    <row r="154" ht="15.75" customHeight="1"/>
+    <row r="155" ht="15.75" customHeight="1"/>
+    <row r="156" ht="15.75" customHeight="1"/>
+    <row r="157" ht="15.75" customHeight="1"/>
+    <row r="158" ht="15.75" customHeight="1"/>
+    <row r="159" ht="15.75" customHeight="1"/>
+    <row r="160" ht="15.75" customHeight="1"/>
+    <row r="161" ht="15.75" customHeight="1"/>
+    <row r="162" ht="15.75" customHeight="1"/>
+    <row r="163" ht="15.75" customHeight="1"/>
+    <row r="164" ht="15.75" customHeight="1"/>
+    <row r="165" ht="15.75" customHeight="1"/>
+    <row r="166" ht="15.75" customHeight="1"/>
+    <row r="167" ht="15.75" customHeight="1"/>
+    <row r="168" ht="15.75" customHeight="1"/>
+    <row r="169" ht="15.75" customHeight="1"/>
+    <row r="170" ht="15.75" customHeight="1"/>
+    <row r="171" ht="15.75" customHeight="1"/>
+    <row r="172" ht="15.75" customHeight="1"/>
+    <row r="173" ht="15.75" customHeight="1"/>
+    <row r="174" ht="15.75" customHeight="1"/>
+    <row r="175" ht="15.75" customHeight="1"/>
+    <row r="176" ht="15.75" customHeight="1"/>
+    <row r="177" ht="15.75" customHeight="1"/>
+    <row r="178" ht="15.75" customHeight="1"/>
+    <row r="179" ht="15.75" customHeight="1"/>
+    <row r="180" ht="15.75" customHeight="1"/>
+    <row r="181" ht="15.75" customHeight="1"/>
+    <row r="182" ht="15.75" customHeight="1"/>
+    <row r="183" ht="15.75" customHeight="1"/>
+    <row r="184" ht="15.75" customHeight="1"/>
+    <row r="185" ht="15.75" customHeight="1"/>
+    <row r="186" ht="15.75" customHeight="1"/>
+    <row r="187" ht="15.75" customHeight="1"/>
+    <row r="188" ht="15.75" customHeight="1"/>
+    <row r="189" ht="15.75" customHeight="1"/>
+    <row r="190" ht="15.75" customHeight="1"/>
+    <row r="191" ht="15.75" customHeight="1"/>
+    <row r="192" ht="15.75" customHeight="1"/>
+    <row r="193" ht="15.75" customHeight="1"/>
+    <row r="194" ht="15.75" customHeight="1"/>
+    <row r="195" ht="15.75" customHeight="1"/>
+    <row r="196" ht="15.75" customHeight="1"/>
+    <row r="197" ht="15.75" customHeight="1"/>
+    <row r="198" ht="15.75" customHeight="1"/>
+    <row r="199" ht="15.75" customHeight="1"/>
+    <row r="200" ht="15.75" customHeight="1"/>
+    <row r="201" ht="15.75" customHeight="1"/>
+    <row r="202" ht="15.75" customHeight="1"/>
+    <row r="203" ht="15.75" customHeight="1"/>
+    <row r="204" ht="15.75" customHeight="1"/>
+    <row r="205" ht="15.75" customHeight="1"/>
+    <row r="206" ht="15.75" customHeight="1"/>
+    <row r="207" ht="15.75" customHeight="1"/>
+    <row r="208" ht="15.75" customHeight="1"/>
+    <row r="209" ht="15.75" customHeight="1"/>
+    <row r="210" ht="15.75" customHeight="1"/>
+    <row r="211" ht="15.75" customHeight="1"/>
+    <row r="212" ht="15.75" customHeight="1"/>
+    <row r="213" ht="15.75" customHeight="1"/>
+    <row r="214" ht="15.75" customHeight="1"/>
+    <row r="215" ht="15.75" customHeight="1"/>
+    <row r="216" ht="15.75" customHeight="1"/>
+    <row r="217" ht="15.75" customHeight="1"/>
+    <row r="218" ht="15.75" customHeight="1"/>
+    <row r="219" ht="15.75" customHeight="1"/>
+    <row r="220" ht="15.75" customHeight="1"/>
     <row r="221" ht="15.75" customHeight="1"/>
     <row r="222" ht="15.75" customHeight="1"/>
     <row r="223" ht="15.75" customHeight="1"/>
@@ -7901,883 +9876,548 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <mergeCells count="22">
+    <mergeCell ref="B38:B52"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="A6:A20"/>
+    <mergeCell ref="B6:B20"/>
+    <mergeCell ref="A22:A36"/>
+    <mergeCell ref="B22:B36"/>
+    <mergeCell ref="A88:A91"/>
+    <mergeCell ref="A93:A96"/>
+    <mergeCell ref="A98:A101"/>
+    <mergeCell ref="B54:B57"/>
+    <mergeCell ref="B59:B74"/>
+    <mergeCell ref="B76:B80"/>
+    <mergeCell ref="B82:B86"/>
+    <mergeCell ref="B88:B91"/>
+    <mergeCell ref="B93:B96"/>
+    <mergeCell ref="B98:B101"/>
+    <mergeCell ref="A38:A52"/>
+    <mergeCell ref="A54:A57"/>
+    <mergeCell ref="A59:A74"/>
+    <mergeCell ref="A76:A80"/>
+    <mergeCell ref="A82:A86"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="C6" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="C22" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="C38" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="C54" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
+    <hyperlink ref="C59" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
+    <hyperlink ref="C76" r:id="rId7" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
+    <hyperlink ref="C82" r:id="rId8" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
+    <hyperlink ref="C88" r:id="rId9" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
+    <hyperlink ref="C93" r:id="rId10" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
+    <hyperlink ref="C98" r:id="rId11" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup orientation="landscape"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:W1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="20.0"/>
-    <col customWidth="1" min="2" max="2" width="24.0"/>
-    <col customWidth="1" min="3" max="3" width="37.13"/>
-    <col customWidth="1" min="4" max="4" width="46.88"/>
-    <col customWidth="1" min="5" max="6" width="12.63"/>
+    <col min="1" max="2" width="12.6328125" customWidth="1"/>
+    <col min="3" max="3" width="38.26953125" customWidth="1"/>
+    <col min="4" max="4" width="17.36328125" customWidth="1"/>
+    <col min="5" max="6" width="15.90625" customWidth="1"/>
+    <col min="7" max="10" width="17.90625" customWidth="1"/>
+    <col min="11" max="22" width="20.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:23" ht="15" customHeight="1">
+      <c r="A1" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="11" t="s">
+      <c r="B1" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="O1" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="P1" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q1" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="R1" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="S1" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="T1" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="U1" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="V1" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="W1" s="7" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" ht="15.5">
+      <c r="A2" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-    </row>
-    <row r="3" ht="15.75" customHeight="1">
-      <c r="C3" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-    </row>
-    <row r="4" ht="15.75" customHeight="1">
-      <c r="C4" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-    </row>
-    <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="11"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-    </row>
-    <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="11" t="s">
+      <c r="B2" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>166</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>167</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>168</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="I2" s="18" t="s">
+        <v>170</v>
+      </c>
+      <c r="J2" s="19" t="s">
+        <v>171</v>
+      </c>
+      <c r="K2" s="20"/>
+      <c r="L2" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="M2" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="N2" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="O2" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="P2" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q2" s="15"/>
+      <c r="R2" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="S2" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="T2" s="21"/>
+      <c r="U2" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="V2" s="15" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" ht="15.5">
+      <c r="A3" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B3" s="17" t="s">
+        <v>175</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>176</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>178</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>179</v>
+      </c>
+      <c r="G3" s="17" t="s">
+        <v>180</v>
+      </c>
+      <c r="H3" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="I3" s="18" t="s">
+        <v>182</v>
+      </c>
+      <c r="J3" s="20"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="M3" s="15"/>
+      <c r="N3" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="O3" s="15"/>
+      <c r="P3" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q3" s="15"/>
+      <c r="R3" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="T3" s="21">
+        <v>9</v>
+      </c>
+      <c r="U3" s="15" t="s">
+        <v>184</v>
+      </c>
+      <c r="V3" s="15" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" ht="15.5">
+      <c r="A4" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" s="20"/>
+      <c r="C4" s="17" t="s">
+        <v>185</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>186</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="G4" s="17" t="s">
+        <v>180</v>
+      </c>
+      <c r="H4" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="I4" s="18" t="s">
+        <v>189</v>
+      </c>
+      <c r="J4" s="18" t="s">
+        <v>190</v>
+      </c>
+      <c r="K4" s="20"/>
+      <c r="R4" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="S4" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="U4" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="V4" s="15" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" ht="15.5">
+      <c r="A5" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>194</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>195</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>196</v>
+      </c>
+      <c r="F5" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="G5" s="17" t="s">
+        <v>168</v>
+      </c>
+      <c r="H5" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="I5" s="18" t="s">
+        <v>198</v>
+      </c>
+      <c r="J5" s="18" t="s">
+        <v>199</v>
+      </c>
+      <c r="K5" s="17" t="s">
+        <v>200</v>
+      </c>
+      <c r="L5" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="M5" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="N5" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="O5" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="P5" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q5" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="R5" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="T5" s="21">
         <v>7</v>
       </c>
-      <c r="C6" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-    </row>
-    <row r="7" ht="15.75" customHeight="1">
-      <c r="C7" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-    </row>
-    <row r="8" ht="15.75" customHeight="1">
-      <c r="C8" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" ht="15.75" customHeight="1">
-      <c r="C9" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="D9" s="17" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="10" ht="15.75" customHeight="1">
-      <c r="C10" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="D10" s="18" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" ht="15.75" customHeight="1">
-      <c r="C11" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="D11" s="18" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="12" ht="15.75" customHeight="1">
-      <c r="C12" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="D12" s="18" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="13" ht="15.75" customHeight="1">
-      <c r="C13" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="D13" s="18" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="14" ht="15.75" customHeight="1">
-      <c r="C14" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="D14" s="18" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="15" ht="15.75" customHeight="1">
-      <c r="C15" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="D15" s="18" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="16" ht="15.75" customHeight="1">
-      <c r="C16" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="D16" s="14" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="17" ht="15.75" customHeight="1">
-      <c r="C17" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="D17" s="14" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="18" ht="15.75" customHeight="1">
-      <c r="C18" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="D18" s="14" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="19" ht="15.75" customHeight="1">
-      <c r="C19" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="D19" s="14" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="20" ht="15.75" customHeight="1">
-      <c r="C20" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="D20" s="14" t="s">
-        <v>60</v>
-      </c>
+      <c r="U5" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="V5" s="15" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" ht="15.5">
+      <c r="A6" s="17" t="s">
+        <v>201</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>202</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>216</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>203</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>204</v>
+      </c>
+      <c r="F6" s="17" t="s">
+        <v>205</v>
+      </c>
+      <c r="G6" s="17" t="s">
+        <v>168</v>
+      </c>
+      <c r="H6" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="I6" s="18" t="s">
+        <v>206</v>
+      </c>
+      <c r="J6" s="20"/>
+      <c r="K6" s="20"/>
+      <c r="M6" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="O6" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q6" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="R6" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="T6" s="21">
+        <v>9</v>
+      </c>
+      <c r="U6" s="15" t="s">
+        <v>184</v>
+      </c>
+      <c r="V6" s="15" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" ht="15.5">
+      <c r="A7" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>208</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>217</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>210</v>
+      </c>
+      <c r="F7" s="17" t="s">
+        <v>211</v>
+      </c>
+      <c r="G7" s="17" t="s">
+        <v>180</v>
+      </c>
+      <c r="H7" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="J7" s="20"/>
+      <c r="K7" s="20"/>
+      <c r="L7" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="N7" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="P7" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="R7" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="T7" s="21"/>
+      <c r="U7" s="15" t="s">
+        <v>184</v>
+      </c>
+      <c r="V7" s="15" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" ht="15" customHeight="1">
+      <c r="T8" s="21"/>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
-    <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="B22" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C22" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="D22" s="14" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="23" ht="15.75" customHeight="1">
-      <c r="C23" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="D23" s="14" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="24" ht="15.75" customHeight="1">
-      <c r="C24" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="D24" s="14" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="25" ht="15.75" customHeight="1">
-      <c r="C25" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="D25" s="17" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="26" ht="15.75" customHeight="1">
-      <c r="C26" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="D26" s="18" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="27" ht="15.75" customHeight="1">
-      <c r="C27" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="D27" s="18" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="28" ht="15.75" customHeight="1">
-      <c r="C28" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="D28" s="18" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="29" ht="15.75" customHeight="1">
-      <c r="C29" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="D29" s="18" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="30" ht="15.75" customHeight="1">
-      <c r="C30" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="D30" s="18" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="31" ht="15.75" customHeight="1">
-      <c r="C31" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="D31" s="18" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="32" ht="15.75" customHeight="1">
-      <c r="C32" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="D32" s="14" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="33" ht="15.75" customHeight="1">
-      <c r="C33" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="D33" s="14" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="34" ht="15.75" customHeight="1">
-      <c r="C34" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="D34" s="14" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="35" ht="15.75" customHeight="1">
-      <c r="C35" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="D35" s="14" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="36" ht="15.75" customHeight="1">
-      <c r="C36" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="D36" s="14" t="s">
-        <v>60</v>
-      </c>
-    </row>
+    <row r="22" ht="15.75" customHeight="1"/>
+    <row r="23" ht="15.75" customHeight="1"/>
+    <row r="24" ht="15.75" customHeight="1"/>
+    <row r="25" ht="15.75" customHeight="1"/>
+    <row r="26" ht="15.75" customHeight="1"/>
+    <row r="27" ht="15.75" customHeight="1"/>
+    <row r="28" ht="15.75" customHeight="1"/>
+    <row r="29" ht="15.75" customHeight="1"/>
+    <row r="30" ht="15.75" customHeight="1"/>
+    <row r="31" ht="15.75" customHeight="1"/>
+    <row r="32" ht="15.75" customHeight="1"/>
+    <row r="33" ht="15.75" customHeight="1"/>
+    <row r="34" ht="15.75" customHeight="1"/>
+    <row r="35" ht="15.75" customHeight="1"/>
+    <row r="36" ht="15.75" customHeight="1"/>
     <row r="37" ht="15.75" customHeight="1"/>
-    <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="B38" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C38" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="D38" s="14" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="39" ht="15.75" customHeight="1">
-      <c r="C39" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="D39" s="14" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="40" ht="15.75" customHeight="1">
-      <c r="C40" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="D40" s="14" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="41" ht="15.75" customHeight="1">
-      <c r="C41" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="D41" s="17" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="42" ht="15.75" customHeight="1">
-      <c r="C42" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="D42" s="18" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="43" ht="15.75" customHeight="1">
-      <c r="C43" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="D43" s="18" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="44" ht="15.75" customHeight="1">
-      <c r="C44" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="D44" s="18" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="45" ht="15.75" customHeight="1">
-      <c r="C45" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="D45" s="18" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="46" ht="15.75" customHeight="1">
-      <c r="C46" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="D46" s="18" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="47" ht="15.75" customHeight="1">
-      <c r="C47" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="D47" s="18" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="48" ht="15.75" customHeight="1">
-      <c r="C48" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="D48" s="14" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="49" ht="15.75" customHeight="1">
-      <c r="C49" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="D49" s="14" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="50" ht="15.75" customHeight="1">
-      <c r="C50" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="D50" s="14" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="51" ht="15.75" customHeight="1">
-      <c r="C51" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="D51" s="14" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="52" ht="15.75" customHeight="1">
-      <c r="C52" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="D52" s="18" t="s">
-        <v>80</v>
-      </c>
-    </row>
+    <row r="38" ht="15.75" customHeight="1"/>
+    <row r="39" ht="15.75" customHeight="1"/>
+    <row r="40" ht="15.75" customHeight="1"/>
+    <row r="41" ht="15.75" customHeight="1"/>
+    <row r="42" ht="15.75" customHeight="1"/>
+    <row r="43" ht="15.75" customHeight="1"/>
+    <row r="44" ht="15.75" customHeight="1"/>
+    <row r="45" ht="15.75" customHeight="1"/>
+    <row r="46" ht="15.75" customHeight="1"/>
+    <row r="47" ht="15.75" customHeight="1"/>
+    <row r="48" ht="15.75" customHeight="1"/>
+    <row r="49" ht="15.75" customHeight="1"/>
+    <row r="50" ht="15.75" customHeight="1"/>
+    <row r="51" ht="15.75" customHeight="1"/>
+    <row r="52" ht="15.75" customHeight="1"/>
     <row r="53" ht="15.75" customHeight="1"/>
-    <row r="54" ht="15.75" customHeight="1">
-      <c r="A54" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="B54" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C54" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="D54" s="14" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="55" ht="15.75" customHeight="1">
-      <c r="C55" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="D55" s="14" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="56" ht="15.75" customHeight="1">
-      <c r="C56" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="D56" s="14" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="57" ht="15.75" customHeight="1">
-      <c r="C57" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="D57" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="E57" s="19"/>
-      <c r="F57" s="19"/>
-    </row>
-    <row r="58" ht="15.75" customHeight="1">
-      <c r="C58" s="16"/>
-      <c r="D58" s="14"/>
-    </row>
-    <row r="59" ht="15.75" customHeight="1">
-      <c r="A59" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="B59" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C59" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="D59" s="14" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="60" ht="15.75" customHeight="1">
-      <c r="C60" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="D60" s="14" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="61" ht="15.75" customHeight="1">
-      <c r="C61" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="D61" s="14" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="62" ht="15.75" customHeight="1">
-      <c r="C62" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="D62" s="19" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="63" ht="15.75" customHeight="1">
-      <c r="C63" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="D63" s="17" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="64" ht="15.75" customHeight="1">
-      <c r="C64" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="D64" s="18" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="65" ht="15.75" customHeight="1">
-      <c r="C65" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="D65" s="18" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="66" ht="15.75" customHeight="1">
-      <c r="C66" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="D66" s="18" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="67" ht="15.75" customHeight="1">
-      <c r="C67" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="D67" s="18" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="68" ht="15.75" customHeight="1">
-      <c r="C68" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="D68" s="18" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="69" ht="15.75" customHeight="1">
-      <c r="C69" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="D69" s="18" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="70" ht="15.75" customHeight="1">
-      <c r="C70" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="D70" s="14" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="71" ht="15.75" customHeight="1">
-      <c r="C71" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="D71" s="14" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="72" ht="15.75" customHeight="1">
-      <c r="C72" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="D72" s="14" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="73" ht="15.75" customHeight="1">
-      <c r="C73" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="D73" s="14" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="74" ht="15.75" customHeight="1">
-      <c r="C74" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="D74" s="14" t="s">
-        <v>115</v>
-      </c>
-    </row>
+    <row r="54" ht="15.75" customHeight="1"/>
+    <row r="55" ht="15.75" customHeight="1"/>
+    <row r="56" ht="15.75" customHeight="1"/>
+    <row r="57" ht="15.75" customHeight="1"/>
+    <row r="58" ht="15.75" customHeight="1"/>
+    <row r="59" ht="15.75" customHeight="1"/>
+    <row r="60" ht="15.75" customHeight="1"/>
+    <row r="61" ht="15.75" customHeight="1"/>
+    <row r="62" ht="15.75" customHeight="1"/>
+    <row r="63" ht="15.75" customHeight="1"/>
+    <row r="64" ht="15.75" customHeight="1"/>
+    <row r="65" ht="15.75" customHeight="1"/>
+    <row r="66" ht="15.75" customHeight="1"/>
+    <row r="67" ht="15.75" customHeight="1"/>
+    <row r="68" ht="15.75" customHeight="1"/>
+    <row r="69" ht="15.75" customHeight="1"/>
+    <row r="70" ht="15.75" customHeight="1"/>
+    <row r="71" ht="15.75" customHeight="1"/>
+    <row r="72" ht="15.75" customHeight="1"/>
+    <row r="73" ht="15.75" customHeight="1"/>
+    <row r="74" ht="15.75" customHeight="1"/>
     <row r="75" ht="15.75" customHeight="1"/>
-    <row r="76" ht="15.75" customHeight="1">
-      <c r="A76" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="B76" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="C76" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="D76" s="14" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="77" ht="15.75" customHeight="1">
-      <c r="C77" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="D77" s="14" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="78" ht="15.75" customHeight="1">
-      <c r="C78" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="D78" s="14" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="79" ht="15.75" customHeight="1">
-      <c r="C79" s="15" t="s">
-        <v>119</v>
-      </c>
-      <c r="D79" s="19" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="80" ht="15.75" customHeight="1">
-      <c r="C80" s="15" t="s">
-        <v>121</v>
-      </c>
-      <c r="D80" s="19" t="s">
-        <v>122</v>
-      </c>
-    </row>
+    <row r="76" ht="15.75" customHeight="1"/>
+    <row r="77" ht="15.75" customHeight="1"/>
+    <row r="78" ht="15.75" customHeight="1"/>
+    <row r="79" ht="15.75" customHeight="1"/>
+    <row r="80" ht="15.75" customHeight="1"/>
     <row r="81" ht="15.75" customHeight="1"/>
-    <row r="82" ht="15.75" customHeight="1">
-      <c r="A82" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="B82" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C82" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="D82" s="14" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="83" ht="15.75" customHeight="1">
-      <c r="C83" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="D83" s="14" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="84" ht="15.75" customHeight="1">
-      <c r="C84" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="D84" s="14" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="85" ht="15.75" customHeight="1">
-      <c r="C85" s="15" t="s">
-        <v>125</v>
-      </c>
-      <c r="D85" s="19" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="86" ht="15.75" customHeight="1">
-      <c r="C86" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="D86" s="19" t="s">
-        <v>128</v>
-      </c>
-    </row>
+    <row r="82" ht="15.75" customHeight="1"/>
+    <row r="83" ht="15.75" customHeight="1"/>
+    <row r="84" ht="15.75" customHeight="1"/>
+    <row r="85" ht="15.75" customHeight="1"/>
+    <row r="86" ht="15.75" customHeight="1"/>
     <row r="87" ht="15.75" customHeight="1"/>
-    <row r="88" ht="15.75" customHeight="1">
-      <c r="A88" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="B88" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="C88" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="D88" s="14" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="89" ht="15.75" customHeight="1">
-      <c r="C89" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="D89" s="14" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="90" ht="15.75" customHeight="1">
-      <c r="C90" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="D90" s="14" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="91" ht="15.75" customHeight="1">
-      <c r="C91" s="15" t="s">
-        <v>132</v>
-      </c>
-      <c r="D91" s="19" t="s">
-        <v>133</v>
-      </c>
-    </row>
+    <row r="88" ht="15.75" customHeight="1"/>
+    <row r="89" ht="15.75" customHeight="1"/>
+    <row r="90" ht="15.75" customHeight="1"/>
+    <row r="91" ht="15.75" customHeight="1"/>
     <row r="92" ht="15.75" customHeight="1"/>
-    <row r="93" ht="15.75" customHeight="1">
-      <c r="A93" s="12" t="s">
-        <v>134</v>
-      </c>
-      <c r="B93" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C93" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="D93" s="14" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="94" ht="15.75" customHeight="1">
-      <c r="C94" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="D94" s="14" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="95" ht="15.75" customHeight="1">
-      <c r="C95" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="D95" s="14" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="96" ht="15.75" customHeight="1">
-      <c r="C96" s="15" t="s">
-        <v>132</v>
-      </c>
-      <c r="D96" s="19" t="s">
-        <v>136</v>
-      </c>
-    </row>
+    <row r="93" ht="15.75" customHeight="1"/>
+    <row r="94" ht="15.75" customHeight="1"/>
+    <row r="95" ht="15.75" customHeight="1"/>
+    <row r="96" ht="15.75" customHeight="1"/>
     <row r="97" ht="15.75" customHeight="1"/>
-    <row r="98" ht="15.75" customHeight="1">
-      <c r="A98" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="B98" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C98" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="D98" s="14" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="99" ht="15.75" customHeight="1">
-      <c r="C99" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="D99" s="14" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="100" ht="15.75" customHeight="1">
-      <c r="C100" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="D100" s="14" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="101" ht="15.75" customHeight="1">
-      <c r="C101" s="16" t="s">
-        <v>139</v>
-      </c>
-      <c r="D101" s="17" t="s">
-        <v>140</v>
-      </c>
-    </row>
+    <row r="98" ht="15.75" customHeight="1"/>
+    <row r="99" ht="15.75" customHeight="1"/>
+    <row r="100" ht="15.75" customHeight="1"/>
+    <row r="101" ht="15.75" customHeight="1"/>
     <row r="102" ht="15.75" customHeight="1"/>
     <row r="103" ht="15.75" customHeight="1"/>
     <row r="104" ht="15.75" customHeight="1"/>
@@ -9678,593 +11318,1080 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <mergeCells count="22">
-    <mergeCell ref="A38:A52"/>
-    <mergeCell ref="A54:A57"/>
-    <mergeCell ref="A59:A74"/>
-    <mergeCell ref="A76:A80"/>
-    <mergeCell ref="A82:A86"/>
-    <mergeCell ref="A88:A91"/>
-    <mergeCell ref="A93:A96"/>
-    <mergeCell ref="A98:A101"/>
-    <mergeCell ref="B54:B57"/>
-    <mergeCell ref="B59:B74"/>
-    <mergeCell ref="B76:B80"/>
-    <mergeCell ref="B82:B86"/>
-    <mergeCell ref="B88:B91"/>
-    <mergeCell ref="B93:B96"/>
-    <mergeCell ref="B98:B101"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="A6:A20"/>
-    <mergeCell ref="B6:B20"/>
-    <mergeCell ref="A22:A36"/>
-    <mergeCell ref="B22:B36"/>
-    <mergeCell ref="B38:B52"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink r:id="rId1" ref="C2"/>
-    <hyperlink r:id="rId2" ref="C6"/>
-    <hyperlink r:id="rId3" ref="C22"/>
-    <hyperlink r:id="rId4" ref="C38"/>
-    <hyperlink r:id="rId5" ref="C54"/>
-    <hyperlink r:id="rId6" ref="C59"/>
-    <hyperlink r:id="rId7" ref="C76"/>
-    <hyperlink r:id="rId8" ref="C82"/>
-    <hyperlink r:id="rId9" ref="C88"/>
-    <hyperlink r:id="rId10" ref="C93"/>
-    <hyperlink r:id="rId11" ref="C98"/>
-  </hyperlinks>
-  <drawing r:id="rId12"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
-  <cols>
-    <col customWidth="1" min="3" max="3" width="38.25"/>
-    <col customWidth="1" min="4" max="4" width="17.38"/>
-    <col customWidth="1" min="5" max="6" width="15.88"/>
-    <col customWidth="1" min="7" max="10" width="17.88"/>
-    <col customWidth="1" min="11" max="22" width="20.25"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="20" t="s">
-        <v>141</v>
-      </c>
-      <c r="C1" s="20" t="s">
-        <v>142</v>
-      </c>
-      <c r="D1" s="20" t="s">
-        <v>143</v>
-      </c>
-      <c r="E1" s="20" t="s">
-        <v>144</v>
-      </c>
-      <c r="F1" s="20" t="s">
-        <v>145</v>
-      </c>
-      <c r="G1" s="20" t="s">
-        <v>146</v>
-      </c>
-      <c r="H1" s="20" t="s">
-        <v>147</v>
-      </c>
-      <c r="I1" s="20" t="s">
-        <v>148</v>
-      </c>
-      <c r="J1" s="20" t="s">
-        <v>149</v>
-      </c>
-      <c r="K1" s="20" t="s">
-        <v>150</v>
-      </c>
-      <c r="L1" s="20" t="s">
-        <v>151</v>
-      </c>
-      <c r="M1" s="20" t="s">
-        <v>152</v>
-      </c>
-      <c r="N1" s="20" t="s">
-        <v>153</v>
-      </c>
-      <c r="O1" s="20" t="s">
-        <v>154</v>
-      </c>
-      <c r="P1" s="20" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q1" s="20" t="s">
-        <v>156</v>
-      </c>
-      <c r="R1" s="20" t="s">
-        <v>157</v>
-      </c>
-      <c r="S1" s="20" t="s">
-        <v>158</v>
-      </c>
-      <c r="T1" s="20" t="s">
-        <v>159</v>
-      </c>
-      <c r="U1" s="20" t="s">
-        <v>160</v>
-      </c>
-      <c r="V1" s="20" t="s">
-        <v>161</v>
-      </c>
-      <c r="W1" s="20" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="B2" s="21" t="s">
-        <v>163</v>
-      </c>
-      <c r="C2" s="21" t="s">
-        <v>164</v>
-      </c>
-      <c r="D2" s="21" t="s">
-        <v>165</v>
-      </c>
-      <c r="E2" s="21" t="s">
-        <v>166</v>
-      </c>
-      <c r="F2" s="21" t="s">
-        <v>167</v>
-      </c>
-      <c r="G2" s="22" t="s">
-        <v>168</v>
-      </c>
-      <c r="H2" s="23" t="s">
-        <v>169</v>
-      </c>
-      <c r="I2" s="24">
-        <v>45087.0</v>
-      </c>
-      <c r="J2" s="24">
-        <v>45179.0</v>
-      </c>
-      <c r="L2" s="21" t="s">
-        <v>170</v>
-      </c>
-      <c r="M2" s="21" t="s">
-        <v>170</v>
-      </c>
-      <c r="N2" s="21" t="s">
-        <v>170</v>
-      </c>
-      <c r="O2" s="21" t="s">
-        <v>170</v>
-      </c>
-      <c r="P2" s="21" t="s">
-        <v>170</v>
-      </c>
-      <c r="Q2" s="21"/>
-      <c r="R2" s="21" t="s">
-        <v>158</v>
-      </c>
-      <c r="S2" s="21" t="s">
-        <v>171</v>
-      </c>
-      <c r="T2" s="25"/>
-      <c r="U2" s="21" t="s">
-        <v>160</v>
-      </c>
-      <c r="V2" s="21" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="B3" s="21" t="s">
-        <v>173</v>
-      </c>
-      <c r="C3" s="21" t="s">
-        <v>174</v>
-      </c>
-      <c r="D3" s="21" t="s">
-        <v>175</v>
-      </c>
-      <c r="E3" s="21" t="s">
-        <v>176</v>
-      </c>
-      <c r="F3" s="21" t="s">
-        <v>177</v>
-      </c>
-      <c r="G3" s="22" t="s">
-        <v>178</v>
-      </c>
-      <c r="H3" s="26" t="s">
-        <v>179</v>
-      </c>
-      <c r="I3" s="24">
-        <v>45117.0</v>
-      </c>
-      <c r="K3" s="21"/>
-      <c r="L3" s="21" t="s">
-        <v>180</v>
-      </c>
-      <c r="M3" s="21"/>
-      <c r="N3" s="21" t="s">
-        <v>180</v>
-      </c>
-      <c r="O3" s="21"/>
-      <c r="P3" s="21" t="s">
-        <v>180</v>
-      </c>
-      <c r="Q3" s="21"/>
-      <c r="R3" s="21" t="s">
-        <v>159</v>
-      </c>
-      <c r="T3" s="25">
-        <v>9.0</v>
-      </c>
-      <c r="U3" s="21" t="s">
-        <v>181</v>
-      </c>
-      <c r="V3" s="21" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="C4" s="21" t="s">
-        <v>182</v>
-      </c>
-      <c r="D4" s="21" t="s">
-        <v>183</v>
-      </c>
-      <c r="E4" s="21" t="s">
-        <v>184</v>
-      </c>
-      <c r="F4" s="21" t="s">
-        <v>185</v>
-      </c>
-      <c r="G4" s="22" t="s">
-        <v>178</v>
-      </c>
-      <c r="H4" s="23" t="s">
-        <v>169</v>
-      </c>
-      <c r="I4" s="24">
-        <v>45179.0</v>
-      </c>
-      <c r="J4" s="24">
-        <v>45545.0</v>
-      </c>
-      <c r="R4" s="21" t="s">
-        <v>158</v>
-      </c>
-      <c r="S4" s="21" t="s">
-        <v>186</v>
-      </c>
-      <c r="U4" s="21" t="s">
-        <v>160</v>
-      </c>
-      <c r="V4" s="21" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="B5" s="21" t="s">
-        <v>188</v>
-      </c>
-      <c r="C5" s="21" t="s">
-        <v>189</v>
-      </c>
-      <c r="D5" s="21" t="s">
-        <v>190</v>
-      </c>
-      <c r="E5" s="21" t="s">
-        <v>191</v>
-      </c>
-      <c r="F5" s="21" t="s">
-        <v>192</v>
-      </c>
-      <c r="G5" s="22" t="s">
-        <v>168</v>
-      </c>
-      <c r="H5" s="26" t="s">
-        <v>179</v>
-      </c>
-      <c r="I5" s="24">
-        <v>45087.0</v>
-      </c>
-      <c r="J5" s="24">
-        <v>45545.0</v>
-      </c>
-      <c r="K5" s="21" t="s">
-        <v>193</v>
-      </c>
-      <c r="L5" s="21" t="s">
-        <v>193</v>
-      </c>
-      <c r="M5" s="21" t="s">
-        <v>193</v>
-      </c>
-      <c r="N5" s="21" t="s">
-        <v>193</v>
-      </c>
-      <c r="O5" s="21" t="s">
-        <v>193</v>
-      </c>
-      <c r="P5" s="21" t="s">
-        <v>193</v>
-      </c>
-      <c r="Q5" s="21" t="s">
-        <v>193</v>
-      </c>
-      <c r="R5" s="21" t="s">
-        <v>159</v>
-      </c>
-      <c r="T5" s="25">
-        <v>7.0</v>
-      </c>
-      <c r="U5" s="21" t="s">
-        <v>160</v>
-      </c>
-      <c r="V5" s="21" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="B6" s="21" t="s">
-        <v>195</v>
-      </c>
-      <c r="C6" s="21" t="s">
-        <v>196</v>
-      </c>
-      <c r="D6" s="21" t="s">
-        <v>197</v>
-      </c>
-      <c r="E6" s="21" t="s">
-        <v>198</v>
-      </c>
-      <c r="F6" s="21" t="s">
-        <v>199</v>
-      </c>
-      <c r="G6" s="22" t="s">
-        <v>168</v>
-      </c>
-      <c r="H6" s="23" t="s">
-        <v>169</v>
-      </c>
-      <c r="I6" s="24">
-        <v>45179.0</v>
-      </c>
-      <c r="M6" s="21" t="s">
-        <v>170</v>
-      </c>
-      <c r="O6" s="21" t="s">
-        <v>170</v>
-      </c>
-      <c r="Q6" s="21" t="s">
-        <v>170</v>
-      </c>
-      <c r="R6" s="21" t="s">
-        <v>159</v>
-      </c>
-      <c r="T6" s="25">
-        <v>9.0</v>
-      </c>
-      <c r="U6" s="21" t="s">
-        <v>181</v>
-      </c>
-      <c r="V6" s="21" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="21" t="s">
-        <v>200</v>
-      </c>
-      <c r="B7" s="21" t="s">
-        <v>201</v>
-      </c>
-      <c r="C7" s="21" t="s">
-        <v>202</v>
-      </c>
-      <c r="D7" s="21" t="s">
-        <v>203</v>
-      </c>
-      <c r="E7" s="21" t="s">
-        <v>204</v>
-      </c>
-      <c r="F7" s="21" t="s">
-        <v>205</v>
-      </c>
-      <c r="G7" s="22" t="s">
-        <v>178</v>
-      </c>
-      <c r="H7" s="26" t="s">
-        <v>179</v>
-      </c>
-      <c r="I7" s="24">
-        <v>45270.0</v>
-      </c>
-      <c r="L7" s="21" t="s">
-        <v>180</v>
-      </c>
-      <c r="N7" s="21" t="s">
-        <v>180</v>
-      </c>
-      <c r="P7" s="21" t="s">
-        <v>180</v>
-      </c>
-      <c r="R7" s="21" t="s">
-        <v>158</v>
-      </c>
-      <c r="T7" s="25"/>
-      <c r="U7" s="21" t="s">
-        <v>181</v>
-      </c>
-      <c r="V7" s="21" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="T8" s="25"/>
-    </row>
-  </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:U1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="3" max="3" width="28.63"/>
-    <col customWidth="1" min="7" max="7" width="21.13"/>
+    <col min="1" max="2" width="12.6328125" customWidth="1"/>
+    <col min="3" max="3" width="28.6328125" customWidth="1"/>
+    <col min="4" max="6" width="12.6328125" customWidth="1"/>
+    <col min="7" max="7" width="21.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:21" ht="15" customHeight="1">
+      <c r="A1" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
-      <c r="N1" s="27"/>
-      <c r="O1" s="27"/>
-      <c r="P1" s="27"/>
-      <c r="Q1" s="27"/>
-      <c r="R1" s="27"/>
-      <c r="S1" s="27"/>
-      <c r="T1" s="27"/>
-      <c r="U1" s="27"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="21" t="s">
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
+      <c r="P1" s="22"/>
+      <c r="Q1" s="22"/>
+      <c r="R1" s="22"/>
+      <c r="S1" s="22"/>
+      <c r="T1" s="22"/>
+      <c r="U1" s="22"/>
+    </row>
+    <row r="2" spans="1:21" ht="14">
+      <c r="A2" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="21" t="s">
-        <v>206</v>
-      </c>
-      <c r="C2" s="21" t="s">
-        <v>207</v>
-      </c>
-      <c r="D2" s="21" t="s">
-        <v>172</v>
-      </c>
-      <c r="G2" s="22"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="T2" s="25"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="21" t="s">
+      <c r="B2" s="15" t="s">
+        <v>212</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>213</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="G2" s="23"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="T2" s="21"/>
+    </row>
+    <row r="3" spans="1:21" ht="14">
+      <c r="A3" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="21" t="s">
-        <v>208</v>
-      </c>
-      <c r="C3" s="21" t="s">
-        <v>209</v>
-      </c>
-      <c r="D3" s="21" t="s">
-        <v>172</v>
-      </c>
-      <c r="G3" s="22"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="24"/>
-      <c r="T3" s="25"/>
-    </row>
+      <c r="B3" s="15" t="s">
+        <v>214</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>215</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="25"/>
+      <c r="T3" s="21"/>
+    </row>
+    <row r="21" ht="15.75" customHeight="1"/>
+    <row r="22" ht="15.75" customHeight="1"/>
+    <row r="23" ht="15.75" customHeight="1"/>
+    <row r="24" ht="15.75" customHeight="1"/>
+    <row r="25" ht="15.75" customHeight="1"/>
+    <row r="26" ht="15.75" customHeight="1"/>
+    <row r="27" ht="15.75" customHeight="1"/>
+    <row r="28" ht="15.75" customHeight="1"/>
+    <row r="29" ht="15.75" customHeight="1"/>
+    <row r="30" ht="15.75" customHeight="1"/>
+    <row r="31" ht="15.75" customHeight="1"/>
+    <row r="32" ht="15.75" customHeight="1"/>
+    <row r="33" ht="15.75" customHeight="1"/>
+    <row r="34" ht="15.75" customHeight="1"/>
+    <row r="35" ht="15.75" customHeight="1"/>
+    <row r="36" ht="15.75" customHeight="1"/>
+    <row r="37" ht="15.75" customHeight="1"/>
+    <row r="38" ht="15.75" customHeight="1"/>
+    <row r="39" ht="15.75" customHeight="1"/>
+    <row r="40" ht="15.75" customHeight="1"/>
+    <row r="41" ht="15.75" customHeight="1"/>
+    <row r="42" ht="15.75" customHeight="1"/>
+    <row r="43" ht="15.75" customHeight="1"/>
+    <row r="44" ht="15.75" customHeight="1"/>
+    <row r="45" ht="15.75" customHeight="1"/>
+    <row r="46" ht="15.75" customHeight="1"/>
+    <row r="47" ht="15.75" customHeight="1"/>
+    <row r="48" ht="15.75" customHeight="1"/>
+    <row r="49" ht="15.75" customHeight="1"/>
+    <row r="50" ht="15.75" customHeight="1"/>
+    <row r="51" ht="15.75" customHeight="1"/>
+    <row r="52" ht="15.75" customHeight="1"/>
+    <row r="53" ht="15.75" customHeight="1"/>
+    <row r="54" ht="15.75" customHeight="1"/>
+    <row r="55" ht="15.75" customHeight="1"/>
+    <row r="56" ht="15.75" customHeight="1"/>
+    <row r="57" ht="15.75" customHeight="1"/>
+    <row r="58" ht="15.75" customHeight="1"/>
+    <row r="59" ht="15.75" customHeight="1"/>
+    <row r="60" ht="15.75" customHeight="1"/>
+    <row r="61" ht="15.75" customHeight="1"/>
+    <row r="62" ht="15.75" customHeight="1"/>
+    <row r="63" ht="15.75" customHeight="1"/>
+    <row r="64" ht="15.75" customHeight="1"/>
+    <row r="65" ht="15.75" customHeight="1"/>
+    <row r="66" ht="15.75" customHeight="1"/>
+    <row r="67" ht="15.75" customHeight="1"/>
+    <row r="68" ht="15.75" customHeight="1"/>
+    <row r="69" ht="15.75" customHeight="1"/>
+    <row r="70" ht="15.75" customHeight="1"/>
+    <row r="71" ht="15.75" customHeight="1"/>
+    <row r="72" ht="15.75" customHeight="1"/>
+    <row r="73" ht="15.75" customHeight="1"/>
+    <row r="74" ht="15.75" customHeight="1"/>
+    <row r="75" ht="15.75" customHeight="1"/>
+    <row r="76" ht="15.75" customHeight="1"/>
+    <row r="77" ht="15.75" customHeight="1"/>
+    <row r="78" ht="15.75" customHeight="1"/>
+    <row r="79" ht="15.75" customHeight="1"/>
+    <row r="80" ht="15.75" customHeight="1"/>
+    <row r="81" ht="15.75" customHeight="1"/>
+    <row r="82" ht="15.75" customHeight="1"/>
+    <row r="83" ht="15.75" customHeight="1"/>
+    <row r="84" ht="15.75" customHeight="1"/>
+    <row r="85" ht="15.75" customHeight="1"/>
+    <row r="86" ht="15.75" customHeight="1"/>
+    <row r="87" ht="15.75" customHeight="1"/>
+    <row r="88" ht="15.75" customHeight="1"/>
+    <row r="89" ht="15.75" customHeight="1"/>
+    <row r="90" ht="15.75" customHeight="1"/>
+    <row r="91" ht="15.75" customHeight="1"/>
+    <row r="92" ht="15.75" customHeight="1"/>
+    <row r="93" ht="15.75" customHeight="1"/>
+    <row r="94" ht="15.75" customHeight="1"/>
+    <row r="95" ht="15.75" customHeight="1"/>
+    <row r="96" ht="15.75" customHeight="1"/>
+    <row r="97" ht="15.75" customHeight="1"/>
+    <row r="98" ht="15.75" customHeight="1"/>
+    <row r="99" ht="15.75" customHeight="1"/>
+    <row r="100" ht="15.75" customHeight="1"/>
+    <row r="101" ht="15.75" customHeight="1"/>
+    <row r="102" ht="15.75" customHeight="1"/>
+    <row r="103" ht="15.75" customHeight="1"/>
+    <row r="104" ht="15.75" customHeight="1"/>
+    <row r="105" ht="15.75" customHeight="1"/>
+    <row r="106" ht="15.75" customHeight="1"/>
+    <row r="107" ht="15.75" customHeight="1"/>
+    <row r="108" ht="15.75" customHeight="1"/>
+    <row r="109" ht="15.75" customHeight="1"/>
+    <row r="110" ht="15.75" customHeight="1"/>
+    <row r="111" ht="15.75" customHeight="1"/>
+    <row r="112" ht="15.75" customHeight="1"/>
+    <row r="113" ht="15.75" customHeight="1"/>
+    <row r="114" ht="15.75" customHeight="1"/>
+    <row r="115" ht="15.75" customHeight="1"/>
+    <row r="116" ht="15.75" customHeight="1"/>
+    <row r="117" ht="15.75" customHeight="1"/>
+    <row r="118" ht="15.75" customHeight="1"/>
+    <row r="119" ht="15.75" customHeight="1"/>
+    <row r="120" ht="15.75" customHeight="1"/>
+    <row r="121" ht="15.75" customHeight="1"/>
+    <row r="122" ht="15.75" customHeight="1"/>
+    <row r="123" ht="15.75" customHeight="1"/>
+    <row r="124" ht="15.75" customHeight="1"/>
+    <row r="125" ht="15.75" customHeight="1"/>
+    <row r="126" ht="15.75" customHeight="1"/>
+    <row r="127" ht="15.75" customHeight="1"/>
+    <row r="128" ht="15.75" customHeight="1"/>
+    <row r="129" ht="15.75" customHeight="1"/>
+    <row r="130" ht="15.75" customHeight="1"/>
+    <row r="131" ht="15.75" customHeight="1"/>
+    <row r="132" ht="15.75" customHeight="1"/>
+    <row r="133" ht="15.75" customHeight="1"/>
+    <row r="134" ht="15.75" customHeight="1"/>
+    <row r="135" ht="15.75" customHeight="1"/>
+    <row r="136" ht="15.75" customHeight="1"/>
+    <row r="137" ht="15.75" customHeight="1"/>
+    <row r="138" ht="15.75" customHeight="1"/>
+    <row r="139" ht="15.75" customHeight="1"/>
+    <row r="140" ht="15.75" customHeight="1"/>
+    <row r="141" ht="15.75" customHeight="1"/>
+    <row r="142" ht="15.75" customHeight="1"/>
+    <row r="143" ht="15.75" customHeight="1"/>
+    <row r="144" ht="15.75" customHeight="1"/>
+    <row r="145" ht="15.75" customHeight="1"/>
+    <row r="146" ht="15.75" customHeight="1"/>
+    <row r="147" ht="15.75" customHeight="1"/>
+    <row r="148" ht="15.75" customHeight="1"/>
+    <row r="149" ht="15.75" customHeight="1"/>
+    <row r="150" ht="15.75" customHeight="1"/>
+    <row r="151" ht="15.75" customHeight="1"/>
+    <row r="152" ht="15.75" customHeight="1"/>
+    <row r="153" ht="15.75" customHeight="1"/>
+    <row r="154" ht="15.75" customHeight="1"/>
+    <row r="155" ht="15.75" customHeight="1"/>
+    <row r="156" ht="15.75" customHeight="1"/>
+    <row r="157" ht="15.75" customHeight="1"/>
+    <row r="158" ht="15.75" customHeight="1"/>
+    <row r="159" ht="15.75" customHeight="1"/>
+    <row r="160" ht="15.75" customHeight="1"/>
+    <row r="161" ht="15.75" customHeight="1"/>
+    <row r="162" ht="15.75" customHeight="1"/>
+    <row r="163" ht="15.75" customHeight="1"/>
+    <row r="164" ht="15.75" customHeight="1"/>
+    <row r="165" ht="15.75" customHeight="1"/>
+    <row r="166" ht="15.75" customHeight="1"/>
+    <row r="167" ht="15.75" customHeight="1"/>
+    <row r="168" ht="15.75" customHeight="1"/>
+    <row r="169" ht="15.75" customHeight="1"/>
+    <row r="170" ht="15.75" customHeight="1"/>
+    <row r="171" ht="15.75" customHeight="1"/>
+    <row r="172" ht="15.75" customHeight="1"/>
+    <row r="173" ht="15.75" customHeight="1"/>
+    <row r="174" ht="15.75" customHeight="1"/>
+    <row r="175" ht="15.75" customHeight="1"/>
+    <row r="176" ht="15.75" customHeight="1"/>
+    <row r="177" ht="15.75" customHeight="1"/>
+    <row r="178" ht="15.75" customHeight="1"/>
+    <row r="179" ht="15.75" customHeight="1"/>
+    <row r="180" ht="15.75" customHeight="1"/>
+    <row r="181" ht="15.75" customHeight="1"/>
+    <row r="182" ht="15.75" customHeight="1"/>
+    <row r="183" ht="15.75" customHeight="1"/>
+    <row r="184" ht="15.75" customHeight="1"/>
+    <row r="185" ht="15.75" customHeight="1"/>
+    <row r="186" ht="15.75" customHeight="1"/>
+    <row r="187" ht="15.75" customHeight="1"/>
+    <row r="188" ht="15.75" customHeight="1"/>
+    <row r="189" ht="15.75" customHeight="1"/>
+    <row r="190" ht="15.75" customHeight="1"/>
+    <row r="191" ht="15.75" customHeight="1"/>
+    <row r="192" ht="15.75" customHeight="1"/>
+    <row r="193" ht="15.75" customHeight="1"/>
+    <row r="194" ht="15.75" customHeight="1"/>
+    <row r="195" ht="15.75" customHeight="1"/>
+    <row r="196" ht="15.75" customHeight="1"/>
+    <row r="197" ht="15.75" customHeight="1"/>
+    <row r="198" ht="15.75" customHeight="1"/>
+    <row r="199" ht="15.75" customHeight="1"/>
+    <row r="200" ht="15.75" customHeight="1"/>
+    <row r="201" ht="15.75" customHeight="1"/>
+    <row r="202" ht="15.75" customHeight="1"/>
+    <row r="203" ht="15.75" customHeight="1"/>
+    <row r="204" ht="15.75" customHeight="1"/>
+    <row r="205" ht="15.75" customHeight="1"/>
+    <row r="206" ht="15.75" customHeight="1"/>
+    <row r="207" ht="15.75" customHeight="1"/>
+    <row r="208" ht="15.75" customHeight="1"/>
+    <row r="209" ht="15.75" customHeight="1"/>
+    <row r="210" ht="15.75" customHeight="1"/>
+    <row r="211" ht="15.75" customHeight="1"/>
+    <row r="212" ht="15.75" customHeight="1"/>
+    <row r="213" ht="15.75" customHeight="1"/>
+    <row r="214" ht="15.75" customHeight="1"/>
+    <row r="215" ht="15.75" customHeight="1"/>
+    <row r="216" ht="15.75" customHeight="1"/>
+    <row r="217" ht="15.75" customHeight="1"/>
+    <row r="218" ht="15.75" customHeight="1"/>
+    <row r="219" ht="15.75" customHeight="1"/>
+    <row r="220" ht="15.75" customHeight="1"/>
+    <row r="221" ht="15.75" customHeight="1"/>
+    <row r="222" ht="15.75" customHeight="1"/>
+    <row r="223" ht="15.75" customHeight="1"/>
+    <row r="224" ht="15.75" customHeight="1"/>
+    <row r="225" ht="15.75" customHeight="1"/>
+    <row r="226" ht="15.75" customHeight="1"/>
+    <row r="227" ht="15.75" customHeight="1"/>
+    <row r="228" ht="15.75" customHeight="1"/>
+    <row r="229" ht="15.75" customHeight="1"/>
+    <row r="230" ht="15.75" customHeight="1"/>
+    <row r="231" ht="15.75" customHeight="1"/>
+    <row r="232" ht="15.75" customHeight="1"/>
+    <row r="233" ht="15.75" customHeight="1"/>
+    <row r="234" ht="15.75" customHeight="1"/>
+    <row r="235" ht="15.75" customHeight="1"/>
+    <row r="236" ht="15.75" customHeight="1"/>
+    <row r="237" ht="15.75" customHeight="1"/>
+    <row r="238" ht="15.75" customHeight="1"/>
+    <row r="239" ht="15.75" customHeight="1"/>
+    <row r="240" ht="15.75" customHeight="1"/>
+    <row r="241" ht="15.75" customHeight="1"/>
+    <row r="242" ht="15.75" customHeight="1"/>
+    <row r="243" ht="15.75" customHeight="1"/>
+    <row r="244" ht="15.75" customHeight="1"/>
+    <row r="245" ht="15.75" customHeight="1"/>
+    <row r="246" ht="15.75" customHeight="1"/>
+    <row r="247" ht="15.75" customHeight="1"/>
+    <row r="248" ht="15.75" customHeight="1"/>
+    <row r="249" ht="15.75" customHeight="1"/>
+    <row r="250" ht="15.75" customHeight="1"/>
+    <row r="251" ht="15.75" customHeight="1"/>
+    <row r="252" ht="15.75" customHeight="1"/>
+    <row r="253" ht="15.75" customHeight="1"/>
+    <row r="254" ht="15.75" customHeight="1"/>
+    <row r="255" ht="15.75" customHeight="1"/>
+    <row r="256" ht="15.75" customHeight="1"/>
+    <row r="257" ht="15.75" customHeight="1"/>
+    <row r="258" ht="15.75" customHeight="1"/>
+    <row r="259" ht="15.75" customHeight="1"/>
+    <row r="260" ht="15.75" customHeight="1"/>
+    <row r="261" ht="15.75" customHeight="1"/>
+    <row r="262" ht="15.75" customHeight="1"/>
+    <row r="263" ht="15.75" customHeight="1"/>
+    <row r="264" ht="15.75" customHeight="1"/>
+    <row r="265" ht="15.75" customHeight="1"/>
+    <row r="266" ht="15.75" customHeight="1"/>
+    <row r="267" ht="15.75" customHeight="1"/>
+    <row r="268" ht="15.75" customHeight="1"/>
+    <row r="269" ht="15.75" customHeight="1"/>
+    <row r="270" ht="15.75" customHeight="1"/>
+    <row r="271" ht="15.75" customHeight="1"/>
+    <row r="272" ht="15.75" customHeight="1"/>
+    <row r="273" ht="15.75" customHeight="1"/>
+    <row r="274" ht="15.75" customHeight="1"/>
+    <row r="275" ht="15.75" customHeight="1"/>
+    <row r="276" ht="15.75" customHeight="1"/>
+    <row r="277" ht="15.75" customHeight="1"/>
+    <row r="278" ht="15.75" customHeight="1"/>
+    <row r="279" ht="15.75" customHeight="1"/>
+    <row r="280" ht="15.75" customHeight="1"/>
+    <row r="281" ht="15.75" customHeight="1"/>
+    <row r="282" ht="15.75" customHeight="1"/>
+    <row r="283" ht="15.75" customHeight="1"/>
+    <row r="284" ht="15.75" customHeight="1"/>
+    <row r="285" ht="15.75" customHeight="1"/>
+    <row r="286" ht="15.75" customHeight="1"/>
+    <row r="287" ht="15.75" customHeight="1"/>
+    <row r="288" ht="15.75" customHeight="1"/>
+    <row r="289" ht="15.75" customHeight="1"/>
+    <row r="290" ht="15.75" customHeight="1"/>
+    <row r="291" ht="15.75" customHeight="1"/>
+    <row r="292" ht="15.75" customHeight="1"/>
+    <row r="293" ht="15.75" customHeight="1"/>
+    <row r="294" ht="15.75" customHeight="1"/>
+    <row r="295" ht="15.75" customHeight="1"/>
+    <row r="296" ht="15.75" customHeight="1"/>
+    <row r="297" ht="15.75" customHeight="1"/>
+    <row r="298" ht="15.75" customHeight="1"/>
+    <row r="299" ht="15.75" customHeight="1"/>
+    <row r="300" ht="15.75" customHeight="1"/>
+    <row r="301" ht="15.75" customHeight="1"/>
+    <row r="302" ht="15.75" customHeight="1"/>
+    <row r="303" ht="15.75" customHeight="1"/>
+    <row r="304" ht="15.75" customHeight="1"/>
+    <row r="305" ht="15.75" customHeight="1"/>
+    <row r="306" ht="15.75" customHeight="1"/>
+    <row r="307" ht="15.75" customHeight="1"/>
+    <row r="308" ht="15.75" customHeight="1"/>
+    <row r="309" ht="15.75" customHeight="1"/>
+    <row r="310" ht="15.75" customHeight="1"/>
+    <row r="311" ht="15.75" customHeight="1"/>
+    <row r="312" ht="15.75" customHeight="1"/>
+    <row r="313" ht="15.75" customHeight="1"/>
+    <row r="314" ht="15.75" customHeight="1"/>
+    <row r="315" ht="15.75" customHeight="1"/>
+    <row r="316" ht="15.75" customHeight="1"/>
+    <row r="317" ht="15.75" customHeight="1"/>
+    <row r="318" ht="15.75" customHeight="1"/>
+    <row r="319" ht="15.75" customHeight="1"/>
+    <row r="320" ht="15.75" customHeight="1"/>
+    <row r="321" ht="15.75" customHeight="1"/>
+    <row r="322" ht="15.75" customHeight="1"/>
+    <row r="323" ht="15.75" customHeight="1"/>
+    <row r="324" ht="15.75" customHeight="1"/>
+    <row r="325" ht="15.75" customHeight="1"/>
+    <row r="326" ht="15.75" customHeight="1"/>
+    <row r="327" ht="15.75" customHeight="1"/>
+    <row r="328" ht="15.75" customHeight="1"/>
+    <row r="329" ht="15.75" customHeight="1"/>
+    <row r="330" ht="15.75" customHeight="1"/>
+    <row r="331" ht="15.75" customHeight="1"/>
+    <row r="332" ht="15.75" customHeight="1"/>
+    <row r="333" ht="15.75" customHeight="1"/>
+    <row r="334" ht="15.75" customHeight="1"/>
+    <row r="335" ht="15.75" customHeight="1"/>
+    <row r="336" ht="15.75" customHeight="1"/>
+    <row r="337" ht="15.75" customHeight="1"/>
+    <row r="338" ht="15.75" customHeight="1"/>
+    <row r="339" ht="15.75" customHeight="1"/>
+    <row r="340" ht="15.75" customHeight="1"/>
+    <row r="341" ht="15.75" customHeight="1"/>
+    <row r="342" ht="15.75" customHeight="1"/>
+    <row r="343" ht="15.75" customHeight="1"/>
+    <row r="344" ht="15.75" customHeight="1"/>
+    <row r="345" ht="15.75" customHeight="1"/>
+    <row r="346" ht="15.75" customHeight="1"/>
+    <row r="347" ht="15.75" customHeight="1"/>
+    <row r="348" ht="15.75" customHeight="1"/>
+    <row r="349" ht="15.75" customHeight="1"/>
+    <row r="350" ht="15.75" customHeight="1"/>
+    <row r="351" ht="15.75" customHeight="1"/>
+    <row r="352" ht="15.75" customHeight="1"/>
+    <row r="353" ht="15.75" customHeight="1"/>
+    <row r="354" ht="15.75" customHeight="1"/>
+    <row r="355" ht="15.75" customHeight="1"/>
+    <row r="356" ht="15.75" customHeight="1"/>
+    <row r="357" ht="15.75" customHeight="1"/>
+    <row r="358" ht="15.75" customHeight="1"/>
+    <row r="359" ht="15.75" customHeight="1"/>
+    <row r="360" ht="15.75" customHeight="1"/>
+    <row r="361" ht="15.75" customHeight="1"/>
+    <row r="362" ht="15.75" customHeight="1"/>
+    <row r="363" ht="15.75" customHeight="1"/>
+    <row r="364" ht="15.75" customHeight="1"/>
+    <row r="365" ht="15.75" customHeight="1"/>
+    <row r="366" ht="15.75" customHeight="1"/>
+    <row r="367" ht="15.75" customHeight="1"/>
+    <row r="368" ht="15.75" customHeight="1"/>
+    <row r="369" ht="15.75" customHeight="1"/>
+    <row r="370" ht="15.75" customHeight="1"/>
+    <row r="371" ht="15.75" customHeight="1"/>
+    <row r="372" ht="15.75" customHeight="1"/>
+    <row r="373" ht="15.75" customHeight="1"/>
+    <row r="374" ht="15.75" customHeight="1"/>
+    <row r="375" ht="15.75" customHeight="1"/>
+    <row r="376" ht="15.75" customHeight="1"/>
+    <row r="377" ht="15.75" customHeight="1"/>
+    <row r="378" ht="15.75" customHeight="1"/>
+    <row r="379" ht="15.75" customHeight="1"/>
+    <row r="380" ht="15.75" customHeight="1"/>
+    <row r="381" ht="15.75" customHeight="1"/>
+    <row r="382" ht="15.75" customHeight="1"/>
+    <row r="383" ht="15.75" customHeight="1"/>
+    <row r="384" ht="15.75" customHeight="1"/>
+    <row r="385" ht="15.75" customHeight="1"/>
+    <row r="386" ht="15.75" customHeight="1"/>
+    <row r="387" ht="15.75" customHeight="1"/>
+    <row r="388" ht="15.75" customHeight="1"/>
+    <row r="389" ht="15.75" customHeight="1"/>
+    <row r="390" ht="15.75" customHeight="1"/>
+    <row r="391" ht="15.75" customHeight="1"/>
+    <row r="392" ht="15.75" customHeight="1"/>
+    <row r="393" ht="15.75" customHeight="1"/>
+    <row r="394" ht="15.75" customHeight="1"/>
+    <row r="395" ht="15.75" customHeight="1"/>
+    <row r="396" ht="15.75" customHeight="1"/>
+    <row r="397" ht="15.75" customHeight="1"/>
+    <row r="398" ht="15.75" customHeight="1"/>
+    <row r="399" ht="15.75" customHeight="1"/>
+    <row r="400" ht="15.75" customHeight="1"/>
+    <row r="401" ht="15.75" customHeight="1"/>
+    <row r="402" ht="15.75" customHeight="1"/>
+    <row r="403" ht="15.75" customHeight="1"/>
+    <row r="404" ht="15.75" customHeight="1"/>
+    <row r="405" ht="15.75" customHeight="1"/>
+    <row r="406" ht="15.75" customHeight="1"/>
+    <row r="407" ht="15.75" customHeight="1"/>
+    <row r="408" ht="15.75" customHeight="1"/>
+    <row r="409" ht="15.75" customHeight="1"/>
+    <row r="410" ht="15.75" customHeight="1"/>
+    <row r="411" ht="15.75" customHeight="1"/>
+    <row r="412" ht="15.75" customHeight="1"/>
+    <row r="413" ht="15.75" customHeight="1"/>
+    <row r="414" ht="15.75" customHeight="1"/>
+    <row r="415" ht="15.75" customHeight="1"/>
+    <row r="416" ht="15.75" customHeight="1"/>
+    <row r="417" ht="15.75" customHeight="1"/>
+    <row r="418" ht="15.75" customHeight="1"/>
+    <row r="419" ht="15.75" customHeight="1"/>
+    <row r="420" ht="15.75" customHeight="1"/>
+    <row r="421" ht="15.75" customHeight="1"/>
+    <row r="422" ht="15.75" customHeight="1"/>
+    <row r="423" ht="15.75" customHeight="1"/>
+    <row r="424" ht="15.75" customHeight="1"/>
+    <row r="425" ht="15.75" customHeight="1"/>
+    <row r="426" ht="15.75" customHeight="1"/>
+    <row r="427" ht="15.75" customHeight="1"/>
+    <row r="428" ht="15.75" customHeight="1"/>
+    <row r="429" ht="15.75" customHeight="1"/>
+    <row r="430" ht="15.75" customHeight="1"/>
+    <row r="431" ht="15.75" customHeight="1"/>
+    <row r="432" ht="15.75" customHeight="1"/>
+    <row r="433" ht="15.75" customHeight="1"/>
+    <row r="434" ht="15.75" customHeight="1"/>
+    <row r="435" ht="15.75" customHeight="1"/>
+    <row r="436" ht="15.75" customHeight="1"/>
+    <row r="437" ht="15.75" customHeight="1"/>
+    <row r="438" ht="15.75" customHeight="1"/>
+    <row r="439" ht="15.75" customHeight="1"/>
+    <row r="440" ht="15.75" customHeight="1"/>
+    <row r="441" ht="15.75" customHeight="1"/>
+    <row r="442" ht="15.75" customHeight="1"/>
+    <row r="443" ht="15.75" customHeight="1"/>
+    <row r="444" ht="15.75" customHeight="1"/>
+    <row r="445" ht="15.75" customHeight="1"/>
+    <row r="446" ht="15.75" customHeight="1"/>
+    <row r="447" ht="15.75" customHeight="1"/>
+    <row r="448" ht="15.75" customHeight="1"/>
+    <row r="449" ht="15.75" customHeight="1"/>
+    <row r="450" ht="15.75" customHeight="1"/>
+    <row r="451" ht="15.75" customHeight="1"/>
+    <row r="452" ht="15.75" customHeight="1"/>
+    <row r="453" ht="15.75" customHeight="1"/>
+    <row r="454" ht="15.75" customHeight="1"/>
+    <row r="455" ht="15.75" customHeight="1"/>
+    <row r="456" ht="15.75" customHeight="1"/>
+    <row r="457" ht="15.75" customHeight="1"/>
+    <row r="458" ht="15.75" customHeight="1"/>
+    <row r="459" ht="15.75" customHeight="1"/>
+    <row r="460" ht="15.75" customHeight="1"/>
+    <row r="461" ht="15.75" customHeight="1"/>
+    <row r="462" ht="15.75" customHeight="1"/>
+    <row r="463" ht="15.75" customHeight="1"/>
+    <row r="464" ht="15.75" customHeight="1"/>
+    <row r="465" ht="15.75" customHeight="1"/>
+    <row r="466" ht="15.75" customHeight="1"/>
+    <row r="467" ht="15.75" customHeight="1"/>
+    <row r="468" ht="15.75" customHeight="1"/>
+    <row r="469" ht="15.75" customHeight="1"/>
+    <row r="470" ht="15.75" customHeight="1"/>
+    <row r="471" ht="15.75" customHeight="1"/>
+    <row r="472" ht="15.75" customHeight="1"/>
+    <row r="473" ht="15.75" customHeight="1"/>
+    <row r="474" ht="15.75" customHeight="1"/>
+    <row r="475" ht="15.75" customHeight="1"/>
+    <row r="476" ht="15.75" customHeight="1"/>
+    <row r="477" ht="15.75" customHeight="1"/>
+    <row r="478" ht="15.75" customHeight="1"/>
+    <row r="479" ht="15.75" customHeight="1"/>
+    <row r="480" ht="15.75" customHeight="1"/>
+    <row r="481" ht="15.75" customHeight="1"/>
+    <row r="482" ht="15.75" customHeight="1"/>
+    <row r="483" ht="15.75" customHeight="1"/>
+    <row r="484" ht="15.75" customHeight="1"/>
+    <row r="485" ht="15.75" customHeight="1"/>
+    <row r="486" ht="15.75" customHeight="1"/>
+    <row r="487" ht="15.75" customHeight="1"/>
+    <row r="488" ht="15.75" customHeight="1"/>
+    <row r="489" ht="15.75" customHeight="1"/>
+    <row r="490" ht="15.75" customHeight="1"/>
+    <row r="491" ht="15.75" customHeight="1"/>
+    <row r="492" ht="15.75" customHeight="1"/>
+    <row r="493" ht="15.75" customHeight="1"/>
+    <row r="494" ht="15.75" customHeight="1"/>
+    <row r="495" ht="15.75" customHeight="1"/>
+    <row r="496" ht="15.75" customHeight="1"/>
+    <row r="497" ht="15.75" customHeight="1"/>
+    <row r="498" ht="15.75" customHeight="1"/>
+    <row r="499" ht="15.75" customHeight="1"/>
+    <row r="500" ht="15.75" customHeight="1"/>
+    <row r="501" ht="15.75" customHeight="1"/>
+    <row r="502" ht="15.75" customHeight="1"/>
+    <row r="503" ht="15.75" customHeight="1"/>
+    <row r="504" ht="15.75" customHeight="1"/>
+    <row r="505" ht="15.75" customHeight="1"/>
+    <row r="506" ht="15.75" customHeight="1"/>
+    <row r="507" ht="15.75" customHeight="1"/>
+    <row r="508" ht="15.75" customHeight="1"/>
+    <row r="509" ht="15.75" customHeight="1"/>
+    <row r="510" ht="15.75" customHeight="1"/>
+    <row r="511" ht="15.75" customHeight="1"/>
+    <row r="512" ht="15.75" customHeight="1"/>
+    <row r="513" ht="15.75" customHeight="1"/>
+    <row r="514" ht="15.75" customHeight="1"/>
+    <row r="515" ht="15.75" customHeight="1"/>
+    <row r="516" ht="15.75" customHeight="1"/>
+    <row r="517" ht="15.75" customHeight="1"/>
+    <row r="518" ht="15.75" customHeight="1"/>
+    <row r="519" ht="15.75" customHeight="1"/>
+    <row r="520" ht="15.75" customHeight="1"/>
+    <row r="521" ht="15.75" customHeight="1"/>
+    <row r="522" ht="15.75" customHeight="1"/>
+    <row r="523" ht="15.75" customHeight="1"/>
+    <row r="524" ht="15.75" customHeight="1"/>
+    <row r="525" ht="15.75" customHeight="1"/>
+    <row r="526" ht="15.75" customHeight="1"/>
+    <row r="527" ht="15.75" customHeight="1"/>
+    <row r="528" ht="15.75" customHeight="1"/>
+    <row r="529" ht="15.75" customHeight="1"/>
+    <row r="530" ht="15.75" customHeight="1"/>
+    <row r="531" ht="15.75" customHeight="1"/>
+    <row r="532" ht="15.75" customHeight="1"/>
+    <row r="533" ht="15.75" customHeight="1"/>
+    <row r="534" ht="15.75" customHeight="1"/>
+    <row r="535" ht="15.75" customHeight="1"/>
+    <row r="536" ht="15.75" customHeight="1"/>
+    <row r="537" ht="15.75" customHeight="1"/>
+    <row r="538" ht="15.75" customHeight="1"/>
+    <row r="539" ht="15.75" customHeight="1"/>
+    <row r="540" ht="15.75" customHeight="1"/>
+    <row r="541" ht="15.75" customHeight="1"/>
+    <row r="542" ht="15.75" customHeight="1"/>
+    <row r="543" ht="15.75" customHeight="1"/>
+    <row r="544" ht="15.75" customHeight="1"/>
+    <row r="545" ht="15.75" customHeight="1"/>
+    <row r="546" ht="15.75" customHeight="1"/>
+    <row r="547" ht="15.75" customHeight="1"/>
+    <row r="548" ht="15.75" customHeight="1"/>
+    <row r="549" ht="15.75" customHeight="1"/>
+    <row r="550" ht="15.75" customHeight="1"/>
+    <row r="551" ht="15.75" customHeight="1"/>
+    <row r="552" ht="15.75" customHeight="1"/>
+    <row r="553" ht="15.75" customHeight="1"/>
+    <row r="554" ht="15.75" customHeight="1"/>
+    <row r="555" ht="15.75" customHeight="1"/>
+    <row r="556" ht="15.75" customHeight="1"/>
+    <row r="557" ht="15.75" customHeight="1"/>
+    <row r="558" ht="15.75" customHeight="1"/>
+    <row r="559" ht="15.75" customHeight="1"/>
+    <row r="560" ht="15.75" customHeight="1"/>
+    <row r="561" ht="15.75" customHeight="1"/>
+    <row r="562" ht="15.75" customHeight="1"/>
+    <row r="563" ht="15.75" customHeight="1"/>
+    <row r="564" ht="15.75" customHeight="1"/>
+    <row r="565" ht="15.75" customHeight="1"/>
+    <row r="566" ht="15.75" customHeight="1"/>
+    <row r="567" ht="15.75" customHeight="1"/>
+    <row r="568" ht="15.75" customHeight="1"/>
+    <row r="569" ht="15.75" customHeight="1"/>
+    <row r="570" ht="15.75" customHeight="1"/>
+    <row r="571" ht="15.75" customHeight="1"/>
+    <row r="572" ht="15.75" customHeight="1"/>
+    <row r="573" ht="15.75" customHeight="1"/>
+    <row r="574" ht="15.75" customHeight="1"/>
+    <row r="575" ht="15.75" customHeight="1"/>
+    <row r="576" ht="15.75" customHeight="1"/>
+    <row r="577" ht="15.75" customHeight="1"/>
+    <row r="578" ht="15.75" customHeight="1"/>
+    <row r="579" ht="15.75" customHeight="1"/>
+    <row r="580" ht="15.75" customHeight="1"/>
+    <row r="581" ht="15.75" customHeight="1"/>
+    <row r="582" ht="15.75" customHeight="1"/>
+    <row r="583" ht="15.75" customHeight="1"/>
+    <row r="584" ht="15.75" customHeight="1"/>
+    <row r="585" ht="15.75" customHeight="1"/>
+    <row r="586" ht="15.75" customHeight="1"/>
+    <row r="587" ht="15.75" customHeight="1"/>
+    <row r="588" ht="15.75" customHeight="1"/>
+    <row r="589" ht="15.75" customHeight="1"/>
+    <row r="590" ht="15.75" customHeight="1"/>
+    <row r="591" ht="15.75" customHeight="1"/>
+    <row r="592" ht="15.75" customHeight="1"/>
+    <row r="593" ht="15.75" customHeight="1"/>
+    <row r="594" ht="15.75" customHeight="1"/>
+    <row r="595" ht="15.75" customHeight="1"/>
+    <row r="596" ht="15.75" customHeight="1"/>
+    <row r="597" ht="15.75" customHeight="1"/>
+    <row r="598" ht="15.75" customHeight="1"/>
+    <row r="599" ht="15.75" customHeight="1"/>
+    <row r="600" ht="15.75" customHeight="1"/>
+    <row r="601" ht="15.75" customHeight="1"/>
+    <row r="602" ht="15.75" customHeight="1"/>
+    <row r="603" ht="15.75" customHeight="1"/>
+    <row r="604" ht="15.75" customHeight="1"/>
+    <row r="605" ht="15.75" customHeight="1"/>
+    <row r="606" ht="15.75" customHeight="1"/>
+    <row r="607" ht="15.75" customHeight="1"/>
+    <row r="608" ht="15.75" customHeight="1"/>
+    <row r="609" ht="15.75" customHeight="1"/>
+    <row r="610" ht="15.75" customHeight="1"/>
+    <row r="611" ht="15.75" customHeight="1"/>
+    <row r="612" ht="15.75" customHeight="1"/>
+    <row r="613" ht="15.75" customHeight="1"/>
+    <row r="614" ht="15.75" customHeight="1"/>
+    <row r="615" ht="15.75" customHeight="1"/>
+    <row r="616" ht="15.75" customHeight="1"/>
+    <row r="617" ht="15.75" customHeight="1"/>
+    <row r="618" ht="15.75" customHeight="1"/>
+    <row r="619" ht="15.75" customHeight="1"/>
+    <row r="620" ht="15.75" customHeight="1"/>
+    <row r="621" ht="15.75" customHeight="1"/>
+    <row r="622" ht="15.75" customHeight="1"/>
+    <row r="623" ht="15.75" customHeight="1"/>
+    <row r="624" ht="15.75" customHeight="1"/>
+    <row r="625" ht="15.75" customHeight="1"/>
+    <row r="626" ht="15.75" customHeight="1"/>
+    <row r="627" ht="15.75" customHeight="1"/>
+    <row r="628" ht="15.75" customHeight="1"/>
+    <row r="629" ht="15.75" customHeight="1"/>
+    <row r="630" ht="15.75" customHeight="1"/>
+    <row r="631" ht="15.75" customHeight="1"/>
+    <row r="632" ht="15.75" customHeight="1"/>
+    <row r="633" ht="15.75" customHeight="1"/>
+    <row r="634" ht="15.75" customHeight="1"/>
+    <row r="635" ht="15.75" customHeight="1"/>
+    <row r="636" ht="15.75" customHeight="1"/>
+    <row r="637" ht="15.75" customHeight="1"/>
+    <row r="638" ht="15.75" customHeight="1"/>
+    <row r="639" ht="15.75" customHeight="1"/>
+    <row r="640" ht="15.75" customHeight="1"/>
+    <row r="641" ht="15.75" customHeight="1"/>
+    <row r="642" ht="15.75" customHeight="1"/>
+    <row r="643" ht="15.75" customHeight="1"/>
+    <row r="644" ht="15.75" customHeight="1"/>
+    <row r="645" ht="15.75" customHeight="1"/>
+    <row r="646" ht="15.75" customHeight="1"/>
+    <row r="647" ht="15.75" customHeight="1"/>
+    <row r="648" ht="15.75" customHeight="1"/>
+    <row r="649" ht="15.75" customHeight="1"/>
+    <row r="650" ht="15.75" customHeight="1"/>
+    <row r="651" ht="15.75" customHeight="1"/>
+    <row r="652" ht="15.75" customHeight="1"/>
+    <row r="653" ht="15.75" customHeight="1"/>
+    <row r="654" ht="15.75" customHeight="1"/>
+    <row r="655" ht="15.75" customHeight="1"/>
+    <row r="656" ht="15.75" customHeight="1"/>
+    <row r="657" ht="15.75" customHeight="1"/>
+    <row r="658" ht="15.75" customHeight="1"/>
+    <row r="659" ht="15.75" customHeight="1"/>
+    <row r="660" ht="15.75" customHeight="1"/>
+    <row r="661" ht="15.75" customHeight="1"/>
+    <row r="662" ht="15.75" customHeight="1"/>
+    <row r="663" ht="15.75" customHeight="1"/>
+    <row r="664" ht="15.75" customHeight="1"/>
+    <row r="665" ht="15.75" customHeight="1"/>
+    <row r="666" ht="15.75" customHeight="1"/>
+    <row r="667" ht="15.75" customHeight="1"/>
+    <row r="668" ht="15.75" customHeight="1"/>
+    <row r="669" ht="15.75" customHeight="1"/>
+    <row r="670" ht="15.75" customHeight="1"/>
+    <row r="671" ht="15.75" customHeight="1"/>
+    <row r="672" ht="15.75" customHeight="1"/>
+    <row r="673" ht="15.75" customHeight="1"/>
+    <row r="674" ht="15.75" customHeight="1"/>
+    <row r="675" ht="15.75" customHeight="1"/>
+    <row r="676" ht="15.75" customHeight="1"/>
+    <row r="677" ht="15.75" customHeight="1"/>
+    <row r="678" ht="15.75" customHeight="1"/>
+    <row r="679" ht="15.75" customHeight="1"/>
+    <row r="680" ht="15.75" customHeight="1"/>
+    <row r="681" ht="15.75" customHeight="1"/>
+    <row r="682" ht="15.75" customHeight="1"/>
+    <row r="683" ht="15.75" customHeight="1"/>
+    <row r="684" ht="15.75" customHeight="1"/>
+    <row r="685" ht="15.75" customHeight="1"/>
+    <row r="686" ht="15.75" customHeight="1"/>
+    <row r="687" ht="15.75" customHeight="1"/>
+    <row r="688" ht="15.75" customHeight="1"/>
+    <row r="689" ht="15.75" customHeight="1"/>
+    <row r="690" ht="15.75" customHeight="1"/>
+    <row r="691" ht="15.75" customHeight="1"/>
+    <row r="692" ht="15.75" customHeight="1"/>
+    <row r="693" ht="15.75" customHeight="1"/>
+    <row r="694" ht="15.75" customHeight="1"/>
+    <row r="695" ht="15.75" customHeight="1"/>
+    <row r="696" ht="15.75" customHeight="1"/>
+    <row r="697" ht="15.75" customHeight="1"/>
+    <row r="698" ht="15.75" customHeight="1"/>
+    <row r="699" ht="15.75" customHeight="1"/>
+    <row r="700" ht="15.75" customHeight="1"/>
+    <row r="701" ht="15.75" customHeight="1"/>
+    <row r="702" ht="15.75" customHeight="1"/>
+    <row r="703" ht="15.75" customHeight="1"/>
+    <row r="704" ht="15.75" customHeight="1"/>
+    <row r="705" ht="15.75" customHeight="1"/>
+    <row r="706" ht="15.75" customHeight="1"/>
+    <row r="707" ht="15.75" customHeight="1"/>
+    <row r="708" ht="15.75" customHeight="1"/>
+    <row r="709" ht="15.75" customHeight="1"/>
+    <row r="710" ht="15.75" customHeight="1"/>
+    <row r="711" ht="15.75" customHeight="1"/>
+    <row r="712" ht="15.75" customHeight="1"/>
+    <row r="713" ht="15.75" customHeight="1"/>
+    <row r="714" ht="15.75" customHeight="1"/>
+    <row r="715" ht="15.75" customHeight="1"/>
+    <row r="716" ht="15.75" customHeight="1"/>
+    <row r="717" ht="15.75" customHeight="1"/>
+    <row r="718" ht="15.75" customHeight="1"/>
+    <row r="719" ht="15.75" customHeight="1"/>
+    <row r="720" ht="15.75" customHeight="1"/>
+    <row r="721" ht="15.75" customHeight="1"/>
+    <row r="722" ht="15.75" customHeight="1"/>
+    <row r="723" ht="15.75" customHeight="1"/>
+    <row r="724" ht="15.75" customHeight="1"/>
+    <row r="725" ht="15.75" customHeight="1"/>
+    <row r="726" ht="15.75" customHeight="1"/>
+    <row r="727" ht="15.75" customHeight="1"/>
+    <row r="728" ht="15.75" customHeight="1"/>
+    <row r="729" ht="15.75" customHeight="1"/>
+    <row r="730" ht="15.75" customHeight="1"/>
+    <row r="731" ht="15.75" customHeight="1"/>
+    <row r="732" ht="15.75" customHeight="1"/>
+    <row r="733" ht="15.75" customHeight="1"/>
+    <row r="734" ht="15.75" customHeight="1"/>
+    <row r="735" ht="15.75" customHeight="1"/>
+    <row r="736" ht="15.75" customHeight="1"/>
+    <row r="737" ht="15.75" customHeight="1"/>
+    <row r="738" ht="15.75" customHeight="1"/>
+    <row r="739" ht="15.75" customHeight="1"/>
+    <row r="740" ht="15.75" customHeight="1"/>
+    <row r="741" ht="15.75" customHeight="1"/>
+    <row r="742" ht="15.75" customHeight="1"/>
+    <row r="743" ht="15.75" customHeight="1"/>
+    <row r="744" ht="15.75" customHeight="1"/>
+    <row r="745" ht="15.75" customHeight="1"/>
+    <row r="746" ht="15.75" customHeight="1"/>
+    <row r="747" ht="15.75" customHeight="1"/>
+    <row r="748" ht="15.75" customHeight="1"/>
+    <row r="749" ht="15.75" customHeight="1"/>
+    <row r="750" ht="15.75" customHeight="1"/>
+    <row r="751" ht="15.75" customHeight="1"/>
+    <row r="752" ht="15.75" customHeight="1"/>
+    <row r="753" ht="15.75" customHeight="1"/>
+    <row r="754" ht="15.75" customHeight="1"/>
+    <row r="755" ht="15.75" customHeight="1"/>
+    <row r="756" ht="15.75" customHeight="1"/>
+    <row r="757" ht="15.75" customHeight="1"/>
+    <row r="758" ht="15.75" customHeight="1"/>
+    <row r="759" ht="15.75" customHeight="1"/>
+    <row r="760" ht="15.75" customHeight="1"/>
+    <row r="761" ht="15.75" customHeight="1"/>
+    <row r="762" ht="15.75" customHeight="1"/>
+    <row r="763" ht="15.75" customHeight="1"/>
+    <row r="764" ht="15.75" customHeight="1"/>
+    <row r="765" ht="15.75" customHeight="1"/>
+    <row r="766" ht="15.75" customHeight="1"/>
+    <row r="767" ht="15.75" customHeight="1"/>
+    <row r="768" ht="15.75" customHeight="1"/>
+    <row r="769" ht="15.75" customHeight="1"/>
+    <row r="770" ht="15.75" customHeight="1"/>
+    <row r="771" ht="15.75" customHeight="1"/>
+    <row r="772" ht="15.75" customHeight="1"/>
+    <row r="773" ht="15.75" customHeight="1"/>
+    <row r="774" ht="15.75" customHeight="1"/>
+    <row r="775" ht="15.75" customHeight="1"/>
+    <row r="776" ht="15.75" customHeight="1"/>
+    <row r="777" ht="15.75" customHeight="1"/>
+    <row r="778" ht="15.75" customHeight="1"/>
+    <row r="779" ht="15.75" customHeight="1"/>
+    <row r="780" ht="15.75" customHeight="1"/>
+    <row r="781" ht="15.75" customHeight="1"/>
+    <row r="782" ht="15.75" customHeight="1"/>
+    <row r="783" ht="15.75" customHeight="1"/>
+    <row r="784" ht="15.75" customHeight="1"/>
+    <row r="785" ht="15.75" customHeight="1"/>
+    <row r="786" ht="15.75" customHeight="1"/>
+    <row r="787" ht="15.75" customHeight="1"/>
+    <row r="788" ht="15.75" customHeight="1"/>
+    <row r="789" ht="15.75" customHeight="1"/>
+    <row r="790" ht="15.75" customHeight="1"/>
+    <row r="791" ht="15.75" customHeight="1"/>
+    <row r="792" ht="15.75" customHeight="1"/>
+    <row r="793" ht="15.75" customHeight="1"/>
+    <row r="794" ht="15.75" customHeight="1"/>
+    <row r="795" ht="15.75" customHeight="1"/>
+    <row r="796" ht="15.75" customHeight="1"/>
+    <row r="797" ht="15.75" customHeight="1"/>
+    <row r="798" ht="15.75" customHeight="1"/>
+    <row r="799" ht="15.75" customHeight="1"/>
+    <row r="800" ht="15.75" customHeight="1"/>
+    <row r="801" ht="15.75" customHeight="1"/>
+    <row r="802" ht="15.75" customHeight="1"/>
+    <row r="803" ht="15.75" customHeight="1"/>
+    <row r="804" ht="15.75" customHeight="1"/>
+    <row r="805" ht="15.75" customHeight="1"/>
+    <row r="806" ht="15.75" customHeight="1"/>
+    <row r="807" ht="15.75" customHeight="1"/>
+    <row r="808" ht="15.75" customHeight="1"/>
+    <row r="809" ht="15.75" customHeight="1"/>
+    <row r="810" ht="15.75" customHeight="1"/>
+    <row r="811" ht="15.75" customHeight="1"/>
+    <row r="812" ht="15.75" customHeight="1"/>
+    <row r="813" ht="15.75" customHeight="1"/>
+    <row r="814" ht="15.75" customHeight="1"/>
+    <row r="815" ht="15.75" customHeight="1"/>
+    <row r="816" ht="15.75" customHeight="1"/>
+    <row r="817" ht="15.75" customHeight="1"/>
+    <row r="818" ht="15.75" customHeight="1"/>
+    <row r="819" ht="15.75" customHeight="1"/>
+    <row r="820" ht="15.75" customHeight="1"/>
+    <row r="821" ht="15.75" customHeight="1"/>
+    <row r="822" ht="15.75" customHeight="1"/>
+    <row r="823" ht="15.75" customHeight="1"/>
+    <row r="824" ht="15.75" customHeight="1"/>
+    <row r="825" ht="15.75" customHeight="1"/>
+    <row r="826" ht="15.75" customHeight="1"/>
+    <row r="827" ht="15.75" customHeight="1"/>
+    <row r="828" ht="15.75" customHeight="1"/>
+    <row r="829" ht="15.75" customHeight="1"/>
+    <row r="830" ht="15.75" customHeight="1"/>
+    <row r="831" ht="15.75" customHeight="1"/>
+    <row r="832" ht="15.75" customHeight="1"/>
+    <row r="833" ht="15.75" customHeight="1"/>
+    <row r="834" ht="15.75" customHeight="1"/>
+    <row r="835" ht="15.75" customHeight="1"/>
+    <row r="836" ht="15.75" customHeight="1"/>
+    <row r="837" ht="15.75" customHeight="1"/>
+    <row r="838" ht="15.75" customHeight="1"/>
+    <row r="839" ht="15.75" customHeight="1"/>
+    <row r="840" ht="15.75" customHeight="1"/>
+    <row r="841" ht="15.75" customHeight="1"/>
+    <row r="842" ht="15.75" customHeight="1"/>
+    <row r="843" ht="15.75" customHeight="1"/>
+    <row r="844" ht="15.75" customHeight="1"/>
+    <row r="845" ht="15.75" customHeight="1"/>
+    <row r="846" ht="15.75" customHeight="1"/>
+    <row r="847" ht="15.75" customHeight="1"/>
+    <row r="848" ht="15.75" customHeight="1"/>
+    <row r="849" ht="15.75" customHeight="1"/>
+    <row r="850" ht="15.75" customHeight="1"/>
+    <row r="851" ht="15.75" customHeight="1"/>
+    <row r="852" ht="15.75" customHeight="1"/>
+    <row r="853" ht="15.75" customHeight="1"/>
+    <row r="854" ht="15.75" customHeight="1"/>
+    <row r="855" ht="15.75" customHeight="1"/>
+    <row r="856" ht="15.75" customHeight="1"/>
+    <row r="857" ht="15.75" customHeight="1"/>
+    <row r="858" ht="15.75" customHeight="1"/>
+    <row r="859" ht="15.75" customHeight="1"/>
+    <row r="860" ht="15.75" customHeight="1"/>
+    <row r="861" ht="15.75" customHeight="1"/>
+    <row r="862" ht="15.75" customHeight="1"/>
+    <row r="863" ht="15.75" customHeight="1"/>
+    <row r="864" ht="15.75" customHeight="1"/>
+    <row r="865" ht="15.75" customHeight="1"/>
+    <row r="866" ht="15.75" customHeight="1"/>
+    <row r="867" ht="15.75" customHeight="1"/>
+    <row r="868" ht="15.75" customHeight="1"/>
+    <row r="869" ht="15.75" customHeight="1"/>
+    <row r="870" ht="15.75" customHeight="1"/>
+    <row r="871" ht="15.75" customHeight="1"/>
+    <row r="872" ht="15.75" customHeight="1"/>
+    <row r="873" ht="15.75" customHeight="1"/>
+    <row r="874" ht="15.75" customHeight="1"/>
+    <row r="875" ht="15.75" customHeight="1"/>
+    <row r="876" ht="15.75" customHeight="1"/>
+    <row r="877" ht="15.75" customHeight="1"/>
+    <row r="878" ht="15.75" customHeight="1"/>
+    <row r="879" ht="15.75" customHeight="1"/>
+    <row r="880" ht="15.75" customHeight="1"/>
+    <row r="881" ht="15.75" customHeight="1"/>
+    <row r="882" ht="15.75" customHeight="1"/>
+    <row r="883" ht="15.75" customHeight="1"/>
+    <row r="884" ht="15.75" customHeight="1"/>
+    <row r="885" ht="15.75" customHeight="1"/>
+    <row r="886" ht="15.75" customHeight="1"/>
+    <row r="887" ht="15.75" customHeight="1"/>
+    <row r="888" ht="15.75" customHeight="1"/>
+    <row r="889" ht="15.75" customHeight="1"/>
+    <row r="890" ht="15.75" customHeight="1"/>
+    <row r="891" ht="15.75" customHeight="1"/>
+    <row r="892" ht="15.75" customHeight="1"/>
+    <row r="893" ht="15.75" customHeight="1"/>
+    <row r="894" ht="15.75" customHeight="1"/>
+    <row r="895" ht="15.75" customHeight="1"/>
+    <row r="896" ht="15.75" customHeight="1"/>
+    <row r="897" ht="15.75" customHeight="1"/>
+    <row r="898" ht="15.75" customHeight="1"/>
+    <row r="899" ht="15.75" customHeight="1"/>
+    <row r="900" ht="15.75" customHeight="1"/>
+    <row r="901" ht="15.75" customHeight="1"/>
+    <row r="902" ht="15.75" customHeight="1"/>
+    <row r="903" ht="15.75" customHeight="1"/>
+    <row r="904" ht="15.75" customHeight="1"/>
+    <row r="905" ht="15.75" customHeight="1"/>
+    <row r="906" ht="15.75" customHeight="1"/>
+    <row r="907" ht="15.75" customHeight="1"/>
+    <row r="908" ht="15.75" customHeight="1"/>
+    <row r="909" ht="15.75" customHeight="1"/>
+    <row r="910" ht="15.75" customHeight="1"/>
+    <row r="911" ht="15.75" customHeight="1"/>
+    <row r="912" ht="15.75" customHeight="1"/>
+    <row r="913" ht="15.75" customHeight="1"/>
+    <row r="914" ht="15.75" customHeight="1"/>
+    <row r="915" ht="15.75" customHeight="1"/>
+    <row r="916" ht="15.75" customHeight="1"/>
+    <row r="917" ht="15.75" customHeight="1"/>
+    <row r="918" ht="15.75" customHeight="1"/>
+    <row r="919" ht="15.75" customHeight="1"/>
+    <row r="920" ht="15.75" customHeight="1"/>
+    <row r="921" ht="15.75" customHeight="1"/>
+    <row r="922" ht="15.75" customHeight="1"/>
+    <row r="923" ht="15.75" customHeight="1"/>
+    <row r="924" ht="15.75" customHeight="1"/>
+    <row r="925" ht="15.75" customHeight="1"/>
+    <row r="926" ht="15.75" customHeight="1"/>
+    <row r="927" ht="15.75" customHeight="1"/>
+    <row r="928" ht="15.75" customHeight="1"/>
+    <row r="929" ht="15.75" customHeight="1"/>
+    <row r="930" ht="15.75" customHeight="1"/>
+    <row r="931" ht="15.75" customHeight="1"/>
+    <row r="932" ht="15.75" customHeight="1"/>
+    <row r="933" ht="15.75" customHeight="1"/>
+    <row r="934" ht="15.75" customHeight="1"/>
+    <row r="935" ht="15.75" customHeight="1"/>
+    <row r="936" ht="15.75" customHeight="1"/>
+    <row r="937" ht="15.75" customHeight="1"/>
+    <row r="938" ht="15.75" customHeight="1"/>
+    <row r="939" ht="15.75" customHeight="1"/>
+    <row r="940" ht="15.75" customHeight="1"/>
+    <row r="941" ht="15.75" customHeight="1"/>
+    <row r="942" ht="15.75" customHeight="1"/>
+    <row r="943" ht="15.75" customHeight="1"/>
+    <row r="944" ht="15.75" customHeight="1"/>
+    <row r="945" ht="15.75" customHeight="1"/>
+    <row r="946" ht="15.75" customHeight="1"/>
+    <row r="947" ht="15.75" customHeight="1"/>
+    <row r="948" ht="15.75" customHeight="1"/>
+    <row r="949" ht="15.75" customHeight="1"/>
+    <row r="950" ht="15.75" customHeight="1"/>
+    <row r="951" ht="15.75" customHeight="1"/>
+    <row r="952" ht="15.75" customHeight="1"/>
+    <row r="953" ht="15.75" customHeight="1"/>
+    <row r="954" ht="15.75" customHeight="1"/>
+    <row r="955" ht="15.75" customHeight="1"/>
+    <row r="956" ht="15.75" customHeight="1"/>
+    <row r="957" ht="15.75" customHeight="1"/>
+    <row r="958" ht="15.75" customHeight="1"/>
+    <row r="959" ht="15.75" customHeight="1"/>
+    <row r="960" ht="15.75" customHeight="1"/>
+    <row r="961" ht="15.75" customHeight="1"/>
+    <row r="962" ht="15.75" customHeight="1"/>
+    <row r="963" ht="15.75" customHeight="1"/>
+    <row r="964" ht="15.75" customHeight="1"/>
+    <row r="965" ht="15.75" customHeight="1"/>
+    <row r="966" ht="15.75" customHeight="1"/>
+    <row r="967" ht="15.75" customHeight="1"/>
+    <row r="968" ht="15.75" customHeight="1"/>
+    <row r="969" ht="15.75" customHeight="1"/>
+    <row r="970" ht="15.75" customHeight="1"/>
+    <row r="971" ht="15.75" customHeight="1"/>
+    <row r="972" ht="15.75" customHeight="1"/>
+    <row r="973" ht="15.75" customHeight="1"/>
+    <row r="974" ht="15.75" customHeight="1"/>
+    <row r="975" ht="15.75" customHeight="1"/>
+    <row r="976" ht="15.75" customHeight="1"/>
+    <row r="977" ht="15.75" customHeight="1"/>
+    <row r="978" ht="15.75" customHeight="1"/>
+    <row r="979" ht="15.75" customHeight="1"/>
+    <row r="980" ht="15.75" customHeight="1"/>
+    <row r="981" ht="15.75" customHeight="1"/>
+    <row r="982" ht="15.75" customHeight="1"/>
+    <row r="983" ht="15.75" customHeight="1"/>
+    <row r="984" ht="15.75" customHeight="1"/>
+    <row r="985" ht="15.75" customHeight="1"/>
+    <row r="986" ht="15.75" customHeight="1"/>
+    <row r="987" ht="15.75" customHeight="1"/>
+    <row r="988" ht="15.75" customHeight="1"/>
+    <row r="989" ht="15.75" customHeight="1"/>
+    <row r="990" ht="15.75" customHeight="1"/>
+    <row r="991" ht="15.75" customHeight="1"/>
+    <row r="992" ht="15.75" customHeight="1"/>
+    <row r="993" ht="15.75" customHeight="1"/>
+    <row r="994" ht="15.75" customHeight="1"/>
+    <row r="995" ht="15.75" customHeight="1"/>
+    <row r="996" ht="15.75" customHeight="1"/>
+    <row r="997" ht="15.75" customHeight="1"/>
+    <row r="998" ht="15.75" customHeight="1"/>
+    <row r="999" ht="15.75" customHeight="1"/>
+    <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="20" t="s">
-        <v>141</v>
-      </c>
-      <c r="C1" s="20" t="s">
-        <v>142</v>
-      </c>
-      <c r="D1" s="20" t="s">
-        <v>161</v>
-      </c>
-      <c r="E1" s="20" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="B2" s="21" t="s">
-        <v>208</v>
-      </c>
-      <c r="C2" s="21" t="s">
-        <v>209</v>
-      </c>
-      <c r="D2" s="21" t="s">
-        <v>172</v>
-      </c>
-    </row>
-  </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup orientation="landscape"/>
 </worksheet>
 </file>